--- a/public/market_data.xlsx
+++ b/public/market_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\marketmonitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\galetaireID\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF5026C-CEDA-4E1D-8A71-F5137ED02497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F337025-F637-4BD1-A9C5-FEF50CAC06E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -760,8 +760,8 @@
   <dimension ref="A1:AN37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T37" sqref="T37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -955,7 +955,7 @@
       </c>
       <c r="O2" s="20">
         <f>J2*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.0538111335280314</v>
+        <v>1.0335729612092011</v>
       </c>
       <c r="P2" s="5">
         <f>L2*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
@@ -963,11 +963,11 @@
       </c>
       <c r="Q2" s="7">
         <f>(F2*100/MAX($F$2:$F$37))</f>
-        <v>4.5298126527287543</v>
+        <v>4.4268049990712974</v>
       </c>
       <c r="R2" s="7">
         <f>(H2*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>14.866380284874516</v>
+        <v>14.812795674701508</v>
       </c>
       <c r="S2" s="36"/>
       <c r="T2" s="35">
@@ -1024,7 +1024,7 @@
         <v>1104.5323505685974</v>
       </c>
       <c r="AK2" s="3">
-        <f>((AJ2/AD2)/100)*100/6.407</f>
+        <f t="shared" ref="AK2:AK37" si="2">((AJ2/AD2)/100)*100/6.407</f>
         <v>57.851534760247603</v>
       </c>
       <c r="AL2" s="7">
@@ -1083,38 +1083,38 @@
         <v>-1.3560665510843366</v>
       </c>
       <c r="O3" s="20">
-        <f t="shared" ref="O3:O36" si="2">J3*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.2811463739363813</v>
+        <f t="shared" ref="O3:O36" si="3">J3*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
+        <v>1.256542286679716</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P36" si="3">L3*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" ref="P3:P36" si="4">L3*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
         <v>1.8157125000000001</v>
       </c>
       <c r="Q3" s="7">
-        <f t="shared" ref="Q3:Q35" si="4">(F3*100/MAX($F$2:$F$37))</f>
-        <v>5.6636301927776271</v>
+        <f t="shared" ref="Q3:Q35" si="5">(F3*100/MAX($F$2:$F$37))</f>
+        <v>5.5348395998620212</v>
       </c>
       <c r="R3" s="7">
-        <f t="shared" ref="R3:R37" si="5">(H3*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>15.289170246439067</v>
+        <f t="shared" ref="R3:R37" si="6">(H3*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
+        <v>15.234061725613877</v>
       </c>
       <c r="S3" s="36">
         <f>E3-E2</f>
         <v>-2.4116666666666706</v>
       </c>
       <c r="T3" s="35">
-        <f t="shared" ref="T3:T37" si="6">IF(D3&gt;0,-0.5,1)+IF(J3&gt;100,1,-0.5)+IF(M3&gt;100,1,-0.5)+IF(S3&gt;1,1,-0.5)+IF(L3&gt;I3,1,-0.5)</f>
+        <f t="shared" ref="T3:T37" si="7">IF(D3&gt;0,-0.5,1)+IF(J3&gt;100,1,-0.5)+IF(M3&gt;100,1,-0.5)+IF(S3&gt;1,1,-0.5)+IF(L3&gt;I3,1,-0.5)</f>
         <v>-1</v>
       </c>
       <c r="U3" s="3">
         <v>3.3811999999999998</v>
       </c>
       <c r="V3" s="13">
-        <f t="shared" ref="V3:V35" si="7">(U3*100/U2)-100</f>
+        <f t="shared" ref="V3:V35" si="8">(U3*100/U2)-100</f>
         <v>2.8439334489156636</v>
       </c>
       <c r="W3" s="13">
-        <f t="shared" ref="W3:W35" si="8">U3-U2</f>
+        <f t="shared" ref="W3:W35" si="9">U3-U2</f>
         <v>9.3500000000000139E-2</v>
       </c>
       <c r="X3" s="7">
@@ -1127,26 +1127,26 @@
         <v>586</v>
       </c>
       <c r="AA3" s="9">
-        <f t="shared" ref="AA3:AA34" si="9">AVERAGE(X3:Z3)</f>
+        <f t="shared" ref="AA3:AA34" si="10">AVERAGE(X3:Z3)</f>
         <v>1390.61</v>
       </c>
       <c r="AB3" s="13">
-        <f>((AA3/U3)/100)*100/7.04</f>
+        <f t="shared" ref="AB3:AB37" si="11">((AA3/U3)/100)*100/7.04</f>
         <v>58.420037130443205</v>
       </c>
       <c r="AC3" s="6">
-        <f>AA3/U3</f>
+        <f t="shared" ref="AC3:AC37" si="12">AA3/U3</f>
         <v>411.27706139832014</v>
       </c>
       <c r="AD3" s="3">
         <v>3.2046329999999998</v>
       </c>
       <c r="AE3" s="3">
-        <f t="shared" ref="AE3:AE35" si="10">(AD3*100/AD2)-100</f>
+        <f t="shared" ref="AE3:AE35" si="13">(AD3*100/AD2)-100</f>
         <v>7.539860581506602</v>
       </c>
       <c r="AF3" s="5">
-        <f t="shared" ref="AF3:AF35" si="11">AD3-AD2</f>
+        <f t="shared" ref="AF3:AF35" si="14">AD3-AD2</f>
         <v>0.22468399999999988</v>
       </c>
       <c r="AG3" s="7">
@@ -1159,15 +1159,15 @@
         <v>479.54535718908153</v>
       </c>
       <c r="AJ3" s="7">
-        <f t="shared" ref="AJ3:AJ35" si="12">AVERAGE(AG3:AI3)</f>
+        <f t="shared" ref="AJ3:AJ35" si="15">AVERAGE(AG3:AI3)</f>
         <v>1273.8484523963605</v>
       </c>
       <c r="AK3" s="3">
-        <f>((AJ3/AD3)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>62.041849979271625</v>
       </c>
       <c r="AL3" s="7">
-        <f>AJ3/AD3</f>
+        <f t="shared" ref="AL3:AL37" si="16">AJ3/AD3</f>
         <v>397.50213281719329</v>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
         <v>1470.7033333333336</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" ref="G4:G32" si="13">(F4*100/F3)-100</f>
+        <f t="shared" ref="G4:G32" si="17">(F4*100/F3)-100</f>
         <v>5.7595827250871139</v>
       </c>
       <c r="H4" s="5">
@@ -1201,11 +1201,11 @@
         <v>3.4190999999999998</v>
       </c>
       <c r="I4" s="37">
-        <f t="shared" ref="I4:I32" si="14">(H4*100/H3)-100</f>
+        <f t="shared" ref="I4:I32" si="18">(H4*100/H3)-100</f>
         <v>1.1209038211285929</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" ref="J4:J35" si="15">AB4</f>
+        <f t="shared" ref="J4:J35" si="19">AB4</f>
         <v>61.099916201587703</v>
       </c>
       <c r="K4" s="5">
@@ -1223,38 +1223,38 @@
         <v>-1.8790961788714071</v>
       </c>
       <c r="O4" s="20">
-        <f t="shared" si="2"/>
-        <v>1.3399158907533373</v>
+        <f t="shared" si="3"/>
+        <v>1.3141831500116266</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2969374999999999</v>
       </c>
       <c r="Q4" s="7">
-        <f t="shared" si="4"/>
-        <v>5.9898316589736647</v>
+        <f t="shared" si="5"/>
+        <v>5.853623265316954</v>
       </c>
       <c r="R4" s="7">
-        <f t="shared" si="5"/>
-        <v>15.460547139950258</v>
+        <f t="shared" si="6"/>
+        <v>15.404820905609373</v>
       </c>
       <c r="S4" s="36">
         <f>E4-(AVERAGE(E2:E3))</f>
         <v>-3.3716666666666688</v>
       </c>
       <c r="T4" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U4" s="3">
         <v>3.4190999999999998</v>
       </c>
       <c r="V4" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1209038211285929</v>
       </c>
       <c r="W4" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.7900000000000045E-2</v>
       </c>
       <c r="X4" s="7">
@@ -1267,26 +1267,26 @@
         <v>676</v>
       </c>
       <c r="AA4" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1470.7033333333336</v>
       </c>
       <c r="AB4" s="13">
-        <f>((AA4/U4)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>61.099916201587703</v>
       </c>
       <c r="AC4" s="6">
-        <f>AA4/U4</f>
+        <f t="shared" si="12"/>
         <v>430.14341005917748</v>
       </c>
       <c r="AD4" s="3">
         <v>3.4331779999999998</v>
       </c>
       <c r="AE4" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.1317058770848263</v>
       </c>
       <c r="AF4" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.228545</v>
       </c>
       <c r="AG4" s="7">
@@ -1299,15 +1299,15 @@
         <v>487.27290475096095</v>
       </c>
       <c r="AJ4" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1294.0909682503204</v>
       </c>
       <c r="AK4" s="3">
-        <f>((AJ4/AD4)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>58.832020155108296</v>
       </c>
       <c r="AL4" s="7">
-        <f>AJ4/AD4</f>
+        <f t="shared" si="16"/>
         <v>376.93675313377884</v>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
         <v>1665.3633333333335</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>13.235844074603747</v>
       </c>
       <c r="H5" s="5">
@@ -1341,11 +1341,11 @@
         <v>3.4748999999999999</v>
       </c>
       <c r="I5" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6320084232692835</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>68.075999788962761</v>
       </c>
       <c r="K5" s="5">
@@ -1363,38 +1363,38 @@
         <v>-1.3679915767307165</v>
       </c>
       <c r="O5" s="20">
-        <f t="shared" si="2"/>
-        <v>1.4929008019454821</v>
+        <f t="shared" si="3"/>
+        <v>1.4642300252537033</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2969374999999999</v>
       </c>
       <c r="Q5" s="7">
-        <f t="shared" si="4"/>
-        <v>6.7826364376866692</v>
+        <f t="shared" si="5"/>
+        <v>6.628399713429034</v>
       </c>
       <c r="R5" s="7">
-        <f t="shared" si="5"/>
-        <v>15.712864571557764</v>
+        <f t="shared" si="6"/>
+        <v>15.656228880378464</v>
       </c>
       <c r="S5" s="36">
-        <f t="shared" ref="S5:S37" si="16">E5-(AVERAGE(E3:E4))</f>
+        <f t="shared" ref="S5:S37" si="20">E5-(AVERAGE(E3:E4))</f>
         <v>-1.5820833333333333</v>
       </c>
       <c r="T5" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U5" s="3">
         <v>3.4748999999999999</v>
       </c>
       <c r="V5" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6320084232692835</v>
       </c>
       <c r="W5" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5800000000000072E-2</v>
       </c>
       <c r="X5" s="7">
@@ -1407,26 +1407,26 @@
         <v>776</v>
       </c>
       <c r="AA5" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1665.3633333333335</v>
       </c>
       <c r="AB5" s="13">
-        <f>((AA5/U5)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>68.075999788962761</v>
       </c>
       <c r="AC5" s="6">
-        <f>AA5/U5</f>
+        <f t="shared" si="12"/>
         <v>479.25503851429784</v>
       </c>
       <c r="AD5" s="3">
         <v>3.6517740000000001</v>
       </c>
       <c r="AE5" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.3671618541188479</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.21859600000000023</v>
       </c>
       <c r="AG5" s="7">
@@ -1439,15 +1439,15 @@
         <v>729.72717760454884</v>
       </c>
       <c r="AJ5" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1750.9090592015164</v>
       </c>
       <c r="AK5" s="3">
-        <f>((AJ5/AD5)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>74.835036286598012</v>
       </c>
       <c r="AL5" s="7">
-        <f>AJ5/AD5</f>
+        <f t="shared" si="16"/>
         <v>479.46807748823346</v>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
         <v>1681.4800000000002</v>
       </c>
       <c r="G6" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.96775678580651459</v>
       </c>
       <c r="H6" s="5">
@@ -1485,7 +1485,7 @@
         <v>0.50361161472272897</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>68.390387959309066</v>
       </c>
       <c r="K6" s="5">
@@ -1503,38 +1503,38 @@
         <v>-2.0963883852772711</v>
       </c>
       <c r="O6" s="20">
-        <f t="shared" si="2"/>
-        <v>1.4997953073965542</v>
+        <f t="shared" si="3"/>
+        <v>1.4709921234973236</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1240125000000001</v>
       </c>
       <c r="Q6" s="7">
-        <f t="shared" si="4"/>
-        <v>6.8482758620689674</v>
+        <f t="shared" si="5"/>
+        <v>6.692546501446123</v>
       </c>
       <c r="R6" s="7">
-        <f t="shared" si="5"/>
-        <v>15.791996382545783</v>
+        <f t="shared" si="6"/>
+        <v>15.735075467447626</v>
       </c>
       <c r="S6" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.92958333333333387</v>
       </c>
       <c r="T6" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U6" s="3">
         <v>3.4923999999999999</v>
       </c>
       <c r="V6" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.50361161472272897</v>
       </c>
       <c r="W6" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7500000000000071E-2</v>
       </c>
       <c r="X6" s="7">
@@ -1547,26 +1547,26 @@
         <v>751</v>
       </c>
       <c r="AA6" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1681.4800000000002</v>
       </c>
       <c r="AB6" s="13">
-        <f>((AA6/U6)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>68.390387959309066</v>
       </c>
       <c r="AC6" s="6">
-        <f>AA6/U6</f>
+        <f t="shared" si="12"/>
         <v>481.46833123353576</v>
       </c>
       <c r="AD6" s="3">
         <v>3.7357990000000001</v>
       </c>
       <c r="AE6" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.3009364763536837</v>
       </c>
       <c r="AF6" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8.4025000000000016E-2</v>
       </c>
       <c r="AG6" s="7">
@@ -1579,15 +1579,15 @@
         <v>651.25414844226009</v>
       </c>
       <c r="AJ6" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1543.0847161474201</v>
       </c>
       <c r="AK6" s="3">
-        <f>((AJ6/AD6)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>64.469090614788527</v>
       </c>
       <c r="AL6" s="7">
-        <f>AJ6/AD6</f>
+        <f t="shared" si="16"/>
         <v>413.05346356895006</v>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>2261.3733333333334</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>34.48707884324125</v>
       </c>
       <c r="H7" s="5">
@@ -1621,11 +1621,11 @@
         <v>3.6478999999999999</v>
       </c>
       <c r="I7" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.4525254839079054</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>88.055539633844973</v>
       </c>
       <c r="K7" s="5">
@@ -1643,38 +1643,38 @@
         <v>1.6525254839079055</v>
       </c>
       <c r="O7" s="20">
-        <f t="shared" si="2"/>
-        <v>1.9310503869591764</v>
+        <f t="shared" si="3"/>
+        <v>1.8939650599549098</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.210475</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" si="4"/>
-        <v>9.210046158023351</v>
+        <f t="shared" si="5"/>
+        <v>9.0006102900204308</v>
       </c>
       <c r="R7" s="7">
-        <f t="shared" si="5"/>
-        <v>16.495139045896451</v>
+        <f t="shared" si="6"/>
+        <v>16.435683712547871</v>
       </c>
       <c r="S7" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.2245833333333334</v>
       </c>
       <c r="T7" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U7" s="3">
         <v>3.6478999999999999</v>
       </c>
       <c r="V7" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4525254839079054</v>
       </c>
       <c r="W7" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15549999999999997</v>
       </c>
       <c r="X7" s="7">
@@ -1687,26 +1687,26 @@
         <v>1052</v>
       </c>
       <c r="AA7" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2261.3733333333334</v>
       </c>
       <c r="AB7" s="13">
-        <f>((AA7/U7)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>88.055539633844973</v>
       </c>
       <c r="AC7" s="6">
-        <f>AA7/U7</f>
+        <f t="shared" si="12"/>
         <v>619.91099902226858</v>
       </c>
       <c r="AD7" s="3">
         <v>3.9374030000000002</v>
       </c>
       <c r="AE7" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.3965430152960749</v>
       </c>
       <c r="AF7" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.20160400000000012</v>
       </c>
       <c r="AG7" s="7">
@@ -1719,15 +1719,15 @@
         <v>677.3043143799506</v>
       </c>
       <c r="AJ7" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1602.7681047933168</v>
       </c>
       <c r="AK7" s="3">
-        <f>((AJ7/AD7)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>63.533985490317804</v>
       </c>
       <c r="AL7" s="7">
-        <f>AJ7/AD7</f>
+        <f t="shared" si="16"/>
         <v>407.06224503646609</v>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
         <v>2826.4233333333336</v>
       </c>
       <c r="G8" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.987028531334957</v>
       </c>
       <c r="H8" s="5">
@@ -1761,11 +1761,11 @@
         <v>3.8245999999999998</v>
       </c>
       <c r="I8" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.8438827818744983</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>104.97322259091465</v>
       </c>
       <c r="K8" s="5">
@@ -1783,38 +1783,38 @@
         <v>1.8438827818744983</v>
       </c>
       <c r="O8" s="20">
-        <f t="shared" si="2"/>
-        <v>2.3020537145924722</v>
+        <f t="shared" si="3"/>
+        <v>2.2578433639130764</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2969374999999999</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" si="4"/>
-        <v>11.511363019277765</v>
+        <f t="shared" si="5"/>
+        <v>11.249595351182107</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="5"/>
-        <v>17.294144245986885</v>
+        <f t="shared" si="6"/>
+        <v>17.23180896598333</v>
       </c>
       <c r="S8" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.2791666666666659</v>
       </c>
       <c r="T8" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U8" s="3">
         <v>3.8245999999999998</v>
       </c>
       <c r="V8" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8438827818744983</v>
       </c>
       <c r="W8" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17669999999999986</v>
       </c>
       <c r="X8" s="7">
@@ -1827,26 +1827,26 @@
         <v>1291</v>
       </c>
       <c r="AA8" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2826.4233333333336</v>
       </c>
       <c r="AB8" s="13">
-        <f>((AA8/U8)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>104.97322259091465</v>
       </c>
       <c r="AC8" s="6">
-        <f>AA8/U8</f>
+        <f t="shared" si="12"/>
         <v>739.01148704003913</v>
       </c>
       <c r="AD8" s="3">
         <v>4.0903450000000001</v>
       </c>
       <c r="AE8" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.8843369601740108</v>
       </c>
       <c r="AF8" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.15294199999999991</v>
       </c>
       <c r="AG8" s="7">
@@ -1859,15 +1859,15 @@
         <v>912.27392328124427</v>
       </c>
       <c r="AJ8" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2035.7579744270815</v>
       </c>
       <c r="AK8" s="3">
-        <f>((AJ8/AD8)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>77.680404893902249</v>
       </c>
       <c r="AL8" s="7">
-        <f>AJ8/AD8</f>
+        <f t="shared" si="16"/>
         <v>497.69835415523175</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
         <v>3482.7666666666664</v>
       </c>
       <c r="G9" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.2216924334288</v>
       </c>
       <c r="H9" s="5">
@@ -1901,11 +1901,11 @@
         <v>4.0461</v>
       </c>
       <c r="I9" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>5.7914553155885642</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>122.26864739932878</v>
       </c>
       <c r="K9" s="5">
@@ -1923,38 +1923,38 @@
         <v>3.4914553155885644</v>
       </c>
       <c r="O9" s="20">
-        <f t="shared" si="2"/>
-        <v>2.6813408884351331</v>
+        <f t="shared" si="3"/>
+        <v>2.6298464249405202</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99431874999999992</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="4"/>
-        <v>14.184496334509909</v>
+        <f t="shared" si="5"/>
+        <v>13.861941783638919</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="5"/>
-        <v>18.295726882206647</v>
+        <f t="shared" si="6"/>
+        <v>18.22978148231584</v>
       </c>
       <c r="S9" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.10749999999999993</v>
       </c>
       <c r="T9" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U9" s="3">
         <v>4.0461</v>
       </c>
       <c r="V9" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.7914553155885642</v>
       </c>
       <c r="W9" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.22150000000000025</v>
       </c>
       <c r="X9" s="7">
@@ -1967,26 +1967,26 @@
         <v>1570</v>
       </c>
       <c r="AA9" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3482.7666666666664</v>
       </c>
       <c r="AB9" s="13">
-        <f>((AA9/U9)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>122.26864739932878</v>
       </c>
       <c r="AC9" s="6">
-        <f>AA9/U9</f>
+        <f t="shared" si="12"/>
         <v>860.77127769127469</v>
       </c>
       <c r="AD9" s="3">
         <v>4.2673110000000003</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.3264321224737756</v>
       </c>
       <c r="AF9" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.17696600000000018</v>
       </c>
       <c r="AG9" s="7">
@@ -1999,15 +1999,15 @@
         <v>1495.9794922493888</v>
       </c>
       <c r="AJ9" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2905.9931640831296</v>
       </c>
       <c r="AK9" s="3">
-        <f>((AJ9/AD9)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>106.28832648759899</v>
       </c>
       <c r="AL9" s="7">
-        <f>AJ9/AD9</f>
+        <f t="shared" si="16"/>
         <v>680.98930780604678</v>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
         <v>4200.8100000000004</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>20.61703817845968</v>
       </c>
       <c r="H10" s="5">
@@ -2041,11 +2041,11 @@
         <v>4.3923999999999994</v>
       </c>
       <c r="I10" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.5588591483156478</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>135.84964163306873</v>
       </c>
       <c r="K10" s="5">
@@ -2063,38 +2063,38 @@
         <v>6.9588591483156481</v>
       </c>
       <c r="O10" s="20">
-        <f t="shared" si="2"/>
-        <v>2.9791709202469399</v>
+        <f t="shared" si="3"/>
+        <v>2.9219567074407493</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="4"/>
-        <v>17.108919359218032</v>
+        <f t="shared" si="5"/>
+        <v>16.719863613447611</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="5"/>
-        <v>19.861632376215237</v>
+        <f t="shared" si="6"/>
+        <v>19.790042802432982</v>
       </c>
       <c r="S10" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-2.5833333333332931E-2</v>
       </c>
       <c r="T10" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U10" s="3">
         <v>4.3923999999999994</v>
       </c>
       <c r="V10" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5588591483156478</v>
       </c>
       <c r="W10" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.34629999999999939</v>
       </c>
       <c r="X10" s="7">
@@ -2107,26 +2107,26 @@
         <v>2192</v>
       </c>
       <c r="AA10" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4200.8100000000004</v>
       </c>
       <c r="AB10" s="13">
-        <f>((AA10/U10)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>135.84964163306873</v>
       </c>
       <c r="AC10" s="6">
-        <f>AA10/U10</f>
+        <f t="shared" si="12"/>
         <v>956.38147709680379</v>
       </c>
       <c r="AD10" s="3">
         <v>4.4719610000000003</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.7957601402850543</v>
       </c>
       <c r="AF10" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.20465</v>
       </c>
       <c r="AG10" s="7">
@@ -2139,15 +2139,15 @@
         <v>1965.7867345387713</v>
       </c>
       <c r="AJ10" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3637.9289115129236</v>
       </c>
       <c r="AK10" s="3">
-        <f>((AJ10/AD10)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>126.97010446122337</v>
       </c>
       <c r="AL10" s="7">
-        <f>AJ10/AD10</f>
+        <f t="shared" si="16"/>
         <v>813.49745928305799</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>4678.3733333333339</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>11.368363085531911</v>
       </c>
       <c r="H11" s="5">
@@ -2203,38 +2203,38 @@
         <v>3.794444950368816</v>
       </c>
       <c r="O11" s="20">
-        <f t="shared" si="2"/>
-        <v>3.1302148796125655</v>
+        <f t="shared" si="3"/>
+        <v>3.0700999063379157</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95108750000000009</v>
       </c>
       <c r="Q11" s="7">
-        <f t="shared" si="4"/>
-        <v>19.053923431984799</v>
+        <f t="shared" si="5"/>
+        <v>18.620638416430069</v>
       </c>
       <c r="R11" s="7">
-        <f t="shared" si="5"/>
-        <v>21.052226995252088</v>
+        <f t="shared" si="6"/>
+        <v>20.976346023879252</v>
       </c>
       <c r="S11" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.43666666666666654</v>
       </c>
       <c r="T11" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="U11" s="3">
         <v>4.6556999999999995</v>
       </c>
       <c r="V11" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.9944449503688162</v>
       </c>
       <c r="W11" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.26330000000000009</v>
       </c>
       <c r="X11" s="7">
@@ -2247,26 +2247,26 @@
         <v>1069</v>
       </c>
       <c r="AA11" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4678.3733333333339</v>
       </c>
       <c r="AB11" s="13">
-        <f>((AA11/U11)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>142.73721817700169</v>
       </c>
       <c r="AC11" s="6">
-        <f>AA11/U11</f>
+        <f t="shared" si="12"/>
         <v>1004.870015966092</v>
       </c>
       <c r="AD11" s="3">
         <v>4.7089470000000002</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.299375374695785</v>
       </c>
       <c r="AF11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.23698599999999992</v>
       </c>
       <c r="AG11" s="7">
@@ -2279,15 +2279,15 @@
         <v>3532.1003414965717</v>
       </c>
       <c r="AJ11" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5482.7001138321903</v>
       </c>
       <c r="AK11" s="3">
-        <f>((AJ11/AD11)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>181.72553898166194</v>
       </c>
       <c r="AL11" s="7">
-        <f>AJ11/AD11</f>
+        <f t="shared" si="16"/>
         <v>1164.3155282555081</v>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
         <v>4859.33</v>
       </c>
       <c r="G12" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.8679398537383207</v>
       </c>
       <c r="H12" s="5">
@@ -2321,11 +2321,11 @@
         <v>4.9643000000000006</v>
       </c>
       <c r="I12" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.6284339626694475</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>139.04190694284461</v>
       </c>
       <c r="K12" s="5">
@@ -2343,38 +2343,38 @@
         <v>3.2284339626694476</v>
       </c>
       <c r="O12" s="20">
-        <f t="shared" si="2"/>
-        <v>3.0491770230696829</v>
+        <f t="shared" si="3"/>
+        <v>2.9906183610285013</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4698624999999998</v>
       </c>
       <c r="Q12" s="7">
-        <f t="shared" si="4"/>
-        <v>19.790917730111325</v>
+        <f t="shared" si="5"/>
+        <v>19.340873510759678</v>
       </c>
       <c r="R12" s="7">
-        <f t="shared" si="5"/>
-        <v>22.447659959303643</v>
+        <f t="shared" si="6"/>
+        <v>22.366749267853127</v>
       </c>
       <c r="S12" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.0741666666666658</v>
       </c>
       <c r="T12" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
       <c r="U12" s="3">
         <v>4.9643000000000006</v>
       </c>
       <c r="V12" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.6284339626694475</v>
       </c>
       <c r="W12" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.3086000000000011</v>
       </c>
       <c r="X12" s="7">
@@ -2387,26 +2387,26 @@
         <v>2470</v>
       </c>
       <c r="AA12" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4859.33</v>
       </c>
       <c r="AB12" s="13">
-        <f>((AA12/U12)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>139.04190694284461</v>
       </c>
       <c r="AC12" s="6">
-        <f>AA12/U12</f>
+        <f t="shared" si="12"/>
         <v>978.85502487762608</v>
       </c>
       <c r="AD12" s="3">
         <v>4.9103279999999998</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.2765611929800684</v>
       </c>
       <c r="AF12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.20138099999999959</v>
       </c>
       <c r="AG12" s="7">
@@ -2419,15 +2419,15 @@
         <v>3386.0764499940415</v>
       </c>
       <c r="AJ12" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5248.3588166646805</v>
       </c>
       <c r="AK12" s="3">
-        <f>((AJ12/AD12)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>166.82390845070381</v>
       </c>
       <c r="AL12" s="7">
-        <f>AJ12/AD12</f>
+        <f t="shared" si="16"/>
         <v>1068.8407814436594</v>
       </c>
     </row>
@@ -2461,11 +2461,11 @@
         <v>5.4420000000000002</v>
       </c>
       <c r="I13" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.6227061217090011</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>114.14769595068654</v>
       </c>
       <c r="K13" s="5">
@@ -2483,38 +2483,38 @@
         <v>6.8227061217090013</v>
       </c>
       <c r="O13" s="20">
-        <f t="shared" si="2"/>
-        <v>2.5032491238217256</v>
+        <f t="shared" si="3"/>
+        <v>2.4551748669525106</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.210475</v>
       </c>
       <c r="Q13" s="7">
-        <f t="shared" si="4"/>
-        <v>17.810982894379581</v>
+        <f t="shared" si="5"/>
+        <v>17.405962268156124</v>
       </c>
       <c r="R13" s="7">
-        <f t="shared" si="5"/>
-        <v>24.60773230838797</v>
+        <f t="shared" si="6"/>
+        <v>24.519035818878127</v>
       </c>
       <c r="S13" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.7154166666666661</v>
       </c>
       <c r="T13" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="U13" s="3">
         <v>5.4420000000000002</v>
       </c>
       <c r="V13" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.6227061217090011</v>
       </c>
       <c r="W13" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.47769999999999957</v>
       </c>
       <c r="X13" s="7">
@@ -2527,26 +2527,26 @@
         <v>1950</v>
       </c>
       <c r="AA13" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4373.1899999999996</v>
       </c>
       <c r="AB13" s="13">
-        <f>((AA13/U13)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>114.14769595068654</v>
       </c>
       <c r="AC13" s="6">
-        <f>AA13/U13</f>
+        <f t="shared" si="12"/>
         <v>803.59977949283336</v>
       </c>
       <c r="AD13" s="3">
         <v>5.4467369999999997</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10.924097127523851</v>
       </c>
       <c r="AF13" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.53640899999999991</v>
       </c>
       <c r="AG13" s="7">
@@ -2559,15 +2559,15 @@
         <v>2802.231073086672</v>
       </c>
       <c r="AJ13" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4195.4103576955577</v>
       </c>
       <c r="AK13" s="3">
-        <f>((AJ13/AD13)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>120.2218250422484</v>
       </c>
       <c r="AL13" s="7">
-        <f>AJ13/AD13</f>
+        <f t="shared" si="16"/>
         <v>770.26123304568546</v>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
         <v>5.7923</v>
       </c>
       <c r="I14" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.4369717015803047</v>
       </c>
       <c r="J14" s="7">
@@ -2623,38 +2623,38 @@
         <v>4.8369717015803051</v>
       </c>
       <c r="O14" s="20">
-        <f t="shared" si="2"/>
-        <v>1.8922395731703323</v>
+        <f t="shared" si="3"/>
+        <v>1.855899597882614</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q14" s="7">
-        <f t="shared" si="4"/>
-        <v>14.330206353516155</v>
+        <f t="shared" si="5"/>
+        <v>14.004338366014805</v>
       </c>
       <c r="R14" s="7">
-        <f t="shared" si="5"/>
-        <v>26.191725073479535</v>
+        <f t="shared" si="6"/>
+        <v>26.097319216039654</v>
       </c>
       <c r="S14" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3.3949999999999996</v>
       </c>
       <c r="T14" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U14" s="3">
         <v>5.7923</v>
       </c>
       <c r="V14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.4369717015803047</v>
       </c>
       <c r="W14" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.35029999999999983</v>
       </c>
       <c r="X14" s="7">
@@ -2667,26 +2667,26 @@
         <v>1335</v>
       </c>
       <c r="AA14" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3518.5433333333331</v>
       </c>
       <c r="AB14" s="13">
-        <f>((AA14/U14)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>86.285773720493083</v>
       </c>
       <c r="AC14" s="6">
-        <f>AA14/U14</f>
+        <f t="shared" si="12"/>
         <v>607.45184699227127</v>
       </c>
       <c r="AD14" s="3">
         <v>5.8078250000000002</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.629437037257361</v>
       </c>
       <c r="AF14" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.36108800000000052</v>
       </c>
       <c r="AG14" s="7">
@@ -2699,15 +2699,15 @@
         <v>2014.0328229692207</v>
       </c>
       <c r="AJ14" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2656.3442743230735</v>
       </c>
       <c r="AK14" s="3">
-        <f>((AJ14/AD14)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>71.386504200603312</v>
       </c>
       <c r="AL14" s="7">
-        <f>AJ14/AD14</f>
+        <f t="shared" si="16"/>
         <v>457.37333241326542</v>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
         <v>4522.6400000000003</v>
       </c>
       <c r="G15" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>28.537282947583435</v>
       </c>
       <c r="H15" s="5">
@@ -2741,11 +2741,11 @@
         <v>6.0626999999999995</v>
       </c>
       <c r="I15" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.6682664917217664</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>105.96276486473926</v>
       </c>
       <c r="K15" s="5">
@@ -2763,38 +2763,38 @@
         <v>2.3682664917217666</v>
       </c>
       <c r="O15" s="20">
-        <f t="shared" si="2"/>
-        <v>2.3237542912822211</v>
+        <f t="shared" si="3"/>
+        <v>2.2791271865977745</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99431874999999992</v>
       </c>
       <c r="Q15" s="7">
-        <f t="shared" si="4"/>
-        <v>18.41965788759164</v>
+        <f t="shared" si="5"/>
+        <v>18.000796030461434</v>
       </c>
       <c r="R15" s="7">
-        <f t="shared" si="5"/>
-        <v>27.414424598688669</v>
+        <f t="shared" si="6"/>
+        <v>27.315611624239697</v>
       </c>
       <c r="S15" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.6495833333333336</v>
       </c>
       <c r="T15" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U15" s="3">
         <v>6.0626999999999995</v>
       </c>
       <c r="V15" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6682664917217664</v>
       </c>
       <c r="W15" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.27039999999999953</v>
       </c>
       <c r="X15" s="7">
@@ -2807,26 +2807,26 @@
         <v>2003</v>
       </c>
       <c r="AA15" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4522.6400000000003</v>
       </c>
       <c r="AB15" s="13">
-        <f>((AA15/U15)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>105.96276486473926</v>
       </c>
       <c r="AC15" s="6">
-        <f>AA15/U15</f>
+        <f t="shared" si="12"/>
         <v>745.97786464776436</v>
       </c>
       <c r="AD15" s="3">
         <v>6.1809219999999998</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.4240399805434691</v>
       </c>
       <c r="AF15" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.37309699999999957</v>
       </c>
       <c r="AG15" s="7">
@@ -2839,15 +2839,15 @@
         <v>2733.2646902419569</v>
       </c>
       <c r="AJ15" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3418.4215634139855</v>
       </c>
       <c r="AK15" s="3">
-        <f>((AJ15/AD15)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>86.32123243964989</v>
       </c>
       <c r="AL15" s="7">
-        <f>AJ15/AD15</f>
+        <f t="shared" si="16"/>
         <v>553.06013624083687</v>
       </c>
     </row>
@@ -2881,11 +2881,11 @@
         <v>6.4112</v>
       </c>
       <c r="I16" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>5.7482639747967141</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>104.64205691649461</v>
       </c>
       <c r="K16" s="5">
@@ -2903,38 +2903,38 @@
         <v>3.048263974796714</v>
       </c>
       <c r="O16" s="20">
-        <f t="shared" si="2"/>
-        <v>2.2947912799245844</v>
+        <f t="shared" si="3"/>
+        <v>2.2507204024388066</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1672437500000001</v>
       </c>
       <c r="Q16" s="7">
-        <f t="shared" si="4"/>
-        <v>19.235691012761336</v>
+        <f t="shared" si="5"/>
+        <v>18.798272613898689</v>
       </c>
       <c r="R16" s="7">
-        <f t="shared" si="5"/>
-        <v>28.990278091792899</v>
+        <f t="shared" si="6"/>
+        <v>28.88578508673125</v>
       </c>
       <c r="S16" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-4.7916666666666607E-2</v>
       </c>
       <c r="T16" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U16" s="3">
         <v>6.4112</v>
       </c>
       <c r="V16" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.7482639747967141</v>
       </c>
       <c r="W16" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.34850000000000048</v>
       </c>
       <c r="X16" s="7">
@@ -2947,26 +2947,26 @@
         <v>2175</v>
       </c>
       <c r="AA16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4723.0033333333331</v>
       </c>
       <c r="AB16" s="13">
-        <f>((AA16/U16)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>104.64205691649461</v>
       </c>
       <c r="AC16" s="6">
-        <f>AA16/U16</f>
+        <f t="shared" si="12"/>
         <v>736.68008069212203</v>
       </c>
       <c r="AD16" s="3">
         <v>6.5681760000000002</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.2653112270305229</v>
       </c>
       <c r="AF16" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.38725400000000043</v>
       </c>
       <c r="AG16" s="1">
@@ -2979,15 +2979,15 @@
         <v>2951</v>
       </c>
       <c r="AJ16" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3676</v>
       </c>
       <c r="AK16" s="3">
-        <f>((AJ16/AD16)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>87.35263240686082</v>
       </c>
       <c r="AL16" s="7">
-        <f>AJ16/AD16</f>
+        <f t="shared" si="16"/>
         <v>559.66831583075725</v>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
         <v>4723.5</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.0515907603988239E-2</v>
       </c>
       <c r="H17" s="5">
@@ -3021,15 +3021,15 @@
         <v>6.7104999999999997</v>
       </c>
       <c r="I17" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.6683928125779772</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>99.985351992467713</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" ref="K17:K33" ca="1" si="17">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
+        <f t="shared" ref="K17:K33" ca="1" si="21">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
         <v>102.96543741226743</v>
       </c>
       <c r="L17" s="3">
@@ -3043,38 +3043,38 @@
         <v>1.2683928125779773</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" si="2"/>
-        <v>2.1926701427094923</v>
+        <f t="shared" si="3"/>
+        <v>2.1505604754506691</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4698624999999998</v>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" si="4"/>
-        <v>19.237713820255227</v>
+        <f t="shared" si="5"/>
+        <v>18.800249422877915</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" si="5"/>
-        <v>30.343658150576527</v>
+        <f t="shared" si="6"/>
+        <v>30.234287001576934</v>
       </c>
       <c r="S17" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.9750000000000001</v>
       </c>
       <c r="T17" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U17" s="3">
         <v>6.7104999999999997</v>
       </c>
       <c r="V17" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6683928125779772</v>
       </c>
       <c r="W17" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.29929999999999968</v>
       </c>
       <c r="X17" s="7">
@@ -3087,26 +3087,26 @@
         <v>2205</v>
       </c>
       <c r="AA17" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4723.5</v>
       </c>
       <c r="AB17" s="13">
-        <f>((AA17/U17)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>99.985351992467713</v>
       </c>
       <c r="AC17" s="6">
-        <f>AA17/U17</f>
+        <f t="shared" si="12"/>
         <v>703.89687802697267</v>
       </c>
       <c r="AD17" s="3">
         <v>7.1306700000000003</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.5639300773913476</v>
       </c>
       <c r="AF17" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.56249400000000005</v>
       </c>
       <c r="AG17" s="1">
@@ -3119,15 +3119,15 @@
         <v>3578</v>
       </c>
       <c r="AJ17" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4567</v>
       </c>
       <c r="AK17" s="3">
-        <f>((AJ17/AD17)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>99.964534828797341</v>
       </c>
       <c r="AL17" s="7">
-        <f>AJ17/AD17</f>
+        <f t="shared" si="16"/>
         <v>640.47277464810452</v>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
         <v>5432.05</v>
       </c>
       <c r="G18" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>15.000529268550864</v>
       </c>
       <c r="H18" s="5">
@@ -3161,15 +3161,15 @@
         <v>7.0955000000000004</v>
       </c>
       <c r="I18" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>5.7372774010878658</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>108.74469894491386</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>106.36863617964786</v>
       </c>
       <c r="L18" s="3">
@@ -3183,38 +3183,38 @@
         <v>2.5372774010878656</v>
       </c>
       <c r="O18" s="20">
-        <f t="shared" si="2"/>
-        <v>2.3847618656421576</v>
+        <f t="shared" si="3"/>
+        <v>2.3389631261520347</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3834</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="4"/>
-        <v>22.123472712462668</v>
+        <f t="shared" si="5"/>
+        <v>21.620386340117282</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="5"/>
-        <v>32.084557992312909</v>
+        <f t="shared" si="6"/>
+        <v>31.968911917098453</v>
       </c>
       <c r="S18" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.6829166666666664</v>
       </c>
       <c r="T18" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U18" s="3">
         <v>7.0955000000000004</v>
       </c>
       <c r="V18" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.7372774010878658</v>
       </c>
       <c r="W18" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.38500000000000068</v>
       </c>
       <c r="X18" s="7">
@@ -3227,26 +3227,26 @@
         <v>2415</v>
       </c>
       <c r="AA18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5432.05</v>
       </c>
       <c r="AB18" s="13">
-        <f>((AA18/U18)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>108.74469894491386</v>
       </c>
       <c r="AC18" s="6">
-        <f>AA18/U18</f>
+        <f t="shared" si="12"/>
         <v>765.56268057219359</v>
       </c>
       <c r="AD18" s="3">
         <v>7.8016750000000004</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.4101255562240311</v>
       </c>
       <c r="AF18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.67100500000000007</v>
       </c>
       <c r="AG18" s="1">
@@ -3259,15 +3259,15 @@
         <v>4119</v>
       </c>
       <c r="AJ18" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5418.666666666667</v>
       </c>
       <c r="AK18" s="3">
-        <f>((AJ18/AD18)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>108.40513566015885</v>
       </c>
       <c r="AL18" s="7">
-        <f>AJ18/AD18</f>
+        <f t="shared" si="16"/>
         <v>694.55170417463773</v>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
         <v>5794.94</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.6805349729844181</v>
       </c>
       <c r="H19" s="5">
@@ -3301,15 +3301,15 @@
         <v>7.4917999999999996</v>
       </c>
       <c r="I19" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>5.5852300753998918</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>109.87277908695326</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>109.35412041521862</v>
       </c>
       <c r="L19" s="3">
@@ -3323,38 +3323,38 @@
         <v>2.785230075399892</v>
       </c>
       <c r="O19" s="20">
-        <f t="shared" si="2"/>
-        <v>2.4095005658291568</v>
+        <f t="shared" si="3"/>
+        <v>2.3632267259520678</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.210475</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="4"/>
-        <v>23.6014390442574</v>
+        <f t="shared" si="5"/>
+        <v>23.06474381086316</v>
       </c>
       <c r="R19" s="7">
-        <f t="shared" si="5"/>
-        <v>33.876554374858685</v>
+        <f t="shared" si="6"/>
+        <v>33.754449200270336</v>
       </c>
       <c r="S19" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.93041666666666956</v>
       </c>
       <c r="T19" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U19" s="3">
         <v>7.4917999999999996</v>
       </c>
       <c r="V19" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.5852300753998918</v>
       </c>
       <c r="W19" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.39629999999999921</v>
       </c>
       <c r="X19" s="7">
@@ -3367,26 +3367,26 @@
         <v>2652</v>
       </c>
       <c r="AA19" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5794.94</v>
       </c>
       <c r="AB19" s="13">
-        <f>((AA19/U19)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>109.87277908695326</v>
       </c>
       <c r="AC19" s="6">
-        <f>AA19/U19</f>
+        <f t="shared" si="12"/>
         <v>773.50436477215089</v>
       </c>
       <c r="AD19" s="3">
         <v>8.6914390000000008</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>11.404781665475682</v>
       </c>
       <c r="AF19" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.88976400000000044</v>
       </c>
       <c r="AG19" s="1">
@@ -3399,15 +3399,15 @@
         <v>4399</v>
       </c>
       <c r="AJ19" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6026.666666666667</v>
       </c>
       <c r="AK19" s="3">
-        <f>((AJ19/AD19)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>108.22578908104452</v>
       </c>
       <c r="AL19" s="7">
-        <f>AJ19/AD19</f>
+        <f t="shared" si="16"/>
         <v>693.40263064225223</v>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
         <v>3752.1299999999997</v>
       </c>
       <c r="G20" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-35.251616065049859</v>
       </c>
       <c r="H20" s="5">
@@ -3441,15 +3441,15 @@
         <v>8.2623999999999995</v>
       </c>
       <c r="I20" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10.285912597773574</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>64.505835031423828</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>109.07665234894111</v>
       </c>
       <c r="L20" s="3">
@@ -3463,38 +3463,38 @@
         <v>6.4859125977735745</v>
       </c>
       <c r="O20" s="20">
-        <f t="shared" si="2"/>
-        <v>1.4146073968375117</v>
+        <f t="shared" si="3"/>
+        <v>1.3874402248938611</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6427874999999998</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="4"/>
-        <v>15.281550366549007</v>
+        <f t="shared" si="5"/>
+        <v>14.934048876270328</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="5"/>
-        <v>37.361067148993889</v>
+        <f t="shared" si="6"/>
+        <v>37.226402342870024</v>
       </c>
       <c r="S20" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3.0641666666666678</v>
       </c>
       <c r="T20" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
       <c r="U20" s="3">
         <v>8.2623999999999995</v>
       </c>
       <c r="V20" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.285912597773574</v>
       </c>
       <c r="W20" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.77059999999999995</v>
       </c>
       <c r="X20" s="7">
@@ -3507,26 +3507,26 @@
         <v>1577</v>
       </c>
       <c r="AA20" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3752.1299999999997</v>
       </c>
       <c r="AB20" s="13">
-        <f>((AA20/U20)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>64.505835031423828</v>
       </c>
       <c r="AC20" s="6">
-        <f>AA20/U20</f>
+        <f t="shared" si="12"/>
         <v>454.12107862122383</v>
       </c>
       <c r="AD20" s="3">
         <v>9.4237800000000007</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.4260040253403332</v>
       </c>
       <c r="AF20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.73234099999999991</v>
       </c>
       <c r="AG20" s="1">
@@ -3539,15 +3539,15 @@
         <v>2447</v>
       </c>
       <c r="AJ20" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3491.3333333333335</v>
       </c>
       <c r="AK20" s="3">
-        <f>((AJ20/AD20)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>57.824442188747952</v>
       </c>
       <c r="AL20" s="7">
-        <f>AJ20/AD20</f>
+        <f t="shared" si="16"/>
         <v>370.48120110330814</v>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
         <v>8.4457000000000004</v>
       </c>
       <c r="I21" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.2184837335398981</v>
       </c>
       <c r="J21" s="7">
@@ -3589,7 +3589,7 @@
         <v>77.433444255836108</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>108.3179312505119</v>
       </c>
       <c r="L21" s="3">
@@ -3603,38 +3603,38 @@
         <v>2.6184837335398981</v>
       </c>
       <c r="O21" s="20">
-        <f t="shared" si="2"/>
-        <v>1.6981087517671825</v>
+        <f t="shared" si="3"/>
+        <v>1.6654970090734771</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.172925</v>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" si="4"/>
-        <v>18.75108607113766</v>
+        <f t="shared" si="5"/>
+        <v>18.324687558043884</v>
       </c>
       <c r="R21" s="7">
-        <f t="shared" si="5"/>
-        <v>38.189916346371241</v>
+        <f t="shared" si="6"/>
+        <v>38.052264023428705</v>
       </c>
       <c r="S21" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3.3133333333333348</v>
       </c>
       <c r="T21" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
       <c r="U21" s="3">
         <v>8.4457000000000004</v>
       </c>
       <c r="V21" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2184837335398981</v>
       </c>
       <c r="W21" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.18330000000000091</v>
       </c>
       <c r="X21" s="7">
@@ -3647,26 +3647,26 @@
         <v>2269</v>
       </c>
       <c r="AA21" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4604.0166666666664</v>
       </c>
       <c r="AB21" s="13">
-        <f>((AA21/U21)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>77.433444255836108</v>
       </c>
       <c r="AC21" s="6">
-        <f>AA21/U21</f>
+        <f t="shared" si="12"/>
         <v>545.13144756108625</v>
       </c>
       <c r="AD21" s="3">
         <v>9.3822489999999998</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.4407042609229137</v>
       </c>
       <c r="AF21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-4.1531000000000873E-2</v>
       </c>
       <c r="AG21" s="1">
@@ -3679,15 +3679,15 @@
         <v>2964</v>
       </c>
       <c r="AJ21" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4285.666666666667</v>
       </c>
       <c r="AK21" s="3">
-        <f>((AJ21/AD21)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>71.294612105476091</v>
       </c>
       <c r="AL21" s="7">
-        <f>AJ21/AD21</f>
+        <f t="shared" si="16"/>
         <v>456.7845797597854</v>
       </c>
     </row>
@@ -3713,7 +3713,7 @@
         <v>5162.17</v>
       </c>
       <c r="G22" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>12.123182293721797</v>
       </c>
       <c r="H22" s="5">
@@ -3721,15 +3721,15 @@
         <v>8.825899999999999</v>
       </c>
       <c r="I22" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.5016990894774693</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>83.080794490183351</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>106.75418638617396</v>
       </c>
       <c r="L22" s="3">
@@ -3743,38 +3743,38 @@
         <v>2.9016990894774692</v>
       </c>
       <c r="O22" s="20">
-        <f t="shared" si="2"/>
-        <v>1.8219546551672074</v>
+        <f t="shared" si="3"/>
+        <v>1.7869644836884506</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="4"/>
-        <v>21.024314417594354</v>
+        <f t="shared" si="5"/>
+        <v>20.546222835460501</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="5"/>
-        <v>39.909111462808042</v>
+        <f t="shared" si="6"/>
+        <v>39.765262446496962</v>
       </c>
       <c r="S22" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.86874999999999991</v>
       </c>
       <c r="T22" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
       <c r="U22" s="3">
         <v>8.825899999999999</v>
       </c>
       <c r="V22" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5016990894774693</v>
       </c>
       <c r="W22" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.38019999999999854</v>
       </c>
       <c r="X22" s="7">
@@ -3787,26 +3787,26 @@
         <v>2652</v>
       </c>
       <c r="AA22" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5162.17</v>
       </c>
       <c r="AB22" s="13">
-        <f>((AA22/U22)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>83.080794490183351</v>
       </c>
       <c r="AC22" s="6">
-        <f>AA22/U22</f>
+        <f t="shared" si="12"/>
         <v>584.88879321089075</v>
       </c>
       <c r="AD22" s="3">
         <v>9.3207719999999998</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.65524801143095601</v>
       </c>
       <c r="AF22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-6.1477000000000004E-2</v>
       </c>
       <c r="AG22" s="1">
@@ -3819,15 +3819,15 @@
         <v>2792</v>
       </c>
       <c r="AJ22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4503.333333333333</v>
       </c>
       <c r="AK22" s="3">
-        <f>((AJ22/AD22)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>75.409747341450469</v>
       </c>
       <c r="AL22" s="7">
-        <f>AJ22/AD22</f>
+        <f t="shared" si="16"/>
         <v>483.15025121667315</v>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
         <v>5359.8533333333335</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.8294618994208633</v>
       </c>
       <c r="H23" s="5">
@@ -3861,15 +3861,15 @@
         <v>9.7302999999999997</v>
       </c>
       <c r="I23" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10.247113608810437</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>78.244535423399384</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>103.60960695932185</v>
       </c>
       <c r="L23" s="3">
@@ -3883,38 +3883,38 @@
         <v>7.0471136088104371</v>
       </c>
       <c r="O23" s="20">
-        <f t="shared" si="2"/>
-        <v>1.7158959110929337</v>
+        <f t="shared" si="3"/>
+        <v>1.6829425705701262</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3834</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="4"/>
-        <v>21.829432527830576</v>
+        <f t="shared" si="5"/>
+        <v>21.333032610714572</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="5"/>
-        <v>43.998643454668773</v>
+        <f t="shared" si="6"/>
+        <v>43.84005406623114</v>
       </c>
       <c r="S23" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-6.5833333333333313E-2</v>
       </c>
       <c r="T23" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
       <c r="U23" s="3">
         <v>9.7302999999999997</v>
       </c>
       <c r="V23" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.247113608810437</v>
       </c>
       <c r="W23" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.90440000000000076</v>
       </c>
       <c r="X23" s="7">
@@ -3927,26 +3927,26 @@
         <v>2605</v>
       </c>
       <c r="AA23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5359.8533333333335</v>
       </c>
       <c r="AB23" s="13">
-        <f>((AA23/U23)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>78.244535423399384</v>
       </c>
       <c r="AC23" s="6">
-        <f>AA23/U23</f>
+        <f t="shared" si="12"/>
         <v>550.84152938073169</v>
       </c>
       <c r="AD23" s="3">
         <v>9.5350470000000005</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.2988975591292302</v>
       </c>
       <c r="AF23" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.21427500000000066</v>
       </c>
       <c r="AG23" s="1">
@@ -3959,15 +3959,15 @@
         <v>2316</v>
       </c>
       <c r="AJ23" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3791</v>
       </c>
       <c r="AK23" s="3">
-        <f>((AJ23/AD23)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>62.054920323264966</v>
       </c>
       <c r="AL23" s="7">
-        <f>AJ23/AD23</f>
+        <f t="shared" si="16"/>
         <v>397.58587451115864</v>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
         <v>5849.7133333333331</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9.1394291883608645</v>
       </c>
       <c r="H24" s="5">
@@ -4001,15 +4001,15 @@
         <v>10.471200000000001</v>
       </c>
       <c r="I24" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.6143592694983795</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>79.353387328476117</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>99.57416022327952</v>
       </c>
       <c r="L24" s="3">
@@ -4024,37 +4024,37 @@
       </c>
       <c r="O24" s="20">
         <f>J24*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.7402129377023059</v>
+        <v>1.706792594925352</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90785625000000003</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="4"/>
-        <v>23.824518055932661</v>
+        <f t="shared" si="5"/>
+        <v>23.282750019900757</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" si="5"/>
-        <v>47.348858241012884</v>
+        <f t="shared" si="6"/>
+        <v>47.178193286776313</v>
       </c>
       <c r="S24" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.6666666666666774E-3</v>
       </c>
       <c r="T24" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
       <c r="U24" s="3">
         <v>10.471200000000001</v>
       </c>
       <c r="V24" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.6143592694983795</v>
       </c>
       <c r="W24" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.74090000000000167</v>
       </c>
       <c r="X24" s="7">
@@ -4067,26 +4067,26 @@
         <v>3019</v>
       </c>
       <c r="AA24" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5849.7133333333331</v>
       </c>
       <c r="AB24" s="13">
-        <f>((AA24/U24)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>79.353387328476117</v>
       </c>
       <c r="AC24" s="6">
-        <f>AA24/U24</f>
+        <f t="shared" si="12"/>
         <v>558.64784679247191</v>
       </c>
       <c r="AD24" s="3">
         <v>9.8079680000000007</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.8622931800965432</v>
       </c>
       <c r="AF24" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.27292100000000019</v>
       </c>
       <c r="AG24" s="1">
@@ -4099,15 +4099,15 @@
         <v>2635</v>
       </c>
       <c r="AJ24" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4629.333333333333</v>
       </c>
       <c r="AK24" s="3">
-        <f>((AJ24/AD24)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>73.668985448397677</v>
       </c>
       <c r="AL24" s="7">
-        <f>AJ24/AD24</f>
+        <f t="shared" si="16"/>
         <v>471.99718976788392</v>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
         <v>7533.5533333333333</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>28.785000290612544</v>
       </c>
       <c r="H25" s="5">
@@ -4141,15 +4141,15 @@
         <v>11.0656</v>
       </c>
       <c r="I25" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>5.6765222706088849</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>96.70573738213541</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>96.286197309360503</v>
       </c>
       <c r="L25" s="3">
@@ -4163,38 +4163,38 @@
         <v>4.1765222706088849</v>
       </c>
       <c r="O25" s="20">
-        <f t="shared" si="2"/>
-        <v>2.1207484772618259</v>
+        <f t="shared" si="3"/>
+        <v>2.0800200471265029</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.64846874999999993</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="4"/>
-        <v>30.682405647569919</v>
+        <f t="shared" si="5"/>
+        <v>29.984689680791785</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="5"/>
-        <v>50.036626723943016</v>
+        <f t="shared" si="6"/>
+        <v>49.856273935571082</v>
       </c>
       <c r="S25" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.333333333333335E-2</v>
       </c>
       <c r="T25" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
       <c r="U25" s="3">
         <v>11.0656</v>
       </c>
       <c r="V25" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.6765222706088849</v>
       </c>
       <c r="W25" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.59439999999999849</v>
       </c>
       <c r="X25" s="7">
@@ -4207,26 +4207,26 @@
         <v>4176</v>
       </c>
       <c r="AA25" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7533.5533333333333</v>
       </c>
       <c r="AB25" s="13">
-        <f>((AA25/U25)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>96.70573738213541</v>
       </c>
       <c r="AC25" s="6">
-        <f>AA25/U25</f>
+        <f t="shared" si="12"/>
         <v>680.80839117023334</v>
       </c>
       <c r="AD25" s="3">
         <v>9.8494729999999997</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.42317633989016201</v>
       </c>
       <c r="AF25" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.1504999999999015E-2</v>
       </c>
       <c r="AG25" s="1">
@@ -4239,15 +4239,15 @@
         <v>3109</v>
       </c>
       <c r="AJ25" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5652</v>
       </c>
       <c r="AK25" s="3">
-        <f>((AJ25/AD25)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>89.564196718928386</v>
       </c>
       <c r="AL25" s="7">
-        <f>AJ25/AD25</f>
+        <f t="shared" si="16"/>
         <v>573.83780837817415</v>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
         <v>8205.69</v>
       </c>
       <c r="G26" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.921907590309317</v>
       </c>
       <c r="H26" s="5">
@@ -4281,15 +4281,15 @@
         <v>11.732100000000001</v>
       </c>
       <c r="I26" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.023170908039333</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>99.349729878631351</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>93.451041804773851</v>
       </c>
       <c r="L26" s="3">
@@ -4303,38 +4303,38 @@
         <v>4.4231709080393333</v>
       </c>
       <c r="O26" s="20">
-        <f t="shared" si="2"/>
-        <v>2.1787310045929424</v>
+        <f t="shared" si="3"/>
+        <v>2.1368890349036391</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" si="4"/>
-        <v>33.419861525929953</v>
+        <f t="shared" si="5"/>
+        <v>32.659895985353039</v>
       </c>
       <c r="R26" s="7">
-        <f t="shared" si="5"/>
-        <v>53.050418268143787</v>
+        <f t="shared" si="6"/>
+        <v>52.859202523090801</v>
       </c>
       <c r="S26" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3.4583333333333327E-2</v>
       </c>
       <c r="T26" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
       <c r="U26" s="3">
         <v>11.732100000000001</v>
       </c>
       <c r="V26" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.023170908039333</v>
       </c>
       <c r="W26" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.66650000000000098</v>
       </c>
       <c r="X26" s="7">
@@ -4347,26 +4347,26 @@
         <v>4736</v>
       </c>
       <c r="AA26" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8205.69</v>
       </c>
       <c r="AB26" s="13">
-        <f>((AA26/U26)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>99.349729878631351</v>
       </c>
       <c r="AC26" s="6">
-        <f>AA26/U26</f>
+        <f t="shared" si="12"/>
         <v>699.42209834556468</v>
       </c>
       <c r="AD26" s="3">
         <v>10.328136000000001</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.8597828533567196</v>
       </c>
       <c r="AF26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.47866300000000095</v>
       </c>
       <c r="AG26" s="1">
@@ -4379,15 +4379,15 @@
         <v>3146</v>
       </c>
       <c r="AJ26" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5741</v>
       </c>
       <c r="AK26" s="3">
-        <f>((AJ26/AD26)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>86.758268288348972</v>
       </c>
       <c r="AL26" s="7">
-        <f>AJ26/AD26</f>
+        <f t="shared" si="16"/>
         <v>555.86022492345182</v>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
         <v>8158.3433333333332</v>
       </c>
       <c r="G27" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-0.57699799366862692</v>
       </c>
       <c r="H27" s="5">
@@ -4421,15 +4421,15 @@
         <v>12.458</v>
       </c>
       <c r="I27" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.1872980966749225</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>93.02099752136877</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>91.941991916965421</v>
       </c>
       <c r="L27" s="3">
@@ -4443,38 +4443,38 @@
         <v>6.0872980966749228</v>
       </c>
       <c r="O27" s="20">
-        <f t="shared" si="2"/>
-        <v>2.0399424500253245</v>
+        <f t="shared" si="3"/>
+        <v>2.0007658789011482</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3231249999999999E-2</v>
       </c>
       <c r="Q27" s="7">
-        <f t="shared" si="4"/>
-        <v>33.227029595438502</v>
+        <f t="shared" si="5"/>
+        <v>32.471449040783291</v>
       </c>
       <c r="R27" s="7">
-        <f t="shared" si="5"/>
-        <v>56.332805787926752</v>
+        <f t="shared" si="6"/>
+        <v>56.129758954719541</v>
       </c>
       <c r="S27" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3.4166666666666679E-2</v>
       </c>
       <c r="T27" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
       <c r="U27" s="3">
         <v>12.458</v>
       </c>
       <c r="V27" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.1872980966749225</v>
       </c>
       <c r="W27" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.72589999999999932</v>
       </c>
       <c r="X27" s="7">
@@ -4487,26 +4487,26 @@
         <v>5007</v>
       </c>
       <c r="AA27" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8158.3433333333332</v>
       </c>
       <c r="AB27" s="13">
-        <f>((AA27/U27)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>93.02099752136877</v>
       </c>
       <c r="AC27" s="6">
-        <f>AA27/U27</f>
+        <f t="shared" si="12"/>
         <v>654.86782255043613</v>
       </c>
       <c r="AD27" s="3">
         <v>10.837680000000001</v>
       </c>
       <c r="AE27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.9335523854449548</v>
       </c>
       <c r="AF27" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.509544</v>
       </c>
       <c r="AG27" s="1">
@@ -4519,15 +4519,15 @@
         <v>3267</v>
       </c>
       <c r="AJ27" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6215.666666666667</v>
       </c>
       <c r="AK27" s="3">
-        <f>((AJ27/AD27)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>89.515175711904277</v>
       </c>
       <c r="AL27" s="7">
-        <f>AJ27/AD27</f>
+        <f t="shared" si="16"/>
         <v>573.52373078617074</v>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
         <v>9127.8666666666668</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>11.883826087240749</v>
       </c>
       <c r="H28" s="5">
@@ -4561,11 +4561,11 @@
         <v>13.275399999999999</v>
       </c>
       <c r="I28" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.5612457858404127</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>97.667261980578346</v>
       </c>
       <c r="K28" s="5">
@@ -4583,38 +4583,38 @@
         <v>5.2612457858404129</v>
       </c>
       <c r="O28" s="20">
-        <f t="shared" si="2"/>
-        <v>2.1418346287477492</v>
+        <f t="shared" si="3"/>
+        <v>2.1007012444856992</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56200625000000004</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" si="4"/>
-        <v>37.175672006516429</v>
+        <f t="shared" si="5"/>
+        <v>36.330299572796982</v>
       </c>
       <c r="R28" s="7">
-        <f t="shared" si="5"/>
-        <v>60.028939633732755</v>
+        <f t="shared" si="6"/>
+        <v>59.812570398738465</v>
       </c>
       <c r="S28" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.28416666666666668</v>
       </c>
       <c r="T28" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
       <c r="U28" s="3">
         <v>13.275399999999999</v>
       </c>
       <c r="V28" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.5612457858404127</v>
       </c>
       <c r="W28" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.81739999999999924</v>
       </c>
       <c r="X28" s="7">
@@ -4627,26 +4627,26 @@
         <v>5383</v>
       </c>
       <c r="AA28" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9127.8666666666668</v>
       </c>
       <c r="AB28" s="13">
-        <f>((AA28/U28)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>97.667261980578346</v>
       </c>
       <c r="AC28" s="6">
-        <f>AA28/U28</f>
+        <f t="shared" si="12"/>
         <v>687.57752434327153</v>
       </c>
       <c r="AD28" s="3">
         <v>11.392602</v>
       </c>
       <c r="AE28" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.1203025001660762</v>
       </c>
       <c r="AF28" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.55492199999999947</v>
       </c>
       <c r="AG28" s="1">
@@ -4659,15 +4659,15 @@
         <v>3290</v>
       </c>
       <c r="AJ28" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6544.333333333333</v>
       </c>
       <c r="AK28" s="3">
-        <f>((AJ28/AD28)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>89.657734811026771</v>
       </c>
       <c r="AL28" s="7">
-        <f>AJ28/AD28</f>
+        <f t="shared" si="16"/>
         <v>574.4371069342485</v>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
         <v>11431.74</v>
       </c>
       <c r="G29" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>25.239997662834682</v>
       </c>
       <c r="H29" s="5">
@@ -4701,11 +4701,11 @@
         <v>13.8584</v>
       </c>
       <c r="I29" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.3915814212754469</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>117.17274032683821</v>
       </c>
       <c r="K29" s="5">
@@ -4723,38 +4723,38 @@
         <v>2.2915814212754468</v>
       </c>
       <c r="O29" s="20">
-        <f t="shared" si="2"/>
-        <v>2.5695880859974922</v>
+        <f t="shared" si="3"/>
+        <v>2.5202398063881009</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90785625000000003</v>
       </c>
       <c r="Q29" s="7">
-        <f t="shared" si="4"/>
-        <v>46.558810752104264</v>
+        <f t="shared" si="5"/>
+        <v>45.500066335871786</v>
       </c>
       <c r="R29" s="7">
-        <f t="shared" si="5"/>
-        <v>62.665159394076412</v>
+        <f t="shared" si="6"/>
+        <v>62.43928812795675</v>
       </c>
       <c r="S29" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.73791666666666667</v>
       </c>
       <c r="T29" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U29" s="3">
         <v>13.8584</v>
       </c>
       <c r="V29" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3915814212754469</v>
       </c>
       <c r="W29" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58300000000000018</v>
       </c>
       <c r="X29" s="7">
@@ -4767,26 +4767,26 @@
         <v>6903</v>
       </c>
       <c r="AA29" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11431.74</v>
       </c>
       <c r="AB29" s="13">
-        <f>((AA29/U29)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>117.17274032683821</v>
       </c>
       <c r="AC29" s="6">
-        <f>AA29/U29</f>
+        <f t="shared" si="12"/>
         <v>824.89609190094097</v>
       </c>
       <c r="AD29" s="3">
         <v>11.871539</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.2039298836209724</v>
       </c>
       <c r="AF29" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.47893700000000017</v>
       </c>
       <c r="AG29" s="1">
@@ -4799,15 +4799,15 @@
         <v>3503</v>
       </c>
       <c r="AJ29" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7244</v>
       </c>
       <c r="AK29" s="3">
-        <f>((AJ29/AD29)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>95.239409506135544</v>
       </c>
       <c r="AL29" s="7">
-        <f>AJ29/AD29</f>
+        <f t="shared" si="16"/>
         <v>610.1988967058104</v>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
         <v>10822.82</v>
       </c>
       <c r="G30" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-5.3265732075781926</v>
       </c>
       <c r="H30" s="5">
@@ -4841,11 +4841,11 @@
         <v>14.4346</v>
       </c>
       <c r="I30" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.1577671304046646</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>106.50328975958021</v>
       </c>
       <c r="K30" s="5">
@@ -4863,38 +4863,38 @@
         <v>1.7577671304046647</v>
       </c>
       <c r="O30" s="20">
-        <f t="shared" si="2"/>
-        <v>2.3356079555909517</v>
+        <f t="shared" si="3"/>
+        <v>2.290753204326148</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.03755</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="4"/>
-        <v>44.078821612815645</v>
+        <f t="shared" si="5"/>
+        <v>43.076471992994932</v>
       </c>
       <c r="R30" s="7">
-        <f t="shared" si="5"/>
-        <v>65.270630793579016</v>
+        <f t="shared" si="6"/>
+        <v>65.035368326199603</v>
       </c>
       <c r="S30" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.1333333333333333</v>
       </c>
       <c r="T30" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="U30" s="3">
         <v>14.4346</v>
       </c>
       <c r="V30" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1577671304046646</v>
       </c>
       <c r="W30" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.57620000000000005</v>
       </c>
       <c r="X30" s="7">
@@ -4907,26 +4907,26 @@
         <v>6635</v>
       </c>
       <c r="AA30" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10822.82</v>
       </c>
       <c r="AB30" s="13">
-        <f>((AA30/U30)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>106.50328975958021</v>
       </c>
       <c r="AC30" s="6">
-        <f>AA30/U30</f>
+        <f t="shared" si="12"/>
         <v>749.78315990744466</v>
       </c>
       <c r="AD30" s="3">
         <v>12.363619</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.1450396616647538</v>
       </c>
       <c r="AF30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.49207999999999963</v>
       </c>
       <c r="AG30" s="1">
@@ -4939,15 +4939,15 @@
         <v>3001</v>
       </c>
       <c r="AJ30" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6096.333333333333</v>
       </c>
       <c r="AK30" s="3">
-        <f>((AJ30/AD30)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>76.960586360258233</v>
       </c>
       <c r="AL30" s="7">
-        <f>AJ30/AD30</f>
+        <f t="shared" si="16"/>
         <v>493.08647681017453</v>
       </c>
     </row>
@@ -4981,15 +4981,15 @@
         <v>15.402100000000001</v>
       </c>
       <c r="I31" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.7026450334612662</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>125.24253874865155</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>95.492697868497842</v>
       </c>
       <c r="L31" s="3">
@@ -5003,38 +5003,38 @@
         <v>4.9026450334612663</v>
       </c>
       <c r="O31" s="20">
-        <f t="shared" si="2"/>
-        <v>2.7465580691458968</v>
+        <f t="shared" si="3"/>
+        <v>2.6938111264361955</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.77816249999999998</v>
       </c>
       <c r="Q31" s="7">
-        <f t="shared" si="4"/>
-        <v>55.308770024436605</v>
+        <f t="shared" si="5"/>
+        <v>54.051052086926525</v>
       </c>
       <c r="R31" s="7">
-        <f t="shared" si="5"/>
-        <v>69.645489486773684</v>
+        <f t="shared" si="6"/>
+        <v>69.394458211308859</v>
       </c>
       <c r="S31" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.74166666666666647</v>
       </c>
       <c r="T31" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U31" s="3">
         <v>15.402100000000001</v>
       </c>
       <c r="V31" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.7026450334612662</v>
       </c>
       <c r="W31" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.96750000000000114</v>
       </c>
       <c r="X31" s="7">
@@ -5047,26 +5047,26 @@
         <v>8972</v>
       </c>
       <c r="AA31" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13580.146666666667</v>
       </c>
       <c r="AB31" s="13">
-        <f>((AA31/U31)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>125.24253874865155</v>
       </c>
       <c r="AC31" s="6">
-        <f>AA31/U31</f>
+        <f t="shared" si="12"/>
         <v>881.70747279050693</v>
       </c>
       <c r="AD31" s="3">
         <v>12.995488999999999</v>
       </c>
       <c r="AE31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.1107204128499859</v>
       </c>
       <c r="AF31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.63186999999999927</v>
       </c>
       <c r="AG31" s="1">
@@ -5079,15 +5079,15 @@
         <v>3745</v>
       </c>
       <c r="AJ31" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7657.333333333333</v>
       </c>
       <c r="AK31" s="3">
-        <f>((AJ31/AD31)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>91.966615244527006</v>
       </c>
       <c r="AL31" s="7">
-        <f>AJ31/AD31</f>
+        <f t="shared" si="16"/>
         <v>589.23010387168449</v>
       </c>
     </row>
@@ -5113,7 +5113,7 @@
         <v>15750.159999999998</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>15.979307047248355</v>
       </c>
       <c r="H32" s="5">
@@ -5121,7 +5121,7 @@
         <v>19.187999999999999</v>
       </c>
       <c r="I32" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24.580414359080891</v>
       </c>
       <c r="J32" s="7">
@@ -5143,38 +5143,38 @@
         <v>23.410414359080889</v>
       </c>
       <c r="O32" s="20">
-        <f t="shared" si="2"/>
-        <v>2.5569340354449568</v>
+        <f t="shared" si="3"/>
+        <v>2.5078287736282854</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.50580562499999993</v>
       </c>
       <c r="Q32" s="7">
-        <f t="shared" si="4"/>
-        <v>64.146728210697788</v>
+        <f t="shared" si="5"/>
+        <v>62.688035662164658</v>
       </c>
       <c r="R32" s="7">
-        <f t="shared" si="5"/>
-        <v>86.764639385032766</v>
+        <f t="shared" si="6"/>
+        <v>86.451903581887819</v>
       </c>
       <c r="S32" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.6191666666666666</v>
       </c>
       <c r="T32" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U32" s="3">
         <v>19.187999999999999</v>
       </c>
       <c r="V32" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24.580414359080891</v>
       </c>
       <c r="W32" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.785899999999998</v>
       </c>
       <c r="X32" s="7">
@@ -5187,26 +5187,26 @@
         <v>12888</v>
       </c>
       <c r="AA32" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15750.159999999998</v>
       </c>
       <c r="AB32" s="13">
-        <f>((AA32/U32)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>116.59571796766917</v>
       </c>
       <c r="AC32" s="6">
-        <f>AA32/U32</f>
+        <f t="shared" si="12"/>
         <v>820.83385449239097</v>
       </c>
       <c r="AD32" s="3">
         <v>14.492039</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>11.515919100851079</v>
       </c>
       <c r="AF32" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4965500000000009</v>
       </c>
       <c r="AG32" s="1">
@@ -5219,15 +5219,15 @@
         <v>3552</v>
       </c>
       <c r="AJ32" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7607</v>
       </c>
       <c r="AK32" s="3">
-        <f>((AJ32/AD32)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>81.927404827859931</v>
       </c>
       <c r="AL32" s="7">
-        <f>AJ32/AD32</f>
+        <f t="shared" si="16"/>
         <v>524.90888273209862</v>
       </c>
     </row>
@@ -5265,11 +5265,11 @@
         <v>12.53908692933085</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>124.43174801642429</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>97.093411293656871</v>
       </c>
       <c r="L33" s="13">
@@ -5283,38 +5283,38 @@
         <v>7.8390869293308496</v>
       </c>
       <c r="O33" s="20">
-        <f t="shared" si="2"/>
-        <v>2.7287774983411435</v>
+        <f t="shared" si="3"/>
+        <v>2.6763720269296898</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0318687500000001</v>
       </c>
       <c r="Q33" s="7">
-        <f t="shared" si="4"/>
-        <v>77.041813738799888</v>
+        <f t="shared" si="5"/>
+        <v>75.289887759704925</v>
       </c>
       <c r="R33" s="7">
-        <f t="shared" si="5"/>
-        <v>97.64413294144245</v>
+        <f t="shared" si="6"/>
+        <v>97.292182924082027</v>
       </c>
       <c r="S33" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-1.1870833333333333</v>
       </c>
       <c r="T33" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U33" s="13">
         <v>21.594000000000001</v>
       </c>
       <c r="V33" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.53908692933085</v>
       </c>
       <c r="W33" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4060000000000024</v>
       </c>
       <c r="X33" s="22">
@@ -5327,26 +5327,26 @@
         <v>15645</v>
       </c>
       <c r="AA33" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18916.333333333332</v>
       </c>
       <c r="AB33" s="13">
-        <f>((AA33/U33)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>124.43174801642429</v>
       </c>
       <c r="AC33" s="6">
-        <f>AA33/U33</f>
+        <f t="shared" si="12"/>
         <v>875.99950603562706</v>
       </c>
       <c r="AD33" s="13">
         <v>15.396000000000001</v>
       </c>
       <c r="AE33" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.2376384717154139</v>
       </c>
       <c r="AF33" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.90396100000000068</v>
       </c>
       <c r="AG33" s="10">
@@ -5359,15 +5359,15 @@
         <v>4298</v>
       </c>
       <c r="AJ33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9138</v>
       </c>
       <c r="AK33" s="3">
-        <f>((AJ33/AD33)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>92.637862840246456</v>
       </c>
       <c r="AL33" s="7">
-        <f>AJ33/AD33</f>
+        <f t="shared" si="16"/>
         <v>593.53078721745908</v>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
         <v>-1.6578679262758271</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>105.80054167594193</v>
       </c>
       <c r="K34" s="5">
@@ -5423,38 +5423,38 @@
         <v>-9.6578679262758271</v>
       </c>
       <c r="O34" s="20">
-        <f t="shared" si="2"/>
-        <v>2.3201967507481056</v>
+        <f t="shared" si="3"/>
+        <v>2.2756379677164387</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4584999999999999</v>
       </c>
       <c r="Q34" s="7">
-        <f t="shared" si="4"/>
-        <v>64.420309530274238</v>
+        <f t="shared" si="5"/>
+        <v>62.955395759811076</v>
       </c>
       <c r="R34" s="7">
-        <f t="shared" si="5"/>
-        <v>96.025322179516166</v>
+        <f t="shared" si="6"/>
+        <v>95.679207028610065</v>
       </c>
       <c r="S34" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3.8720833333333329</v>
       </c>
       <c r="T34" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="U34" s="13">
         <v>21.236000000000001</v>
       </c>
       <c r="V34" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.6578679262758271</v>
       </c>
       <c r="W34" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.35800000000000054</v>
       </c>
       <c r="X34" s="22">
@@ -5467,26 +5467,26 @@
         <v>10466</v>
       </c>
       <c r="AA34" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15817.333333333334</v>
       </c>
       <c r="AB34" s="13">
-        <f>((AA34/U34)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>105.80054167594193</v>
       </c>
       <c r="AC34" s="26">
-        <f>AA34/U34</f>
+        <f t="shared" si="12"/>
         <v>744.83581339863122</v>
       </c>
       <c r="AD34" s="13">
         <v>16.068000000000001</v>
       </c>
       <c r="AE34" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.3647700701480971</v>
       </c>
       <c r="AF34" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.6720000000000006</v>
       </c>
       <c r="AG34" s="10">
@@ -5499,15 +5499,15 @@
         <v>3793</v>
       </c>
       <c r="AJ34" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8063</v>
       </c>
       <c r="AK34" s="3">
-        <f>((AJ34/AD34)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>78.321340639102914</v>
       </c>
       <c r="AL34" s="10">
-        <f>AJ34/AD34</f>
+        <f t="shared" si="16"/>
         <v>501.80482947473234</v>
       </c>
     </row>
@@ -5544,7 +5544,7 @@
         <v>-1.7470333396119884</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>128.6385602974388</v>
       </c>
       <c r="K35" s="5">
@@ -5562,38 +5562,38 @@
         <v>-5.847033339611988</v>
       </c>
       <c r="O35" s="20">
-        <f t="shared" si="2"/>
-        <v>2.8210325287105817</v>
+        <f t="shared" si="3"/>
+        <v>2.766855323121634</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7724812499999998</v>
       </c>
       <c r="Q35" s="7">
-        <f t="shared" si="4"/>
-        <v>76.959000814553363</v>
+        <f t="shared" si="5"/>
+        <v>75.208957996125974</v>
       </c>
       <c r="R35" s="7">
-        <f t="shared" si="5"/>
-        <v>94.347727786570189</v>
+        <f t="shared" si="6"/>
+        <v>94.007659382743867</v>
       </c>
       <c r="S35" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3.24</v>
       </c>
       <c r="T35" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="U35" s="13">
         <v>20.864999999999998</v>
       </c>
       <c r="V35" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.7470333396119884</v>
       </c>
       <c r="W35" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.37100000000000222</v>
       </c>
       <c r="X35" s="22">
@@ -5610,22 +5610,22 @@
         <v>18895.666666666668</v>
       </c>
       <c r="AB35" s="13">
-        <f>((AA35/U35)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>128.6385602974388</v>
       </c>
       <c r="AC35" s="26">
-        <f>AA35/U35</f>
+        <f t="shared" si="12"/>
         <v>905.61546449396928</v>
       </c>
       <c r="AD35" s="13">
         <v>16.111999999999998</v>
       </c>
       <c r="AE35" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.27383619616627186</v>
       </c>
       <c r="AF35" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.399999999999693E-2</v>
       </c>
       <c r="AG35" s="22">
@@ -5638,15 +5638,15 @@
         <v>4521</v>
       </c>
       <c r="AJ35" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9605</v>
       </c>
       <c r="AK35" s="3">
-        <f>((AJ35/AD35)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>93.045032517035054</v>
       </c>
       <c r="AL35" s="10">
-        <f>AJ35/AD35</f>
+        <f t="shared" si="16"/>
         <v>596.13952333664361</v>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
         <v>23145.666666666668</v>
       </c>
       <c r="G36" s="21">
-        <f t="shared" ref="G36:G37" si="18">(F36*100/F35)-100</f>
+        <f t="shared" ref="G36:G37" si="22">(F36*100/F35)-100</f>
         <v>22.489768557719458</v>
       </c>
       <c r="H36" s="20">
@@ -5702,27 +5702,27 @@
         <v>-0.17063982746225914</v>
       </c>
       <c r="O36" s="20">
-        <f t="shared" si="2"/>
-        <v>3.3617654265718215</v>
+        <f t="shared" si="3"/>
+        <v>3.2972035844790448</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2796449999999999</v>
       </c>
       <c r="Q36" s="7">
         <f>(F36*100/MAX($F$2:$F$37))</f>
-        <v>94.266901982079844</v>
+        <v>92.123278584127164</v>
       </c>
       <c r="R36" s="7">
-        <f t="shared" si="5"/>
-        <v>96.979425729143117</v>
+        <f t="shared" si="6"/>
+        <v>96.629871592701065</v>
       </c>
       <c r="S36" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.23499999999999943</v>
       </c>
       <c r="T36" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="U36" s="13">
@@ -5750,11 +5750,11 @@
         <v>23145.666666666668</v>
       </c>
       <c r="AB36" s="13">
-        <f>((AA36/U36)/100)*100/7.04</f>
+        <f t="shared" si="11"/>
         <v>153.29588018950167</v>
       </c>
       <c r="AC36" s="26">
-        <f>AA36/U36</f>
+        <f t="shared" si="12"/>
         <v>1079.2029965340919</v>
       </c>
       <c r="AD36" s="13">
@@ -5782,11 +5782,11 @@
         <v>10451.666666666666</v>
       </c>
       <c r="AK36" s="3">
-        <f>((AJ36/AD36)/100)*100/6.407</f>
+        <f t="shared" si="2"/>
         <v>97.793219510633975</v>
       </c>
       <c r="AL36" s="10">
-        <f>AJ36/AD36</f>
+        <f t="shared" si="16"/>
         <v>626.5611574046319</v>
       </c>
       <c r="AM36"/>
@@ -5797,51 +5797,51 @@
         <v>2025</v>
       </c>
       <c r="B37" s="19">
-        <v>4.0129999999999999</v>
+        <v>3.8610000000000002</v>
       </c>
       <c r="C37" s="20">
-        <v>4.2350000000000003</v>
+        <v>4.1870000000000003</v>
       </c>
       <c r="D37" s="20">
         <f>C37-B37</f>
-        <v>0.22200000000000042</v>
+        <v>0.32600000000000007</v>
       </c>
       <c r="E37" s="30">
         <v>4.33</v>
       </c>
       <c r="F37" s="10">
         <f>Monitor!AA37</f>
-        <v>24553.333333333332</v>
+        <v>25124.666666666668</v>
       </c>
       <c r="G37" s="21">
-        <f t="shared" si="18"/>
-        <v>6.0817719659547294</v>
+        <f t="shared" si="22"/>
+        <v>8.550196581073493</v>
       </c>
       <c r="H37" s="20">
         <f>Monitor!U37</f>
-        <v>22.114999999999998</v>
+        <v>22.195</v>
       </c>
       <c r="I37" s="38">
         <f>(H37*100/H36)-100</f>
-        <v>3.1146547302653147</v>
+        <v>3.4876672728120468</v>
       </c>
       <c r="J37" s="10">
         <f>AB37</f>
-        <v>157.70695880349962</v>
+        <v>160.79498522053152</v>
       </c>
       <c r="K37" s="5">
         <f ca="1">AVERAGE(OFFSET(J38,-14,0,14,1))</f>
-        <v>114.39179213405255</v>
+        <v>114.61236544955482</v>
       </c>
       <c r="L37" s="13">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="M37" s="10">
         <v>98</v>
       </c>
       <c r="N37" s="13">
         <f>I37-L37</f>
-        <v>0.51465473026531461</v>
+        <v>0.83766727281204689</v>
       </c>
       <c r="O37" s="20">
         <f>J37*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
@@ -5849,55 +5849,55 @@
       </c>
       <c r="P37" s="5">
         <f>L37*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>1.1240125000000001</v>
+        <v>1.145628125</v>
       </c>
       <c r="Q37" s="7">
         <f>(F37*100/MAX($F$2:$F$37))</f>
-        <v>99.999999999999986</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="R37" s="7">
-        <f t="shared" si="5"/>
-        <v>99.999999999999986</v>
+        <f t="shared" si="6"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="S37" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-0.57500000000000018</v>
       </c>
       <c r="T37" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="U37" s="13">
-        <v>22.114999999999998</v>
+        <v>22.195</v>
       </c>
       <c r="V37" s="13">
         <f>(U37*100/U36)-100</f>
-        <v>3.1146547302653147</v>
+        <v>3.4876672728120468</v>
       </c>
       <c r="W37" s="13">
         <f>U37-U36</f>
-        <v>0.66799999999999926</v>
+        <v>0.74800000000000111</v>
       </c>
       <c r="X37" s="22">
-        <v>45596</v>
+        <v>46247</v>
       </c>
       <c r="Y37" s="22">
-        <v>6482</v>
+        <v>6643</v>
       </c>
       <c r="Z37" s="22">
-        <v>21582</v>
+        <v>22484</v>
       </c>
       <c r="AA37" s="10">
         <f>AVERAGE(X37:Z37)</f>
-        <v>24553.333333333332</v>
+        <v>25124.666666666668</v>
       </c>
       <c r="AB37" s="13">
-        <f>((AA37/U37)/100)*100/7.04</f>
-        <v>157.70695880349962</v>
+        <f t="shared" si="11"/>
+        <v>160.79498522053152</v>
       </c>
       <c r="AC37" s="26">
-        <f>AA37/U37</f>
-        <v>1110.2569899766372</v>
+        <f t="shared" si="12"/>
+        <v>1131.9966959525418</v>
       </c>
       <c r="AD37" s="13">
         <v>16.914999999999999</v>
@@ -5911,25 +5911,25 @@
         <v>0.23399999999999821</v>
       </c>
       <c r="AG37" s="22">
-        <v>7743</v>
+        <v>7870</v>
       </c>
       <c r="AH37" s="22">
-        <v>24053</v>
+        <v>23739</v>
       </c>
       <c r="AI37" s="22">
-        <v>5393</v>
+        <v>5499</v>
       </c>
       <c r="AJ37" s="7">
         <f>AVERAGE(AG37:AI37)</f>
-        <v>12396.333333333334</v>
+        <v>12369.333333333334</v>
       </c>
       <c r="AK37" s="3">
-        <f>((AJ37/AD37)/100)*100/6.407</f>
-        <v>114.38432656985138</v>
+        <f t="shared" si="2"/>
+        <v>114.13519025394727</v>
       </c>
       <c r="AL37" s="10">
-        <f>AJ37/AD37</f>
-        <v>732.86038033303782</v>
+        <f t="shared" si="16"/>
+        <v>731.26416395704018</v>
       </c>
       <c r="AM37"/>
       <c r="AN37"/>

--- a/public/market_data.xlsx
+++ b/public/market_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\galetaireID\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD2597F-B2CD-408E-9EE5-869CB14D9992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2EEA06-967C-43E2-810F-D4E9A97C74FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -433,47 +433,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD5C9FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD5C9FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD5C9FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD5C9FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF7030A0"/>
@@ -822,7 +782,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S37" sqref="S37"/>
+      <selection pane="bottomLeft" activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1023,28 +983,28 @@
         <v>88.353000000000009</v>
       </c>
       <c r="N2" s="3">
-        <f>I2-L2</f>
+        <f t="shared" ref="N2:N37" si="1">I2-L2</f>
         <v>0.61105807854072935</v>
       </c>
       <c r="O2" s="20">
-        <f>J2*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.0090998727776783</v>
+        <f t="shared" ref="O2:O37" si="2">J2*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
+        <v>0.99464656002974439</v>
       </c>
       <c r="P2" s="5">
-        <f>L2*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" ref="P2:P37" si="3">L2*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
         <v>2.3344875000000003</v>
       </c>
       <c r="Q2" s="7">
-        <f>(F2*100/MAX($F$2:$F$37))</f>
-        <v>4.3219864770342733</v>
+        <f t="shared" ref="Q2:Q37" si="4">(F2*100/MAX($F$2:$F$37))</f>
+        <v>4.2358452241913369</v>
       </c>
       <c r="R2" s="7">
-        <f>(H2*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>14.812795674701508</v>
+        <f t="shared" ref="R2:R37" si="5">(H2*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
+        <v>14.728518949914879</v>
       </c>
       <c r="S2" s="36"/>
       <c r="T2" s="35">
-        <f>IF(D2&gt;0,-0.5,1)+IF(J2&gt;100,1,-0.5)+IF(M2&gt;100,1,-0.5)+IF(S2&gt;1,1,-0.5)+IF(L2&gt;I2,1,-0.5)</f>
+        <f t="shared" ref="T2:T37" si="6">IF(D2&gt;0,-0.5,1)+IF(J2&gt;100,1,-0.5)+IF(M2&gt;100,1,-0.5)+IF(S2&gt;1,1,-0.5)+IF(L2&gt;I2,1,-0.5)</f>
         <v>-2.5</v>
       </c>
       <c r="U2" s="7">
@@ -1054,11 +1014,11 @@
         <v>282.94628</v>
       </c>
       <c r="W2" s="3">
-        <f>F2/U2</f>
+        <f t="shared" ref="W2:W37" si="7">F2/U2</f>
         <v>2.8997288559808112</v>
       </c>
       <c r="X2" s="3">
-        <f>AN2/V2</f>
+        <f t="shared" ref="X2:X37" si="8">AN2/V2</f>
         <v>3.9036821780042397</v>
       </c>
       <c r="Y2" s="3">
@@ -1111,7 +1071,7 @@
         <v>1104.5323505685974</v>
       </c>
       <c r="AO2" s="3">
-        <f t="shared" ref="AO2:AO37" si="1">((AN2/AH2)/100)*100/6.407</f>
+        <f t="shared" ref="AO2:AO37" si="9">((AN2/AH2)/100)*100/6.407</f>
         <v>57.851534760247603</v>
       </c>
       <c r="AP2" s="7">
@@ -1166,31 +1126,31 @@
         <v>90.347500000000011</v>
       </c>
       <c r="N3" s="3">
-        <f>I3-L3</f>
+        <f t="shared" si="1"/>
         <v>-1.3560665510843366</v>
       </c>
       <c r="O3" s="20">
-        <f>J3*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.2267896986632072</v>
+        <f t="shared" si="2"/>
+        <v>1.209218419874007</v>
       </c>
       <c r="P3" s="5">
-        <f>L3*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>1.8157125000000001</v>
       </c>
       <c r="Q3" s="7">
-        <f>(F3*100/MAX($F$2:$F$37))</f>
-        <v>5.4037848760394809</v>
+        <f t="shared" si="4"/>
+        <v>5.2960823642918804</v>
       </c>
       <c r="R3" s="7">
-        <f>(H3*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>15.234061725613877</v>
+        <f t="shared" si="5"/>
+        <v>15.147388226861391</v>
       </c>
       <c r="S3" s="36">
         <f>E3-E2</f>
         <v>-2.4116666666666706</v>
       </c>
       <c r="T3" s="35">
-        <f>IF(D3&gt;0,-0.5,1)+IF(J3&gt;100,1,-0.5)+IF(M3&gt;100,1,-0.5)+IF(S3&gt;1,1,-0.5)+IF(L3&gt;I3,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U3" s="7">
@@ -1200,22 +1160,22 @@
         <v>278.40719999999999</v>
       </c>
       <c r="W3" s="3">
-        <f>F3/U3</f>
+        <f t="shared" si="7"/>
         <v>3.8387070060177773</v>
       </c>
       <c r="X3" s="3">
-        <f>AN3/V3</f>
+        <f t="shared" si="8"/>
         <v>4.5754867417091241</v>
       </c>
       <c r="Y3" s="3">
         <v>3.3811999999999998</v>
       </c>
       <c r="Z3" s="13">
-        <f t="shared" ref="Z3:Z35" si="2">(Y3*100/Y2)-100</f>
+        <f t="shared" ref="Z3:Z35" si="10">(Y3*100/Y2)-100</f>
         <v>2.8439334489156636</v>
       </c>
       <c r="AA3" s="13">
-        <f t="shared" ref="AA3:AA35" si="3">Y3-Y2</f>
+        <f t="shared" ref="AA3:AA35" si="11">Y3-Y2</f>
         <v>9.3500000000000139E-2</v>
       </c>
       <c r="AB3" s="7">
@@ -1228,26 +1188,26 @@
         <v>586</v>
       </c>
       <c r="AE3" s="9">
-        <f t="shared" ref="AE3:AE34" si="4">AVERAGE(AB3:AD3)</f>
+        <f t="shared" ref="AE3:AE34" si="12">AVERAGE(AB3:AD3)</f>
         <v>1390.61</v>
       </c>
       <c r="AF3" s="13">
-        <f t="shared" ref="AF3:AF37" si="5">((AE3/Y3)/100)*100/7.04</f>
+        <f t="shared" ref="AF3:AF36" si="13">((AE3/Y3)/100)*100/7.04</f>
         <v>58.420037130443205</v>
       </c>
       <c r="AG3" s="6">
-        <f t="shared" ref="AG3:AG37" si="6">AE3/Y3</f>
+        <f t="shared" ref="AG3:AG36" si="14">AE3/Y3</f>
         <v>411.27706139832014</v>
       </c>
       <c r="AH3" s="3">
         <v>3.2046329999999998</v>
       </c>
       <c r="AI3" s="3">
-        <f t="shared" ref="AI3:AI35" si="7">(AH3*100/AH2)-100</f>
+        <f t="shared" ref="AI3:AI35" si="15">(AH3*100/AH2)-100</f>
         <v>7.539860581506602</v>
       </c>
       <c r="AJ3" s="5">
-        <f t="shared" ref="AJ3:AJ35" si="8">AH3-AH2</f>
+        <f t="shared" ref="AJ3:AJ35" si="16">AH3-AH2</f>
         <v>0.22468399999999988</v>
       </c>
       <c r="AK3" s="7">
@@ -1260,15 +1220,15 @@
         <v>479.54535718908153</v>
       </c>
       <c r="AN3" s="7">
-        <f t="shared" ref="AN3:AN35" si="9">AVERAGE(AK3:AM3)</f>
+        <f t="shared" ref="AN3:AN35" si="17">AVERAGE(AK3:AM3)</f>
         <v>1273.8484523963605</v>
       </c>
       <c r="AO3" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>62.041849979271625</v>
       </c>
       <c r="AP3" s="7">
-        <f t="shared" ref="AP3:AP37" si="10">AN3/AH3</f>
+        <f t="shared" ref="AP3:AP37" si="18">AN3/AH3</f>
         <v>397.50213281719329</v>
       </c>
     </row>
@@ -1294,7 +1254,7 @@
         <v>1470.7033333333336</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" ref="G4:G32" si="11">(F4*100/F3)-100</f>
+        <f t="shared" ref="G4:G32" si="19">(F4*100/F3)-100</f>
         <v>5.7595827250871139</v>
       </c>
       <c r="H4" s="5">
@@ -1302,11 +1262,11 @@
         <v>3.4190999999999998</v>
       </c>
       <c r="I4" s="37">
-        <f t="shared" ref="I4:I32" si="12">(H4*100/H3)-100</f>
+        <f t="shared" ref="I4:I32" si="20">(H4*100/H3)-100</f>
         <v>1.1209038211285929</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" ref="J4:J35" si="13">AF4</f>
+        <f t="shared" ref="J4:J35" si="21">AF4</f>
         <v>61.099916201587703</v>
       </c>
       <c r="K4" s="5">
@@ -1320,31 +1280,31 @@
         <v>87.450833333333335</v>
       </c>
       <c r="N4" s="3">
-        <f>I4-L4</f>
+        <f t="shared" si="1"/>
         <v>-1.8790961788714071</v>
       </c>
       <c r="O4" s="20">
-        <f>J4*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.2830657333874296</v>
+        <f t="shared" si="2"/>
+        <v>1.2646884143320229</v>
       </c>
       <c r="P4" s="5">
-        <f>L4*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>1.2969374999999999</v>
       </c>
       <c r="Q4" s="7">
-        <f>(F4*100/MAX($F$2:$F$37))</f>
-        <v>5.7150203362607197</v>
+        <f t="shared" si="4"/>
+        <v>5.6011146092520203</v>
       </c>
       <c r="R4" s="7">
-        <f>(H4*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>15.40482090560937</v>
+        <f t="shared" si="5"/>
+        <v>15.31717588029746</v>
       </c>
       <c r="S4" s="36">
         <f>E4-(AVERAGE(E2:E3))</f>
         <v>-3.3716666666666688</v>
       </c>
       <c r="T4" s="35">
-        <f>IF(D4&gt;0,-0.5,1)+IF(J4&gt;100,1,-0.5)+IF(M4&gt;100,1,-0.5)+IF(S4&gt;1,1,-0.5)+IF(L4&gt;I4,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U4" s="7">
@@ -1354,22 +1314,22 @@
         <v>253.37084999999999</v>
       </c>
       <c r="W4" s="3">
-        <f>F4/U4</f>
+        <f t="shared" si="7"/>
         <v>4.2759218878713003</v>
       </c>
       <c r="X4" s="3">
-        <f>AN4/V4</f>
+        <f t="shared" si="8"/>
         <v>5.1074974419919279</v>
       </c>
       <c r="Y4" s="3">
         <v>3.4190999999999998</v>
       </c>
       <c r="Z4" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1.1209038211285929</v>
       </c>
       <c r="AA4" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>3.7900000000000045E-2</v>
       </c>
       <c r="AB4" s="7">
@@ -1382,26 +1342,26 @@
         <v>676</v>
       </c>
       <c r="AE4" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1470.7033333333336</v>
       </c>
       <c r="AF4" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>61.099916201587703</v>
       </c>
       <c r="AG4" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>430.14341005917748</v>
       </c>
       <c r="AH4" s="3">
         <v>3.4331779999999998</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>7.1317058770848263</v>
       </c>
       <c r="AJ4" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.228545</v>
       </c>
       <c r="AK4" s="7">
@@ -1414,15 +1374,15 @@
         <v>487.27290475096095</v>
       </c>
       <c r="AN4" s="7">
+        <f t="shared" si="17"/>
+        <v>1294.0909682503204</v>
+      </c>
+      <c r="AO4" s="3">
         <f t="shared" si="9"/>
-        <v>1294.0909682503204</v>
-      </c>
-      <c r="AO4" s="3">
-        <f t="shared" si="1"/>
         <v>58.832020155108296</v>
       </c>
       <c r="AP4" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>376.93675313377884</v>
       </c>
     </row>
@@ -1448,7 +1408,7 @@
         <v>1665.3633333333335</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>13.235844074603747</v>
       </c>
       <c r="H5" s="5">
@@ -1456,11 +1416,11 @@
         <v>3.4748999999999999</v>
       </c>
       <c r="I5" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1.6320084232692835</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>68.075999788962761</v>
       </c>
       <c r="K5" s="5">
@@ -1474,31 +1434,31 @@
         <v>94.039166666666645</v>
       </c>
       <c r="N5" s="3">
-        <f>I5-L5</f>
+        <f t="shared" si="1"/>
         <v>-1.3679915767307165</v>
       </c>
       <c r="O5" s="20">
-        <f>J5*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.4295597772528255</v>
+        <f t="shared" si="2"/>
+        <v>1.4090842275972424</v>
       </c>
       <c r="P5" s="5">
-        <f>L5*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>1.2969374999999999</v>
       </c>
       <c r="Q5" s="7">
-        <f>(F5*100/MAX($F$2:$F$37))</f>
-        <v>6.4714515168000837</v>
+        <f t="shared" si="4"/>
+        <v>6.3424694053724684</v>
       </c>
       <c r="R5" s="7">
-        <f>(H5*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>15.656228880378464</v>
+        <f t="shared" si="5"/>
+        <v>15.567153480870887</v>
       </c>
       <c r="S5" s="36">
-        <f t="shared" ref="S5:S37" si="14">E5-(AVERAGE(E3:E4))</f>
+        <f t="shared" ref="S5:S37" si="22">E5-(AVERAGE(E3:E4))</f>
         <v>-1.5820833333333333</v>
       </c>
       <c r="T5" s="35">
-        <f>IF(D5&gt;0,-0.5,1)+IF(J5&gt;100,1,-0.5)+IF(M5&gt;100,1,-0.5)+IF(S5&gt;1,1,-0.5)+IF(L5&gt;I5,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U5" s="7">
@@ -1508,22 +1468,22 @@
         <v>301.327</v>
       </c>
       <c r="W5" s="3">
-        <f>F5/U5</f>
+        <f t="shared" si="7"/>
         <v>4.6283234209697444</v>
       </c>
       <c r="X5" s="3">
-        <f>AN5/V5</f>
+        <f t="shared" si="8"/>
         <v>5.8106610400047671</v>
       </c>
       <c r="Y5" s="3">
         <v>3.4748999999999999</v>
       </c>
       <c r="Z5" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1.6320084232692835</v>
       </c>
       <c r="AA5" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.5800000000000072E-2</v>
       </c>
       <c r="AB5" s="7">
@@ -1536,26 +1496,26 @@
         <v>776</v>
       </c>
       <c r="AE5" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1665.3633333333335</v>
       </c>
       <c r="AF5" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>68.075999788962761</v>
       </c>
       <c r="AG5" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>479.25503851429784</v>
       </c>
       <c r="AH5" s="3">
         <v>3.6517740000000001</v>
       </c>
       <c r="AI5" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.3671618541188479</v>
       </c>
       <c r="AJ5" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.21859600000000023</v>
       </c>
       <c r="AK5" s="7">
@@ -1568,15 +1528,15 @@
         <v>729.72717760454884</v>
       </c>
       <c r="AN5" s="7">
+        <f t="shared" si="17"/>
+        <v>1750.9090592015164</v>
+      </c>
+      <c r="AO5" s="3">
         <f t="shared" si="9"/>
-        <v>1750.9090592015164</v>
-      </c>
-      <c r="AO5" s="3">
-        <f t="shared" si="1"/>
         <v>74.835036286598012</v>
       </c>
       <c r="AP5" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>479.46807748823346</v>
       </c>
     </row>
@@ -1602,7 +1562,7 @@
         <v>1681.4800000000002</v>
       </c>
       <c r="G6" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.96775678580651459</v>
       </c>
       <c r="H6" s="5">
@@ -1614,7 +1574,7 @@
         <v>0.50361161472272897</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>68.390387959309066</v>
       </c>
       <c r="K6" s="5">
@@ -1628,31 +1588,31 @@
         <v>90.861666666666636</v>
       </c>
       <c r="N6" s="3">
-        <f>I6-L6</f>
+        <f t="shared" si="1"/>
         <v>-2.0963883852772711</v>
       </c>
       <c r="O6" s="20">
-        <f>J6*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.4361617615668929</v>
+        <f t="shared" si="2"/>
+        <v>1.4155916518517733</v>
       </c>
       <c r="P6" s="5">
-        <f>L6*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>1.1240125000000001</v>
       </c>
       <c r="Q6" s="7">
-        <f>(F6*100/MAX($F$2:$F$37))</f>
-        <v>6.5340794279940946</v>
+        <f t="shared" si="4"/>
+        <v>6.4038490834306616</v>
       </c>
       <c r="R6" s="7">
-        <f>(H6*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>15.735075467447624</v>
+        <f t="shared" si="5"/>
+        <v>15.645551473882268</v>
       </c>
       <c r="S6" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.92958333333333387</v>
       </c>
       <c r="T6" s="35">
-        <f>IF(D6&gt;0,-0.5,1)+IF(J6&gt;100,1,-0.5)+IF(M6&gt;100,1,-0.5)+IF(S6&gt;1,1,-0.5)+IF(L6&gt;I6,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U6" s="7">
@@ -1662,22 +1622,22 @@
         <v>319.36005999999998</v>
       </c>
       <c r="W6" s="3">
-        <f>F6/U6</f>
+        <f t="shared" si="7"/>
         <v>4.3771443446570357</v>
       </c>
       <c r="X6" s="3">
-        <f>AN6/V6</f>
+        <f t="shared" si="8"/>
         <v>4.8318024368714738</v>
       </c>
       <c r="Y6" s="3">
         <v>3.4923999999999999</v>
       </c>
       <c r="Z6" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.50361161472272897</v>
       </c>
       <c r="AA6" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.7500000000000071E-2</v>
       </c>
       <c r="AB6" s="7">
@@ -1690,26 +1650,26 @@
         <v>751</v>
       </c>
       <c r="AE6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1681.4800000000002</v>
       </c>
       <c r="AF6" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>68.390387959309066</v>
       </c>
       <c r="AG6" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>481.46833123353576</v>
       </c>
       <c r="AH6" s="3">
         <v>3.7357990000000001</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>2.3009364763536837</v>
       </c>
       <c r="AJ6" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>8.4025000000000016E-2</v>
       </c>
       <c r="AK6" s="7">
@@ -1722,15 +1682,15 @@
         <v>651.25414844226009</v>
       </c>
       <c r="AN6" s="7">
+        <f t="shared" si="17"/>
+        <v>1543.0847161474201</v>
+      </c>
+      <c r="AO6" s="3">
         <f t="shared" si="9"/>
-        <v>1543.0847161474201</v>
-      </c>
-      <c r="AO6" s="3">
-        <f t="shared" si="1"/>
         <v>64.469090614788527</v>
       </c>
       <c r="AP6" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>413.05346356895006</v>
       </c>
     </row>
@@ -1756,7 +1716,7 @@
         <v>2261.3733333333334</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>34.48707884324125</v>
       </c>
       <c r="H7" s="5">
@@ -1764,11 +1724,11 @@
         <v>3.6478999999999999</v>
       </c>
       <c r="I7" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4.4525254839079054</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>88.055539633844973</v>
       </c>
       <c r="K7" s="5">
@@ -1782,31 +1742,31 @@
         <v>84.000833333333318</v>
       </c>
       <c r="N7" s="3">
-        <f>I7-L7</f>
+        <f t="shared" si="1"/>
         <v>1.6525254839079055</v>
       </c>
       <c r="O7" s="20">
-        <f>J7*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.8491194843273668</v>
+        <f t="shared" si="2"/>
+        <v>1.8226345912694426</v>
       </c>
       <c r="P7" s="5">
-        <f>L7*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>1.210475</v>
       </c>
       <c r="Q7" s="7">
-        <f>(F7*100/MAX($F$2:$F$37))</f>
-        <v>8.7874925520064249</v>
+        <f t="shared" si="4"/>
+        <v>8.6123495658355775</v>
       </c>
       <c r="R7" s="7">
-        <f>(H7*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>16.435683712547871</v>
+        <f t="shared" si="5"/>
+        <v>16.342173640354805</v>
       </c>
       <c r="S7" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.2245833333333334</v>
       </c>
       <c r="T7" s="35">
-        <f>IF(D7&gt;0,-0.5,1)+IF(J7&gt;100,1,-0.5)+IF(M7&gt;100,1,-0.5)+IF(S7&gt;1,1,-0.5)+IF(L7&gt;I7,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U7" s="7">
@@ -1816,22 +1776,22 @@
         <v>291.93644</v>
       </c>
       <c r="W7" s="3">
-        <f>F7/U7</f>
+        <f t="shared" si="7"/>
         <v>5.8882263594150066</v>
       </c>
       <c r="X7" s="3">
-        <f>AN7/V7</f>
+        <f t="shared" si="8"/>
         <v>5.4901269084233428</v>
       </c>
       <c r="Y7" s="3">
         <v>3.6478999999999999</v>
       </c>
       <c r="Z7" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4.4525254839079054</v>
       </c>
       <c r="AA7" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.15549999999999997</v>
       </c>
       <c r="AB7" s="7">
@@ -1844,26 +1804,26 @@
         <v>1052</v>
       </c>
       <c r="AE7" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2261.3733333333334</v>
       </c>
       <c r="AF7" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>88.055539633844973</v>
       </c>
       <c r="AG7" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>619.91099902226858</v>
       </c>
       <c r="AH7" s="3">
         <v>3.9374030000000002</v>
       </c>
       <c r="AI7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.3965430152960749</v>
       </c>
       <c r="AJ7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.20160400000000012</v>
       </c>
       <c r="AK7" s="7">
@@ -1876,15 +1836,15 @@
         <v>677.3043143799506</v>
       </c>
       <c r="AN7" s="7">
+        <f t="shared" si="17"/>
+        <v>1602.7681047933168</v>
+      </c>
+      <c r="AO7" s="3">
         <f t="shared" si="9"/>
-        <v>1602.7681047933168</v>
-      </c>
-      <c r="AO7" s="3">
-        <f t="shared" si="1"/>
         <v>63.533985490317804</v>
       </c>
       <c r="AP7" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>407.06224503646609</v>
       </c>
     </row>
@@ -1910,7 +1870,7 @@
         <v>2826.4233333333336</v>
       </c>
       <c r="G8" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>24.987028531334957</v>
       </c>
       <c r="H8" s="5">
@@ -1918,11 +1878,11 @@
         <v>3.8245999999999998</v>
       </c>
       <c r="I8" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4.8438827818744983</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>104.97322259091465</v>
       </c>
       <c r="K8" s="5">
@@ -1936,31 +1896,31 @@
         <v>87.204999999999998</v>
       </c>
       <c r="N8" s="3">
-        <f>I8-L8</f>
+        <f t="shared" si="1"/>
         <v>1.8438827818744983</v>
       </c>
       <c r="O8" s="20">
-        <f>J8*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.2043818257504237</v>
+        <f t="shared" si="2"/>
+        <v>2.1728085188826585</v>
       </c>
       <c r="P8" s="5">
-        <f>L8*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>1.2969374999999999</v>
       </c>
       <c r="Q8" s="7">
-        <f>(F8*100/MAX($F$2:$F$37))</f>
-        <v>10.983225823165204</v>
+        <f t="shared" si="4"/>
+        <v>10.764319809069214</v>
       </c>
       <c r="R8" s="7">
-        <f>(H8*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>17.23180896598333</v>
+        <f t="shared" si="5"/>
+        <v>17.133769375503984</v>
       </c>
       <c r="S8" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.2791666666666659</v>
       </c>
       <c r="T8" s="35">
-        <f>IF(D8&gt;0,-0.5,1)+IF(J8&gt;100,1,-0.5)+IF(M8&gt;100,1,-0.5)+IF(S8&gt;1,1,-0.5)+IF(L8&gt;I8,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U8" s="7">
@@ -1970,22 +1930,22 @@
         <v>300.88346999999999</v>
       </c>
       <c r="W8" s="3">
-        <f>F8/U8</f>
+        <f t="shared" si="7"/>
         <v>7.2870377531990966</v>
       </c>
       <c r="X8" s="3">
-        <f>AN8/V8</f>
+        <f t="shared" si="8"/>
         <v>6.7659349130315523</v>
       </c>
       <c r="Y8" s="3">
         <v>3.8245999999999998</v>
       </c>
       <c r="Z8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4.8438827818744983</v>
       </c>
       <c r="AA8" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.17669999999999986</v>
       </c>
       <c r="AB8" s="7">
@@ -1998,26 +1958,26 @@
         <v>1291</v>
       </c>
       <c r="AE8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2826.4233333333336</v>
       </c>
       <c r="AF8" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>104.97322259091465</v>
       </c>
       <c r="AG8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>739.01148704003913</v>
       </c>
       <c r="AH8" s="3">
         <v>4.0903450000000001</v>
       </c>
       <c r="AI8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>3.8843369601740108</v>
       </c>
       <c r="AJ8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.15294199999999991</v>
       </c>
       <c r="AK8" s="7">
@@ -2030,15 +1990,15 @@
         <v>912.27392328124427</v>
       </c>
       <c r="AN8" s="7">
+        <f t="shared" si="17"/>
+        <v>2035.7579744270815</v>
+      </c>
+      <c r="AO8" s="3">
         <f t="shared" si="9"/>
-        <v>2035.7579744270815</v>
-      </c>
-      <c r="AO8" s="3">
-        <f t="shared" si="1"/>
         <v>77.680404893902249</v>
       </c>
       <c r="AP8" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>497.69835415523175</v>
       </c>
     </row>
@@ -2064,7 +2024,7 @@
         <v>3482.7666666666664</v>
       </c>
       <c r="G9" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>23.2216924334288</v>
       </c>
       <c r="H9" s="5">
@@ -2072,11 +2032,11 @@
         <v>4.0461</v>
       </c>
       <c r="I9" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5.7914553155885642</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>122.26864739932878</v>
       </c>
       <c r="K9" s="5">
@@ -2090,31 +2050,31 @@
         <v>96.471666666666678</v>
       </c>
       <c r="N9" s="3">
-        <f>I9-L9</f>
+        <f t="shared" si="1"/>
         <v>3.4914553155885644</v>
       </c>
       <c r="O9" s="20">
-        <f>J9*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.5675765450825985</v>
+        <f t="shared" si="2"/>
+        <v>2.5308012091505976</v>
       </c>
       <c r="P9" s="5">
-        <f>L9*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>0.99431874999999992</v>
       </c>
       <c r="Q9" s="7">
-        <f>(F9*100/MAX($F$2:$F$37))</f>
-        <v>13.533716743089556</v>
+        <f t="shared" si="4"/>
+        <v>13.263977047681916</v>
       </c>
       <c r="R9" s="7">
-        <f>(H9*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>18.229781482315836</v>
+        <f t="shared" si="5"/>
+        <v>18.126063972762296</v>
       </c>
       <c r="S9" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-0.10749999999999993</v>
       </c>
       <c r="T9" s="35">
-        <f>IF(D9&gt;0,-0.5,1)+IF(J9&gt;100,1,-0.5)+IF(M9&gt;100,1,-0.5)+IF(S9&gt;1,1,-0.5)+IF(L9&gt;I9,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U9" s="7">
@@ -2124,22 +2084,22 @@
         <v>292.48136</v>
       </c>
       <c r="W9" s="3">
-        <f>F9/U9</f>
+        <f t="shared" si="7"/>
         <v>10.512743115296768</v>
       </c>
       <c r="X9" s="3">
-        <f>AN9/V9</f>
+        <f t="shared" si="8"/>
         <v>9.9356525287051785</v>
       </c>
       <c r="Y9" s="3">
         <v>4.0461</v>
       </c>
       <c r="Z9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>5.7914553155885642</v>
       </c>
       <c r="AA9" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.22150000000000025</v>
       </c>
       <c r="AB9" s="7">
@@ -2152,26 +2112,26 @@
         <v>1570</v>
       </c>
       <c r="AE9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>3482.7666666666664</v>
       </c>
       <c r="AF9" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>122.26864739932878</v>
       </c>
       <c r="AG9" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>860.77127769127469</v>
       </c>
       <c r="AH9" s="3">
         <v>4.2673110000000003</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4.3264321224737756</v>
       </c>
       <c r="AJ9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.17696600000000018</v>
       </c>
       <c r="AK9" s="7">
@@ -2184,15 +2144,15 @@
         <v>1495.9794922493888</v>
       </c>
       <c r="AN9" s="7">
+        <f t="shared" si="17"/>
+        <v>2905.9931640831296</v>
+      </c>
+      <c r="AO9" s="3">
         <f t="shared" si="9"/>
-        <v>2905.9931640831296</v>
-      </c>
-      <c r="AO9" s="3">
-        <f t="shared" si="1"/>
         <v>106.28832648759899</v>
       </c>
       <c r="AP9" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>680.98930780604678</v>
       </c>
     </row>
@@ -2218,7 +2178,7 @@
         <v>4200.8100000000004</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>20.61703817845968</v>
       </c>
       <c r="H10" s="5">
@@ -2226,11 +2186,11 @@
         <v>4.3923999999999994</v>
       </c>
       <c r="I10" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>8.5588591483156478</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>135.84964163306873</v>
       </c>
       <c r="K10" s="5">
@@ -2244,31 +2204,31 @@
         <v>98.650833333333352</v>
       </c>
       <c r="N10" s="3">
-        <f>I10-L10</f>
+        <f t="shared" si="1"/>
         <v>6.9588591483156481</v>
       </c>
       <c r="O10" s="20">
-        <f>J10*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.8527701985264504</v>
+        <f t="shared" si="2"/>
+        <v>2.8119100408853717</v>
       </c>
       <c r="P10" s="5">
-        <f>L10*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q10" s="7">
-        <f>(F10*100/MAX($F$2:$F$37))</f>
-        <v>16.323968290976921</v>
+        <f t="shared" si="4"/>
+        <v>15.998616259584628</v>
       </c>
       <c r="R10" s="7">
-        <f>(H10*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>19.790042802432978</v>
+        <f t="shared" si="5"/>
+        <v>19.67744825732461</v>
       </c>
       <c r="S10" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-2.5833333333332931E-2</v>
       </c>
       <c r="T10" s="35">
-        <f>IF(D10&gt;0,-0.5,1)+IF(J10&gt;100,1,-0.5)+IF(M10&gt;100,1,-0.5)+IF(S10&gt;1,1,-0.5)+IF(L10&gt;I10,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U10" s="7">
@@ -2278,22 +2238,22 @@
         <v>264.28111999999999</v>
       </c>
       <c r="W10" s="3">
-        <f>F10/U10</f>
+        <f t="shared" si="7"/>
         <v>14.284096705090281</v>
       </c>
       <c r="X10" s="3">
-        <f>AN10/V10</f>
+        <f t="shared" si="8"/>
         <v>13.765375716255946</v>
       </c>
       <c r="Y10" s="3">
         <v>4.3923999999999994</v>
       </c>
       <c r="Z10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>8.5588591483156478</v>
       </c>
       <c r="AA10" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.34629999999999939</v>
       </c>
       <c r="AB10" s="7">
@@ -2306,26 +2266,26 @@
         <v>2192</v>
       </c>
       <c r="AE10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>4200.8100000000004</v>
       </c>
       <c r="AF10" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>135.84964163306873</v>
       </c>
       <c r="AG10" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>956.38147709680379</v>
       </c>
       <c r="AH10" s="3">
         <v>4.4719610000000003</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4.7957601402850543</v>
       </c>
       <c r="AJ10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.20465</v>
       </c>
       <c r="AK10" s="7">
@@ -2338,15 +2298,15 @@
         <v>1965.7867345387713</v>
       </c>
       <c r="AN10" s="7">
+        <f t="shared" si="17"/>
+        <v>3637.9289115129236</v>
+      </c>
+      <c r="AO10" s="3">
         <f t="shared" si="9"/>
-        <v>3637.9289115129236</v>
-      </c>
-      <c r="AO10" s="3">
-        <f t="shared" si="1"/>
         <v>126.97010446122337</v>
       </c>
       <c r="AP10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>813.49745928305799</v>
       </c>
     </row>
@@ -2372,7 +2332,7 @@
         <v>4678.3733333333339</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>11.368363085531911</v>
       </c>
       <c r="H11" s="5">
@@ -2398,31 +2358,31 @@
         <v>100.04583333333333</v>
       </c>
       <c r="N11" s="3">
-        <f>I11-L11</f>
+        <f t="shared" si="1"/>
         <v>3.794444950368816</v>
       </c>
       <c r="O11" s="20">
-        <f>J11*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.9974056415677581</v>
+        <f t="shared" si="2"/>
+        <v>2.9544738740205583</v>
       </c>
       <c r="P11" s="5">
-        <f>L11*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>0.95108750000000009</v>
       </c>
       <c r="Q11" s="7">
-        <f>(F11*100/MAX($F$2:$F$37))</f>
-        <v>18.179736276262275</v>
+        <f t="shared" si="4"/>
+        <v>17.81739704463515</v>
       </c>
       <c r="R11" s="7">
-        <f>(H11*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>20.976346023879248</v>
+        <f t="shared" si="5"/>
+        <v>20.857002060747242</v>
       </c>
       <c r="S11" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-0.43666666666666654</v>
       </c>
       <c r="T11" s="35">
-        <f>IF(D11&gt;0,-0.5,1)+IF(J11&gt;100,1,-0.5)+IF(M11&gt;100,1,-0.5)+IF(S11&gt;1,1,-0.5)+IF(L11&gt;I11,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="U11" s="7">
@@ -2432,22 +2392,22 @@
         <v>261.39999999999998</v>
       </c>
       <c r="W11" s="3">
-        <f>F11/U11</f>
+        <f t="shared" si="7"/>
         <v>16.794246808103292</v>
       </c>
       <c r="X11" s="3">
-        <f>AN11/V11</f>
+        <f t="shared" si="8"/>
         <v>20.974369218944876</v>
       </c>
       <c r="Y11" s="3">
         <v>4.6556999999999995</v>
       </c>
       <c r="Z11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>5.9944449503688162</v>
       </c>
       <c r="AA11" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.26330000000000009</v>
       </c>
       <c r="AB11" s="7">
@@ -2460,26 +2420,26 @@
         <v>1069</v>
       </c>
       <c r="AE11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>4678.3733333333339</v>
       </c>
       <c r="AF11" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>142.73721817700169</v>
       </c>
       <c r="AG11" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1004.870015966092</v>
       </c>
       <c r="AH11" s="3">
         <v>4.7089470000000002</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.299375374695785</v>
       </c>
       <c r="AJ11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.23698599999999992</v>
       </c>
       <c r="AK11" s="7">
@@ -2492,15 +2452,15 @@
         <v>3532.1003414965717</v>
       </c>
       <c r="AN11" s="7">
+        <f t="shared" si="17"/>
+        <v>5482.7001138321903</v>
+      </c>
+      <c r="AO11" s="3">
         <f t="shared" si="9"/>
-        <v>5482.7001138321903</v>
-      </c>
-      <c r="AO11" s="3">
-        <f t="shared" si="1"/>
         <v>181.72553898166194</v>
       </c>
       <c r="AP11" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1164.3155282555081</v>
       </c>
     </row>
@@ -2526,7 +2486,7 @@
         <v>4859.33</v>
       </c>
       <c r="G12" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.8679398537383207</v>
       </c>
       <c r="H12" s="5">
@@ -2534,11 +2494,11 @@
         <v>4.9643000000000006</v>
       </c>
       <c r="I12" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.6284339626694475</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>139.04190694284461</v>
       </c>
       <c r="K12" s="5">
@@ -2552,31 +2512,31 @@
         <v>109.76750000000003</v>
       </c>
       <c r="N12" s="3">
-        <f>I12-L12</f>
+        <f t="shared" si="1"/>
         <v>3.2284339626694476</v>
       </c>
       <c r="O12" s="20">
-        <f>J12*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.9198060716582765</v>
+        <f t="shared" si="2"/>
+        <v>2.8779857608491688</v>
       </c>
       <c r="P12" s="5">
-        <f>L12*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>1.4698624999999998</v>
       </c>
       <c r="Q12" s="7">
-        <f>(F12*100/MAX($F$2:$F$37))</f>
-        <v>18.882917540996349</v>
+        <f t="shared" si="4"/>
+        <v>18.50656324582339</v>
       </c>
       <c r="R12" s="7">
-        <f>(H12*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>22.366749267853123</v>
+        <f t="shared" si="5"/>
+        <v>22.239494668936477</v>
       </c>
       <c r="S12" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.0741666666666658</v>
       </c>
       <c r="T12" s="35">
-        <f>IF(D12&gt;0,-0.5,1)+IF(J12&gt;100,1,-0.5)+IF(M12&gt;100,1,-0.5)+IF(S12&gt;1,1,-0.5)+IF(L12&gt;I12,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
       <c r="U12" s="7">
@@ -2586,22 +2546,22 @@
         <v>302.83999999999997</v>
       </c>
       <c r="W12" s="3">
-        <f>F12/U12</f>
+        <f t="shared" si="7"/>
         <v>17.410713006091004</v>
       </c>
       <c r="X12" s="3">
-        <f>AN12/V12</f>
+        <f t="shared" si="8"/>
         <v>17.330467628664248</v>
       </c>
       <c r="Y12" s="3">
         <v>4.9643000000000006</v>
       </c>
       <c r="Z12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>6.6284339626694475</v>
       </c>
       <c r="AA12" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.3086000000000011</v>
       </c>
       <c r="AB12" s="7">
@@ -2614,26 +2574,26 @@
         <v>2470</v>
       </c>
       <c r="AE12" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>4859.33</v>
       </c>
       <c r="AF12" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>139.04190694284461</v>
       </c>
       <c r="AG12" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>978.85502487762608</v>
       </c>
       <c r="AH12" s="3">
         <v>4.9103279999999998</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4.2765611929800684</v>
       </c>
       <c r="AJ12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.20138099999999959</v>
       </c>
       <c r="AK12" s="7">
@@ -2646,15 +2606,15 @@
         <v>3386.0764499940415</v>
       </c>
       <c r="AN12" s="7">
+        <f t="shared" si="17"/>
+        <v>5248.3588166646805</v>
+      </c>
+      <c r="AO12" s="3">
         <f t="shared" si="9"/>
-        <v>5248.3588166646805</v>
-      </c>
-      <c r="AO12" s="3">
-        <f t="shared" si="1"/>
         <v>166.82390845070381</v>
       </c>
       <c r="AP12" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1068.8407814436594</v>
       </c>
     </row>
@@ -2688,11 +2648,11 @@
         <v>5.4420000000000002</v>
       </c>
       <c r="I13" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>9.6227061217090011</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>114.14769595068654</v>
       </c>
       <c r="K13" s="5">
@@ -2706,31 +2666,31 @@
         <v>115.65416666666668</v>
       </c>
       <c r="N13" s="3">
-        <f>I13-L13</f>
+        <f t="shared" si="1"/>
         <v>6.8227061217090013</v>
       </c>
       <c r="O13" s="20">
-        <f>J13*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.3970408852319696</v>
+        <f t="shared" si="2"/>
+        <v>2.3627081273767172</v>
       </c>
       <c r="P13" s="5">
-        <f>L13*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>1.210475</v>
       </c>
       <c r="Q13" s="7">
-        <f>(F13*100/MAX($F$2:$F$37))</f>
-        <v>16.993821403590577</v>
+        <f t="shared" si="4"/>
+        <v>16.65511857005027</v>
       </c>
       <c r="R13" s="7">
-        <f>(H13*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>24.519035818878127</v>
+        <f t="shared" si="5"/>
+        <v>24.37953588388137</v>
       </c>
       <c r="S13" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-1.7154166666666661</v>
       </c>
       <c r="T13" s="35">
-        <f>IF(D13&gt;0,-0.5,1)+IF(J13&gt;100,1,-0.5)+IF(M13&gt;100,1,-0.5)+IF(S13&gt;1,1,-0.5)+IF(L13&gt;I13,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="U13" s="7">
@@ -2740,22 +2700,22 @@
         <v>302.79000000000002</v>
       </c>
       <c r="W13" s="3">
-        <f>F13/U13</f>
+        <f t="shared" si="7"/>
         <v>16.134850944510031</v>
       </c>
       <c r="X13" s="3">
-        <f>AN13/V13</f>
+        <f t="shared" si="8"/>
         <v>13.855841862992692</v>
       </c>
       <c r="Y13" s="3">
         <v>5.4420000000000002</v>
       </c>
       <c r="Z13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>9.6227061217090011</v>
       </c>
       <c r="AA13" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.47769999999999957</v>
       </c>
       <c r="AB13" s="7">
@@ -2768,26 +2728,26 @@
         <v>1950</v>
       </c>
       <c r="AE13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>4373.1899999999996</v>
       </c>
       <c r="AF13" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>114.14769595068654</v>
       </c>
       <c r="AG13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>803.59977949283336</v>
       </c>
       <c r="AH13" s="3">
         <v>5.4467369999999997</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>10.924097127523851</v>
       </c>
       <c r="AJ13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.53640899999999991</v>
       </c>
       <c r="AK13" s="7">
@@ -2800,15 +2760,15 @@
         <v>2802.231073086672</v>
       </c>
       <c r="AN13" s="7">
+        <f t="shared" si="17"/>
+        <v>4195.4103576955577</v>
+      </c>
+      <c r="AO13" s="3">
         <f t="shared" si="9"/>
-        <v>4195.4103576955577</v>
-      </c>
-      <c r="AO13" s="3">
-        <f t="shared" si="1"/>
         <v>120.2218250422484</v>
       </c>
       <c r="AP13" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>770.26123304568546</v>
       </c>
     </row>
@@ -2842,7 +2802,7 @@
         <v>5.7923</v>
       </c>
       <c r="I14" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.4369717015803047</v>
       </c>
       <c r="J14" s="7">
@@ -2860,31 +2820,31 @@
         <v>110.84999999999998</v>
       </c>
       <c r="N14" s="3">
-        <f>I14-L14</f>
+        <f t="shared" si="1"/>
         <v>4.8369717015803051</v>
       </c>
       <c r="O14" s="20">
-        <f>J14*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.8119553417114083</v>
+        <f t="shared" si="2"/>
+        <v>1.7860027497573963</v>
       </c>
       <c r="P14" s="5">
-        <f>L14*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>0.69169999999999998</v>
       </c>
       <c r="Q14" s="7">
-        <f>(F14*100/MAX($F$2:$F$37))</f>
-        <v>13.672741638817646</v>
+        <f t="shared" si="4"/>
+        <v>13.40023104656477</v>
       </c>
       <c r="R14" s="7">
-        <f>(H14*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>26.097319216039651</v>
+        <f t="shared" si="5"/>
+        <v>25.948839709703428</v>
       </c>
       <c r="S14" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-3.3949999999999996</v>
       </c>
       <c r="T14" s="35">
-        <f>IF(D14&gt;0,-0.5,1)+IF(J14&gt;100,1,-0.5)+IF(M14&gt;100,1,-0.5)+IF(S14&gt;1,1,-0.5)+IF(L14&gt;I14,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U14" s="7">
@@ -2894,22 +2854,22 @@
         <v>327.99</v>
       </c>
       <c r="W14" s="3">
-        <f>F14/U14</f>
+        <f t="shared" si="7"/>
         <v>11.361868164987513</v>
       </c>
       <c r="X14" s="3">
-        <f>AN14/V14</f>
+        <f t="shared" si="8"/>
         <v>8.0988575088358594</v>
       </c>
       <c r="Y14" s="3">
         <v>5.7923</v>
       </c>
       <c r="Z14" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>6.4369717015803047</v>
       </c>
       <c r="AA14" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.35029999999999983</v>
       </c>
       <c r="AB14" s="7">
@@ -2922,26 +2882,26 @@
         <v>1335</v>
       </c>
       <c r="AE14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>3518.5433333333331</v>
       </c>
       <c r="AF14" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>86.285773720493083</v>
       </c>
       <c r="AG14" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>607.45184699227127</v>
       </c>
       <c r="AH14" s="3">
         <v>5.8078250000000002</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.629437037257361</v>
       </c>
       <c r="AJ14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.36108800000000052</v>
       </c>
       <c r="AK14" s="7">
@@ -2954,15 +2914,15 @@
         <v>2014.0328229692207</v>
       </c>
       <c r="AN14" s="7">
+        <f t="shared" si="17"/>
+        <v>2656.3442743230735</v>
+      </c>
+      <c r="AO14" s="3">
         <f t="shared" si="9"/>
-        <v>2656.3442743230735</v>
-      </c>
-      <c r="AO14" s="3">
-        <f t="shared" si="1"/>
         <v>71.386504200603312</v>
       </c>
       <c r="AP14" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>457.37333241326542</v>
       </c>
     </row>
@@ -2988,7 +2948,7 @@
         <v>4522.6400000000003</v>
       </c>
       <c r="G15" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>28.537282947583435</v>
       </c>
       <c r="H15" s="5">
@@ -2996,11 +2956,11 @@
         <v>6.0626999999999995</v>
       </c>
       <c r="I15" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4.6682664917217664</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>105.96276486473926</v>
       </c>
       <c r="K15" s="5">
@@ -3014,31 +2974,31 @@
         <v>95.341666666666683</v>
       </c>
       <c r="N15" s="3">
-        <f>I15-L15</f>
+        <f t="shared" si="1"/>
         <v>2.3682664917217666</v>
       </c>
       <c r="O15" s="20">
-        <f>J15*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.2251616870368727</v>
+        <f t="shared" si="2"/>
+        <v>2.1932907507251507</v>
       </c>
       <c r="P15" s="5">
-        <f>L15*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>0.99431874999999992</v>
       </c>
       <c r="Q15" s="7">
-        <f>(F15*100/MAX($F$2:$F$37))</f>
-        <v>17.574570606979098</v>
+        <f t="shared" si="4"/>
+        <v>17.224292895952878</v>
       </c>
       <c r="R15" s="7">
-        <f>(H15*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>27.315611624239693</v>
+        <f t="shared" si="5"/>
+        <v>27.160200698862106</v>
       </c>
       <c r="S15" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-1.6495833333333336</v>
       </c>
       <c r="T15" s="35">
-        <f>IF(D15&gt;0,-0.5,1)+IF(J15&gt;100,1,-0.5)+IF(M15&gt;100,1,-0.5)+IF(S15&gt;1,1,-0.5)+IF(L15&gt;I15,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U15" s="7">
@@ -3048,22 +3008,22 @@
         <v>321.17</v>
       </c>
       <c r="W15" s="3">
-        <f>F15/U15</f>
+        <f t="shared" si="7"/>
         <v>12.4480898381592</v>
       </c>
       <c r="X15" s="3">
-        <f>AN15/V15</f>
+        <f t="shared" si="8"/>
         <v>10.643651534744793</v>
       </c>
       <c r="Y15" s="3">
         <v>6.0626999999999995</v>
       </c>
       <c r="Z15" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4.6682664917217664</v>
       </c>
       <c r="AA15" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.27039999999999953</v>
       </c>
       <c r="AB15" s="7">
@@ -3076,26 +3036,26 @@
         <v>2003</v>
       </c>
       <c r="AE15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>4522.6400000000003</v>
       </c>
       <c r="AF15" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>105.96276486473926</v>
       </c>
       <c r="AG15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>745.97786464776436</v>
       </c>
       <c r="AH15" s="3">
         <v>6.1809219999999998</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.4240399805434691</v>
       </c>
       <c r="AJ15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.37309699999999957</v>
       </c>
       <c r="AK15" s="7">
@@ -3108,15 +3068,15 @@
         <v>2733.2646902419569</v>
       </c>
       <c r="AN15" s="7">
+        <f t="shared" si="17"/>
+        <v>3418.4215634139855</v>
+      </c>
+      <c r="AO15" s="3">
         <f t="shared" si="9"/>
-        <v>3418.4215634139855</v>
-      </c>
-      <c r="AO15" s="3">
-        <f t="shared" si="1"/>
         <v>86.32123243964989</v>
       </c>
       <c r="AP15" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>553.06013624083687</v>
       </c>
     </row>
@@ -3150,11 +3110,11 @@
         <v>6.4112</v>
       </c>
       <c r="I16" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5.7482639747967141</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>104.64205691649461</v>
       </c>
       <c r="K16" s="5">
@@ -3168,31 +3128,31 @@
         <v>87.152499999999989</v>
       </c>
       <c r="N16" s="3">
-        <f>I16-L16</f>
+        <f t="shared" si="1"/>
         <v>3.048263974796714</v>
       </c>
       <c r="O16" s="20">
-        <f>J16*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.1974275227769047</v>
+        <f t="shared" si="2"/>
+        <v>2.1659538222202008</v>
       </c>
       <c r="P16" s="5">
-        <f>L16*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>1.1672437500000001</v>
       </c>
       <c r="Q16" s="7">
-        <f>(F16*100/MAX($F$2:$F$37))</f>
-        <v>18.353164425792077</v>
+        <f t="shared" si="4"/>
+        <v>17.987368608134869</v>
       </c>
       <c r="R16" s="7">
-        <f>(H16*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>28.885785086731246</v>
+        <f t="shared" si="5"/>
+        <v>28.72144073111728</v>
       </c>
       <c r="S16" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-4.7916666666666607E-2</v>
       </c>
       <c r="T16" s="35">
-        <f>IF(D16&gt;0,-0.5,1)+IF(J16&gt;100,1,-0.5)+IF(M16&gt;100,1,-0.5)+IF(S16&gt;1,1,-0.5)+IF(L16&gt;I16,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U16" s="7">
@@ -3202,22 +3162,22 @@
         <v>329.09</v>
       </c>
       <c r="W16" s="3">
-        <f>F16/U16</f>
+        <f t="shared" si="7"/>
         <v>11.542887634316624</v>
       </c>
       <c r="X16" s="3">
-        <f>AN16/V16</f>
+        <f t="shared" si="8"/>
         <v>11.170196602753046</v>
       </c>
       <c r="Y16" s="3">
         <v>6.4112</v>
       </c>
       <c r="Z16" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>5.7482639747967141</v>
       </c>
       <c r="AA16" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.34850000000000048</v>
       </c>
       <c r="AB16" s="7">
@@ -3230,26 +3190,26 @@
         <v>2175</v>
       </c>
       <c r="AE16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>4723.0033333333331</v>
       </c>
       <c r="AF16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>104.64205691649461</v>
       </c>
       <c r="AG16" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>736.68008069212203</v>
       </c>
       <c r="AH16" s="3">
         <v>6.5681760000000002</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.2653112270305229</v>
       </c>
       <c r="AJ16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.38725400000000043</v>
       </c>
       <c r="AK16" s="1">
@@ -3262,15 +3222,15 @@
         <v>2951</v>
       </c>
       <c r="AN16" s="7">
+        <f t="shared" si="17"/>
+        <v>3676</v>
+      </c>
+      <c r="AO16" s="3">
         <f t="shared" si="9"/>
-        <v>3676</v>
-      </c>
-      <c r="AO16" s="3">
-        <f t="shared" si="1"/>
         <v>87.35263240686082</v>
       </c>
       <c r="AP16" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>559.66831583075725</v>
       </c>
     </row>
@@ -3296,7 +3256,7 @@
         <v>4723.5</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.0515907603988239E-2</v>
       </c>
       <c r="H17" s="5">
@@ -3304,106 +3264,106 @@
         <v>6.7104999999999997</v>
       </c>
       <c r="I17" s="37">
+        <f t="shared" si="20"/>
+        <v>4.6683928125779772</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="21"/>
+        <v>99.985351992467713</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" ref="K17:K33" ca="1" si="23">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
+        <v>102.96543741226743</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="M17" s="7">
+        <v>87.493333333333325</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2683928125779773</v>
+      </c>
+      <c r="O17" s="20">
+        <f t="shared" si="2"/>
+        <v>2.0695661161070023</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4698624999999998</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" si="4"/>
+        <v>17.989260143198091</v>
+      </c>
+      <c r="R17" s="7">
+        <f t="shared" si="5"/>
+        <v>30.062270405877605</v>
+      </c>
+      <c r="S17" s="36">
+        <f t="shared" si="22"/>
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="T17" s="35">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="U17" s="7">
+        <v>444.45</v>
+      </c>
+      <c r="V17" s="7">
+        <v>358.31</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" si="7"/>
+        <v>10.627742153223085</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" si="8"/>
+        <v>12.745946247662639</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>6.7104999999999997</v>
+      </c>
+      <c r="Z17" s="13">
+        <f t="shared" si="10"/>
+        <v>4.6683928125779772</v>
+      </c>
+      <c r="AA17" s="13">
+        <f t="shared" si="11"/>
+        <v>0.29929999999999968</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>10717.5</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1248</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>2205</v>
+      </c>
+      <c r="AE17" s="7">
         <f t="shared" si="12"/>
-        <v>4.6683928125779772</v>
-      </c>
-      <c r="J17" s="7">
+        <v>4723.5</v>
+      </c>
+      <c r="AF17" s="13">
         <f t="shared" si="13"/>
         <v>99.985351992467713</v>
       </c>
-      <c r="K17" s="5">
-        <f t="shared" ref="K17:K33" ca="1" si="15">AVERAGE(OFFSET(J18,-14,0,14,1))</f>
-        <v>102.96543741226743</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="M17" s="7">
-        <v>87.493333333333325</v>
-      </c>
-      <c r="N17" s="3">
-        <f>I17-L17</f>
-        <v>1.2683928125779773</v>
-      </c>
-      <c r="O17" s="20">
-        <f>J17*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.0996391968681993</v>
-      </c>
-      <c r="P17" s="5">
-        <f>L17*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>1.4698624999999998</v>
-      </c>
-      <c r="Q17" s="7">
-        <f>(F17*100/MAX($F$2:$F$37))</f>
-        <v>18.355094427605504</v>
-      </c>
-      <c r="R17" s="7">
-        <f>(H17*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>30.234287001576931</v>
-      </c>
-      <c r="S17" s="36">
+      <c r="AG17" s="6">
         <f t="shared" si="14"/>
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="T17" s="35">
-        <f>IF(D17&gt;0,-0.5,1)+IF(J17&gt;100,1,-0.5)+IF(M17&gt;100,1,-0.5)+IF(S17&gt;1,1,-0.5)+IF(L17&gt;I17,1,-0.5)</f>
-        <v>-1</v>
-      </c>
-      <c r="U17" s="7">
-        <v>444.45</v>
-      </c>
-      <c r="V17" s="7">
-        <v>358.31</v>
-      </c>
-      <c r="W17" s="3">
-        <f>F17/U17</f>
-        <v>10.627742153223085</v>
-      </c>
-      <c r="X17" s="3">
-        <f>AN17/V17</f>
-        <v>12.745946247662639</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>6.7104999999999997</v>
-      </c>
-      <c r="Z17" s="13">
-        <f t="shared" si="2"/>
-        <v>4.6683928125779772</v>
-      </c>
-      <c r="AA17" s="13">
-        <f t="shared" si="3"/>
-        <v>0.29929999999999968</v>
-      </c>
-      <c r="AB17" s="7">
-        <v>10717.5</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>1248</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>2205</v>
-      </c>
-      <c r="AE17" s="7">
-        <f t="shared" si="4"/>
-        <v>4723.5</v>
-      </c>
-      <c r="AF17" s="13">
-        <f t="shared" si="5"/>
-        <v>99.985351992467713</v>
-      </c>
-      <c r="AG17" s="6">
-        <f t="shared" si="6"/>
         <v>703.89687802697267</v>
       </c>
       <c r="AH17" s="3">
         <v>7.1306700000000003</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>8.5639300773913476</v>
       </c>
       <c r="AJ17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.56249400000000005</v>
       </c>
       <c r="AK17" s="1">
@@ -3416,15 +3376,15 @@
         <v>3578</v>
       </c>
       <c r="AN17" s="7">
+        <f t="shared" si="17"/>
+        <v>4567</v>
+      </c>
+      <c r="AO17" s="3">
         <f t="shared" si="9"/>
-        <v>4567</v>
-      </c>
-      <c r="AO17" s="3">
-        <f t="shared" si="1"/>
         <v>99.964534828797341</v>
       </c>
       <c r="AP17" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>640.47277464810452</v>
       </c>
     </row>
@@ -3450,7 +3410,7 @@
         <v>5432.05</v>
       </c>
       <c r="G18" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>15.000529268550864</v>
       </c>
       <c r="H18" s="5">
@@ -3458,106 +3418,106 @@
         <v>7.0955000000000004</v>
       </c>
       <c r="I18" s="37">
+        <f t="shared" si="20"/>
+        <v>5.7372774010878658</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="21"/>
+        <v>108.74469894491386</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>106.36863617964786</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>85.907499999999985</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5372774010878656</v>
+      </c>
+      <c r="O18" s="20">
+        <f t="shared" si="2"/>
+        <v>2.2508731504951331</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3834</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="4"/>
+        <v>20.687744376174276</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="5"/>
+        <v>31.787026252127944</v>
+      </c>
+      <c r="S18" s="36">
+        <f t="shared" si="22"/>
+        <v>2.6829166666666664</v>
+      </c>
+      <c r="T18" s="35">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="U18" s="7">
+        <v>603.77</v>
+      </c>
+      <c r="V18" s="7">
+        <v>480.46</v>
+      </c>
+      <c r="W18" s="3">
+        <f t="shared" si="7"/>
+        <v>8.9968862315120006</v>
+      </c>
+      <c r="X18" s="3">
+        <f t="shared" si="8"/>
+        <v>11.278080728191041</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>7.0955000000000004</v>
+      </c>
+      <c r="Z18" s="13">
+        <f t="shared" si="10"/>
+        <v>5.7372774010878658</v>
+      </c>
+      <c r="AA18" s="13">
+        <f t="shared" si="11"/>
+        <v>0.38500000000000068</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>12463.15</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>1418</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>2415</v>
+      </c>
+      <c r="AE18" s="7">
         <f t="shared" si="12"/>
-        <v>5.7372774010878658</v>
-      </c>
-      <c r="J18" s="7">
+        <v>5432.05</v>
+      </c>
+      <c r="AF18" s="13">
         <f t="shared" si="13"/>
         <v>108.74469894491386</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>106.36863617964786</v>
-      </c>
-      <c r="L18" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="M18" s="7">
-        <v>85.907499999999985</v>
-      </c>
-      <c r="N18" s="3">
-        <f>I18-L18</f>
-        <v>2.5372774010878656</v>
-      </c>
-      <c r="O18" s="20">
-        <f>J18*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.2835808226546392</v>
-      </c>
-      <c r="P18" s="5">
-        <f>L18*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>1.3834</v>
-      </c>
-      <c r="Q18" s="7">
-        <f>(F18*100/MAX($F$2:$F$37))</f>
-        <v>21.108455739488615</v>
-      </c>
-      <c r="R18" s="7">
-        <f>(H18*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>31.968911917098449</v>
-      </c>
-      <c r="S18" s="36">
+      <c r="AG18" s="6">
         <f t="shared" si="14"/>
-        <v>2.6829166666666664</v>
-      </c>
-      <c r="T18" s="35">
-        <f>IF(D18&gt;0,-0.5,1)+IF(J18&gt;100,1,-0.5)+IF(M18&gt;100,1,-0.5)+IF(S18&gt;1,1,-0.5)+IF(L18&gt;I18,1,-0.5)</f>
-        <v>2</v>
-      </c>
-      <c r="U18" s="7">
-        <v>603.77</v>
-      </c>
-      <c r="V18" s="7">
-        <v>480.46</v>
-      </c>
-      <c r="W18" s="3">
-        <f>F18/U18</f>
-        <v>8.9968862315120006</v>
-      </c>
-      <c r="X18" s="3">
-        <f>AN18/V18</f>
-        <v>11.278080728191041</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>7.0955000000000004</v>
-      </c>
-      <c r="Z18" s="13">
-        <f t="shared" si="2"/>
-        <v>5.7372774010878658</v>
-      </c>
-      <c r="AA18" s="13">
-        <f t="shared" si="3"/>
-        <v>0.38500000000000068</v>
-      </c>
-      <c r="AB18" s="7">
-        <v>12463.15</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>1418</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>2415</v>
-      </c>
-      <c r="AE18" s="7">
-        <f t="shared" si="4"/>
-        <v>5432.05</v>
-      </c>
-      <c r="AF18" s="13">
-        <f t="shared" si="5"/>
-        <v>108.74469894491386</v>
-      </c>
-      <c r="AG18" s="6">
-        <f t="shared" si="6"/>
         <v>765.56268057219359</v>
       </c>
       <c r="AH18" s="3">
         <v>7.8016750000000004</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>9.4101255562240311</v>
       </c>
       <c r="AJ18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.67100500000000007</v>
       </c>
       <c r="AK18" s="1">
@@ -3570,15 +3530,15 @@
         <v>4119</v>
       </c>
       <c r="AN18" s="7">
+        <f t="shared" si="17"/>
+        <v>5418.666666666667</v>
+      </c>
+      <c r="AO18" s="3">
         <f t="shared" si="9"/>
-        <v>5418.666666666667</v>
-      </c>
-      <c r="AO18" s="3">
-        <f t="shared" si="1"/>
         <v>108.40513566015885</v>
       </c>
       <c r="AP18" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>694.55170417463773</v>
       </c>
     </row>
@@ -3604,7 +3564,7 @@
         <v>5794.94</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>6.6805349729844181</v>
       </c>
       <c r="H19" s="5">
@@ -3612,106 +3572,106 @@
         <v>7.4917999999999996</v>
       </c>
       <c r="I19" s="37">
+        <f t="shared" si="20"/>
+        <v>5.5852300753998918</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="21"/>
+        <v>109.87277908695326</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>109.35412041521862</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="M19" s="7">
+        <v>80.349166666666648</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="1"/>
+        <v>2.785230075399892</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" si="2"/>
+        <v>2.2742229351555276</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="3"/>
+        <v>1.210475</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" si="4"/>
+        <v>22.069796374346215</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" si="5"/>
+        <v>33.562404802437051</v>
+      </c>
+      <c r="S19" s="36">
+        <f t="shared" si="22"/>
+        <v>0.93041666666666956</v>
+      </c>
+      <c r="T19" s="35">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="U19" s="7">
+        <v>695.39</v>
+      </c>
+      <c r="V19" s="7">
+        <v>506.75</v>
+      </c>
+      <c r="W19" s="3">
+        <f t="shared" si="7"/>
+        <v>8.3333668876457807</v>
+      </c>
+      <c r="X19" s="3">
+        <f t="shared" si="8"/>
+        <v>11.892780792632792</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>7.4917999999999996</v>
+      </c>
+      <c r="Z19" s="13">
+        <f t="shared" si="10"/>
+        <v>5.5852300753998918</v>
+      </c>
+      <c r="AA19" s="13">
+        <f t="shared" si="11"/>
+        <v>0.39629999999999921</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>13264.82</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1468</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>2652</v>
+      </c>
+      <c r="AE19" s="7">
         <f t="shared" si="12"/>
-        <v>5.5852300753998918</v>
-      </c>
-      <c r="J19" s="7">
+        <v>5794.94</v>
+      </c>
+      <c r="AF19" s="13">
         <f t="shared" si="13"/>
         <v>109.87277908695326</v>
       </c>
-      <c r="K19" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>109.35412041521862</v>
-      </c>
-      <c r="L19" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="M19" s="7">
-        <v>80.349166666666648</v>
-      </c>
-      <c r="N19" s="3">
-        <f>I19-L19</f>
-        <v>2.785230075399892</v>
-      </c>
-      <c r="O19" s="20">
-        <f>J19*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.3072699054676193</v>
-      </c>
-      <c r="P19" s="5">
-        <f>L19*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>1.210475</v>
-      </c>
-      <c r="Q19" s="7">
-        <f>(F19*100/MAX($F$2:$F$37))</f>
-        <v>22.518613507422089</v>
-      </c>
-      <c r="R19" s="7">
-        <f>(H19*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>33.754449200270329</v>
-      </c>
-      <c r="S19" s="36">
+      <c r="AG19" s="6">
         <f t="shared" si="14"/>
-        <v>0.93041666666666956</v>
-      </c>
-      <c r="T19" s="35">
-        <f>IF(D19&gt;0,-0.5,1)+IF(J19&gt;100,1,-0.5)+IF(M19&gt;100,1,-0.5)+IF(S19&gt;1,1,-0.5)+IF(L19&gt;I19,1,-0.5)</f>
-        <v>-1</v>
-      </c>
-      <c r="U19" s="7">
-        <v>695.39</v>
-      </c>
-      <c r="V19" s="7">
-        <v>506.75</v>
-      </c>
-      <c r="W19" s="3">
-        <f>F19/U19</f>
-        <v>8.3333668876457807</v>
-      </c>
-      <c r="X19" s="3">
-        <f>AN19/V19</f>
-        <v>11.892780792632792</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>7.4917999999999996</v>
-      </c>
-      <c r="Z19" s="13">
-        <f t="shared" si="2"/>
-        <v>5.5852300753998918</v>
-      </c>
-      <c r="AA19" s="13">
-        <f t="shared" si="3"/>
-        <v>0.39629999999999921</v>
-      </c>
-      <c r="AB19" s="7">
-        <v>13264.82</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>1468</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>2652</v>
-      </c>
-      <c r="AE19" s="7">
-        <f t="shared" si="4"/>
-        <v>5794.94</v>
-      </c>
-      <c r="AF19" s="13">
-        <f t="shared" si="5"/>
-        <v>109.87277908695326</v>
-      </c>
-      <c r="AG19" s="6">
-        <f t="shared" si="6"/>
         <v>773.50436477215089</v>
       </c>
       <c r="AH19" s="3">
         <v>8.6914390000000008</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>11.404781665475682</v>
       </c>
       <c r="AJ19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.88976400000000044</v>
       </c>
       <c r="AK19" s="1">
@@ -3724,15 +3684,15 @@
         <v>4399</v>
       </c>
       <c r="AN19" s="7">
+        <f t="shared" si="17"/>
+        <v>6026.666666666667</v>
+      </c>
+      <c r="AO19" s="3">
         <f t="shared" si="9"/>
-        <v>6026.666666666667</v>
-      </c>
-      <c r="AO19" s="3">
-        <f t="shared" si="1"/>
         <v>108.22578908104452</v>
       </c>
       <c r="AP19" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>693.40263064225223</v>
       </c>
     </row>
@@ -3758,7 +3718,7 @@
         <v>3752.1299999999997</v>
       </c>
       <c r="G20" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-35.251616065049859</v>
       </c>
       <c r="H20" s="5">
@@ -3766,106 +3726,106 @@
         <v>8.2623999999999995</v>
       </c>
       <c r="I20" s="37">
+        <f t="shared" si="20"/>
+        <v>10.285912597773574</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="21"/>
+        <v>64.505835031423828</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>109.07665234894111</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="M20" s="7">
+        <v>77.095833333333331</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="1"/>
+        <v>6.4859125977735745</v>
+      </c>
+      <c r="O20" s="20">
+        <f t="shared" si="2"/>
+        <v>1.3351864829388191</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="3"/>
+        <v>1.6427874999999998</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="4"/>
+        <v>14.289836490123392</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" si="5"/>
+        <v>37.014604426126681</v>
+      </c>
+      <c r="S20" s="36">
+        <f t="shared" si="22"/>
+        <v>-3.0641666666666678</v>
+      </c>
+      <c r="T20" s="35">
+        <f t="shared" si="6"/>
+        <v>-2.5</v>
+      </c>
+      <c r="U20" s="7">
+        <v>871.96</v>
+      </c>
+      <c r="V20" s="7">
+        <v>593.17999999999995</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" si="7"/>
+        <v>4.3030987659984401</v>
+      </c>
+      <c r="X20" s="3">
+        <f t="shared" si="8"/>
+        <v>5.8857907099587541</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>8.2623999999999995</v>
+      </c>
+      <c r="Z20" s="13">
+        <f t="shared" si="10"/>
+        <v>10.285912597773574</v>
+      </c>
+      <c r="AA20" s="13">
+        <f t="shared" si="11"/>
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>8776.39</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>903</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>1577</v>
+      </c>
+      <c r="AE20" s="7">
         <f t="shared" si="12"/>
-        <v>10.285912597773574</v>
-      </c>
-      <c r="J20" s="7">
+        <v>3752.1299999999997</v>
+      </c>
+      <c r="AF20" s="13">
         <f t="shared" si="13"/>
         <v>64.505835031423828</v>
       </c>
-      <c r="K20" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>109.07665234894111</v>
-      </c>
-      <c r="L20" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="M20" s="7">
-        <v>77.095833333333331</v>
-      </c>
-      <c r="N20" s="3">
-        <f>I20-L20</f>
-        <v>6.4859125977735745</v>
-      </c>
-      <c r="O20" s="20">
-        <f>J20*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.3545882167709369</v>
-      </c>
-      <c r="P20" s="5">
-        <f>L20*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>1.6427874999999998</v>
-      </c>
-      <c r="Q20" s="7">
-        <f>(F20*100/MAX($F$2:$F$37))</f>
-        <v>14.580438330613195</v>
-      </c>
-      <c r="R20" s="7">
-        <f>(H20*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>37.226402342870017</v>
-      </c>
-      <c r="S20" s="36">
+      <c r="AG20" s="6">
         <f t="shared" si="14"/>
-        <v>-3.0641666666666678</v>
-      </c>
-      <c r="T20" s="35">
-        <f>IF(D20&gt;0,-0.5,1)+IF(J20&gt;100,1,-0.5)+IF(M20&gt;100,1,-0.5)+IF(S20&gt;1,1,-0.5)+IF(L20&gt;I20,1,-0.5)</f>
-        <v>-2.5</v>
-      </c>
-      <c r="U20" s="7">
-        <v>871.96</v>
-      </c>
-      <c r="V20" s="7">
-        <v>593.17999999999995</v>
-      </c>
-      <c r="W20" s="3">
-        <f>F20/U20</f>
-        <v>4.3030987659984401</v>
-      </c>
-      <c r="X20" s="3">
-        <f>AN20/V20</f>
-        <v>5.8857907099587541</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>8.2623999999999995</v>
-      </c>
-      <c r="Z20" s="13">
-        <f t="shared" si="2"/>
-        <v>10.285912597773574</v>
-      </c>
-      <c r="AA20" s="13">
-        <f t="shared" si="3"/>
-        <v>0.77059999999999995</v>
-      </c>
-      <c r="AB20" s="7">
-        <v>8776.39</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>903</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>1577</v>
-      </c>
-      <c r="AE20" s="7">
-        <f t="shared" si="4"/>
-        <v>3752.1299999999997</v>
-      </c>
-      <c r="AF20" s="13">
-        <f t="shared" si="5"/>
-        <v>64.505835031423828</v>
-      </c>
-      <c r="AG20" s="6">
-        <f t="shared" si="6"/>
         <v>454.12107862122383</v>
       </c>
       <c r="AH20" s="3">
         <v>9.4237800000000007</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>8.4260040253403332</v>
       </c>
       <c r="AJ20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.73234099999999991</v>
       </c>
       <c r="AK20" s="1">
@@ -3878,15 +3838,15 @@
         <v>2447</v>
       </c>
       <c r="AN20" s="7">
+        <f t="shared" si="17"/>
+        <v>3491.3333333333335</v>
+      </c>
+      <c r="AO20" s="3">
         <f t="shared" si="9"/>
-        <v>3491.3333333333335</v>
-      </c>
-      <c r="AO20" s="3">
-        <f t="shared" si="1"/>
         <v>57.824442188747952</v>
       </c>
       <c r="AP20" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>370.48120110330814</v>
       </c>
     </row>
@@ -3920,7 +3880,7 @@
         <v>8.4457000000000004</v>
       </c>
       <c r="I21" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>2.2184837335398981</v>
       </c>
       <c r="J21" s="7">
@@ -3928,7 +3888,7 @@
         <v>77.433444255836108</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>108.3179312505119</v>
       </c>
       <c r="L21" s="3">
@@ -3938,31 +3898,31 @@
         <v>80.691250000000011</v>
       </c>
       <c r="N21" s="3">
-        <f>I21-L21</f>
+        <f t="shared" si="1"/>
         <v>2.6184837335398981</v>
       </c>
       <c r="O21" s="20">
-        <f>J21*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.6260611326378107</v>
+        <f t="shared" si="2"/>
+        <v>1.6027710988846779</v>
       </c>
       <c r="P21" s="5">
-        <f>L21*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>-0.172925</v>
       </c>
       <c r="Q21" s="7">
-        <f>(F21*100/MAX($F$2:$F$37))</f>
-        <v>17.890792984637702</v>
+        <f t="shared" si="4"/>
+        <v>17.534212664398517</v>
       </c>
       <c r="R21" s="7">
-        <f>(H21*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>38.052264023428705</v>
+        <f t="shared" si="5"/>
+        <v>37.835767404354449</v>
       </c>
       <c r="S21" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-3.3133333333333348</v>
       </c>
       <c r="T21" s="35">
-        <f>IF(D21&gt;0,-0.5,1)+IF(J21&gt;100,1,-0.5)+IF(M21&gt;100,1,-0.5)+IF(S21&gt;1,1,-0.5)+IF(L21&gt;I21,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-2.5</v>
       </c>
       <c r="U21" s="7">
@@ -3972,22 +3932,22 @@
         <v>696.88</v>
       </c>
       <c r="W21" s="3">
-        <f>F21/U21</f>
+        <f t="shared" si="7"/>
         <v>4.7349376939030865</v>
       </c>
       <c r="X21" s="3">
-        <f>AN21/V21</f>
+        <f t="shared" si="8"/>
         <v>6.1497914514215744</v>
       </c>
       <c r="Y21" s="3">
         <v>8.4457000000000004</v>
       </c>
       <c r="Z21" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2.2184837335398981</v>
       </c>
       <c r="AA21" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.18330000000000091</v>
       </c>
       <c r="AB21" s="7">
@@ -4000,26 +3960,26 @@
         <v>2269</v>
       </c>
       <c r="AE21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>4604.0166666666664</v>
       </c>
       <c r="AF21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>77.433444255836108</v>
       </c>
       <c r="AG21" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>545.13144756108625</v>
       </c>
       <c r="AH21" s="3">
         <v>9.3822489999999998</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.4407042609229137</v>
       </c>
       <c r="AJ21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-4.1531000000000873E-2</v>
       </c>
       <c r="AK21" s="1">
@@ -4032,15 +3992,15 @@
         <v>2964</v>
       </c>
       <c r="AN21" s="7">
+        <f t="shared" si="17"/>
+        <v>4285.666666666667</v>
+      </c>
+      <c r="AO21" s="3">
         <f t="shared" si="9"/>
-        <v>4285.666666666667</v>
-      </c>
-      <c r="AO21" s="3">
-        <f t="shared" si="1"/>
         <v>71.294612105476091</v>
       </c>
       <c r="AP21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>456.7845797597854</v>
       </c>
     </row>
@@ -4066,7 +4026,7 @@
         <v>5162.17</v>
       </c>
       <c r="G22" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>12.123182293721797</v>
       </c>
       <c r="H22" s="5">
@@ -4074,106 +4034,106 @@
         <v>8.825899999999999</v>
       </c>
       <c r="I22" s="37">
+        <f t="shared" si="20"/>
+        <v>4.5016990894774693</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="21"/>
+        <v>83.080794490183351</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>106.75418638617396</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="M22" s="7">
+        <v>81.515500000000003</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9016990894774692</v>
+      </c>
+      <c r="O22" s="20">
+        <f t="shared" si="2"/>
+        <v>1.71966386825428</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="3"/>
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="4"/>
+        <v>19.659917229472402</v>
+      </c>
+      <c r="R22" s="7">
+        <f t="shared" si="5"/>
+        <v>39.539019801093083</v>
+      </c>
+      <c r="S22" s="36">
+        <f t="shared" si="22"/>
+        <v>-0.86874999999999991</v>
+      </c>
+      <c r="T22" s="35">
+        <f t="shared" si="6"/>
+        <v>-2.5</v>
+      </c>
+      <c r="U22" s="7">
+        <v>1224.52</v>
+      </c>
+      <c r="V22" s="7">
+        <v>925.07</v>
+      </c>
+      <c r="W22" s="3">
+        <f t="shared" si="7"/>
+        <v>4.2156681801848892</v>
+      </c>
+      <c r="X22" s="3">
+        <f t="shared" si="8"/>
+        <v>4.8681000717062846</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>8.825899999999999</v>
+      </c>
+      <c r="Z22" s="13">
+        <f t="shared" si="10"/>
+        <v>4.5016990894774693</v>
+      </c>
+      <c r="AA22" s="13">
+        <f t="shared" si="11"/>
+        <v>0.38019999999999854</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>11577.51</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>1257</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>2652</v>
+      </c>
+      <c r="AE22" s="7">
         <f t="shared" si="12"/>
-        <v>4.5016990894774693</v>
-      </c>
-      <c r="J22" s="7">
+        <v>5162.17</v>
+      </c>
+      <c r="AF22" s="13">
         <f t="shared" si="13"/>
         <v>83.080794490183351</v>
       </c>
-      <c r="K22" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>106.75418638617396</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="M22" s="7">
-        <v>81.515500000000003</v>
-      </c>
-      <c r="N22" s="3">
-        <f>I22-L22</f>
-        <v>2.9016990894774692</v>
-      </c>
-      <c r="O22" s="20">
-        <f>J22*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.744652483012529</v>
-      </c>
-      <c r="P22" s="5">
-        <f>L22*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="Q22" s="7">
-        <f>(F22*100/MAX($F$2:$F$37))</f>
-        <v>20.059726431957721</v>
-      </c>
-      <c r="R22" s="7">
-        <f>(H22*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>39.765262446496955</v>
-      </c>
-      <c r="S22" s="36">
+      <c r="AG22" s="6">
         <f t="shared" si="14"/>
-        <v>-0.86874999999999991</v>
-      </c>
-      <c r="T22" s="35">
-        <f>IF(D22&gt;0,-0.5,1)+IF(J22&gt;100,1,-0.5)+IF(M22&gt;100,1,-0.5)+IF(S22&gt;1,1,-0.5)+IF(L22&gt;I22,1,-0.5)</f>
-        <v>-2.5</v>
-      </c>
-      <c r="U22" s="7">
-        <v>1224.52</v>
-      </c>
-      <c r="V22" s="7">
-        <v>925.07</v>
-      </c>
-      <c r="W22" s="3">
-        <f>F22/U22</f>
-        <v>4.2156681801848892</v>
-      </c>
-      <c r="X22" s="3">
-        <f>AN22/V22</f>
-        <v>4.8681000717062846</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>8.825899999999999</v>
-      </c>
-      <c r="Z22" s="13">
-        <f t="shared" si="2"/>
-        <v>4.5016990894774693</v>
-      </c>
-      <c r="AA22" s="13">
-        <f t="shared" si="3"/>
-        <v>0.38019999999999854</v>
-      </c>
-      <c r="AB22" s="7">
-        <v>11577.51</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>1257</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>2652</v>
-      </c>
-      <c r="AE22" s="7">
-        <f t="shared" si="4"/>
-        <v>5162.17</v>
-      </c>
-      <c r="AF22" s="13">
-        <f t="shared" si="5"/>
-        <v>83.080794490183351</v>
-      </c>
-      <c r="AG22" s="6">
-        <f t="shared" si="6"/>
         <v>584.88879321089075</v>
       </c>
       <c r="AH22" s="3">
         <v>9.3207719999999998</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.65524801143095601</v>
       </c>
       <c r="AJ22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-6.1477000000000004E-2</v>
       </c>
       <c r="AK22" s="1">
@@ -4186,15 +4146,15 @@
         <v>2792</v>
       </c>
       <c r="AN22" s="7">
+        <f t="shared" si="17"/>
+        <v>4503.333333333333</v>
+      </c>
+      <c r="AO22" s="3">
         <f t="shared" si="9"/>
-        <v>4503.333333333333</v>
-      </c>
-      <c r="AO22" s="3">
-        <f t="shared" si="1"/>
         <v>75.409747341450469</v>
       </c>
       <c r="AP22" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>483.15025121667315</v>
       </c>
     </row>
@@ -4220,7 +4180,7 @@
         <v>5359.8533333333335</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.8294618994208633</v>
       </c>
       <c r="H23" s="5">
@@ -4228,106 +4188,106 @@
         <v>9.7302999999999997</v>
       </c>
       <c r="I23" s="37">
+        <f t="shared" si="20"/>
+        <v>10.247113608810437</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="21"/>
+        <v>78.244535423399384</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>103.60960695932185</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="M23" s="7">
+        <v>76.324916666666681</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="1"/>
+        <v>7.0471136088104371</v>
+      </c>
+      <c r="O23" s="20">
+        <f t="shared" si="2"/>
+        <v>1.6195596260440268</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3834</v>
+      </c>
+      <c r="Q23" s="7">
+        <f t="shared" si="4"/>
+        <v>20.412786269232726</v>
+      </c>
+      <c r="R23" s="7">
+        <f t="shared" si="5"/>
+        <v>43.590628079921146</v>
+      </c>
+      <c r="S23" s="36">
+        <f t="shared" si="22"/>
+        <v>-6.5833333333333313E-2</v>
+      </c>
+      <c r="T23" s="35">
+        <f t="shared" si="6"/>
+        <v>-2.5</v>
+      </c>
+      <c r="U23" s="7">
+        <v>1571.52</v>
+      </c>
+      <c r="V23" s="7">
+        <v>1129.72</v>
+      </c>
+      <c r="W23" s="3">
+        <f t="shared" si="7"/>
+        <v>3.4106173216588611</v>
+      </c>
+      <c r="X23" s="3">
+        <f t="shared" si="8"/>
+        <v>3.355698757214177</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>9.7302999999999997</v>
+      </c>
+      <c r="Z23" s="13">
+        <f t="shared" si="10"/>
+        <v>10.247113608810437</v>
+      </c>
+      <c r="AA23" s="13">
+        <f t="shared" si="11"/>
+        <v>0.90440000000000076</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>12217.56</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>1257</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>2605</v>
+      </c>
+      <c r="AE23" s="7">
         <f t="shared" si="12"/>
-        <v>10.247113608810437</v>
-      </c>
-      <c r="J23" s="7">
+        <v>5359.8533333333335</v>
+      </c>
+      <c r="AF23" s="13">
         <f t="shared" si="13"/>
         <v>78.244535423399384</v>
       </c>
-      <c r="K23" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>103.60960695932185</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="M23" s="7">
-        <v>76.324916666666681</v>
-      </c>
-      <c r="N23" s="3">
-        <f>I23-L23</f>
-        <v>7.0471136088104371</v>
-      </c>
-      <c r="O23" s="20">
-        <f>J23*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.643093615633697</v>
-      </c>
-      <c r="P23" s="5">
-        <f>L23*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>1.3834</v>
-      </c>
-      <c r="Q23" s="7">
-        <f>(F23*100/MAX($F$2:$F$37))</f>
-        <v>20.827906012797598</v>
-      </c>
-      <c r="R23" s="7">
-        <f>(H23*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>43.840054066231133</v>
-      </c>
-      <c r="S23" s="36">
+      <c r="AG23" s="6">
         <f t="shared" si="14"/>
-        <v>-6.5833333333333313E-2</v>
-      </c>
-      <c r="T23" s="35">
-        <f>IF(D23&gt;0,-0.5,1)+IF(J23&gt;100,1,-0.5)+IF(M23&gt;100,1,-0.5)+IF(S23&gt;1,1,-0.5)+IF(L23&gt;I23,1,-0.5)</f>
-        <v>-2.5</v>
-      </c>
-      <c r="U23" s="7">
-        <v>1571.52</v>
-      </c>
-      <c r="V23" s="7">
-        <v>1129.72</v>
-      </c>
-      <c r="W23" s="3">
-        <f>F23/U23</f>
-        <v>3.4106173216588611</v>
-      </c>
-      <c r="X23" s="3">
-        <f>AN23/V23</f>
-        <v>3.355698757214177</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>9.7302999999999997</v>
-      </c>
-      <c r="Z23" s="13">
-        <f t="shared" si="2"/>
-        <v>10.247113608810437</v>
-      </c>
-      <c r="AA23" s="13">
-        <f t="shared" si="3"/>
-        <v>0.90440000000000076</v>
-      </c>
-      <c r="AB23" s="7">
-        <v>12217.56</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>1257</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>2605</v>
-      </c>
-      <c r="AE23" s="7">
-        <f t="shared" si="4"/>
-        <v>5359.8533333333335</v>
-      </c>
-      <c r="AF23" s="13">
-        <f t="shared" si="5"/>
-        <v>78.244535423399384</v>
-      </c>
-      <c r="AG23" s="6">
-        <f t="shared" si="6"/>
         <v>550.84152938073169</v>
       </c>
       <c r="AH23" s="3">
         <v>9.5350470000000005</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>2.2988975591292302</v>
       </c>
       <c r="AJ23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.21427500000000066</v>
       </c>
       <c r="AK23" s="1">
@@ -4340,15 +4300,15 @@
         <v>2316</v>
       </c>
       <c r="AN23" s="7">
+        <f t="shared" si="17"/>
+        <v>3791</v>
+      </c>
+      <c r="AO23" s="3">
         <f t="shared" si="9"/>
-        <v>3791</v>
-      </c>
-      <c r="AO23" s="3">
-        <f t="shared" si="1"/>
         <v>62.054920323264966</v>
       </c>
       <c r="AP23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>397.58587451115864</v>
       </c>
     </row>
@@ -4374,7 +4334,7 @@
         <v>5849.7133333333331</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>9.1394291883608645</v>
       </c>
       <c r="H24" s="5">
@@ -4382,106 +4342,106 @@
         <v>10.471200000000001</v>
       </c>
       <c r="I24" s="37">
+        <f t="shared" si="20"/>
+        <v>7.6143592694983795</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="21"/>
+        <v>79.353387328476117</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>99.57416022327952</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>80.42091666666667</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="1"/>
+        <v>5.5143592694983798</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" si="2"/>
+        <v>1.6425114113285391</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="3"/>
+        <v>0.90785625000000003</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" si="4"/>
+        <v>22.278398415680698</v>
+      </c>
+      <c r="R24" s="7">
+        <f t="shared" si="5"/>
+        <v>46.909775109757184</v>
+      </c>
+      <c r="S24" s="36">
+        <f t="shared" si="22"/>
+        <v>1.6666666666666774E-3</v>
+      </c>
+      <c r="T24" s="35">
+        <f t="shared" si="6"/>
+        <v>-2.5</v>
+      </c>
+      <c r="U24" s="7">
+        <v>1668.98</v>
+      </c>
+      <c r="V24" s="7">
+        <v>1298.4000000000001</v>
+      </c>
+      <c r="W24" s="3">
+        <f t="shared" si="7"/>
+        <v>3.5049631112016519</v>
+      </c>
+      <c r="X24" s="3">
+        <f t="shared" si="8"/>
+        <v>3.5654138426781676</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>10.471200000000001</v>
+      </c>
+      <c r="Z24" s="13">
+        <f t="shared" si="10"/>
+        <v>7.6143592694983795</v>
+      </c>
+      <c r="AA24" s="13">
+        <f t="shared" si="11"/>
+        <v>0.74090000000000167</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>13104.14</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>1426</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>3019</v>
+      </c>
+      <c r="AE24" s="7">
         <f t="shared" si="12"/>
-        <v>7.6143592694983795</v>
-      </c>
-      <c r="J24" s="7">
+        <v>5849.7133333333331</v>
+      </c>
+      <c r="AF24" s="13">
         <f t="shared" si="13"/>
         <v>79.353387328476117</v>
       </c>
-      <c r="K24" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>99.57416022327952</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="M24" s="7">
-        <v>80.42091666666667</v>
-      </c>
-      <c r="N24" s="3">
-        <f>I24-L24</f>
-        <v>5.5143592694983798</v>
-      </c>
-      <c r="O24" s="20">
-        <f>J24*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.6663789157004156</v>
-      </c>
-      <c r="P24" s="5">
-        <f>L24*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>0.90785625000000003</v>
-      </c>
-      <c r="Q24" s="7">
-        <f>(F24*100/MAX($F$2:$F$37))</f>
-        <v>22.731457734255585</v>
-      </c>
-      <c r="R24" s="7">
-        <f>(H24*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>47.178193286776306</v>
-      </c>
-      <c r="S24" s="36">
+      <c r="AG24" s="6">
         <f t="shared" si="14"/>
-        <v>1.6666666666666774E-3</v>
-      </c>
-      <c r="T24" s="35">
-        <f>IF(D24&gt;0,-0.5,1)+IF(J24&gt;100,1,-0.5)+IF(M24&gt;100,1,-0.5)+IF(S24&gt;1,1,-0.5)+IF(L24&gt;I24,1,-0.5)</f>
-        <v>-2.5</v>
-      </c>
-      <c r="U24" s="7">
-        <v>1668.98</v>
-      </c>
-      <c r="V24" s="7">
-        <v>1298.4000000000001</v>
-      </c>
-      <c r="W24" s="3">
-        <f>F24/U24</f>
-        <v>3.5049631112016519</v>
-      </c>
-      <c r="X24" s="3">
-        <f>AN24/V24</f>
-        <v>3.5654138426781676</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>10.471200000000001</v>
-      </c>
-      <c r="Z24" s="13">
-        <f t="shared" si="2"/>
-        <v>7.6143592694983795</v>
-      </c>
-      <c r="AA24" s="13">
-        <f t="shared" si="3"/>
-        <v>0.74090000000000167</v>
-      </c>
-      <c r="AB24" s="7">
-        <v>13104.14</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>1426</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>3019</v>
-      </c>
-      <c r="AE24" s="7">
-        <f t="shared" si="4"/>
-        <v>5849.7133333333331</v>
-      </c>
-      <c r="AF24" s="13">
-        <f t="shared" si="5"/>
-        <v>79.353387328476117</v>
-      </c>
-      <c r="AG24" s="6">
-        <f t="shared" si="6"/>
         <v>558.64784679247191</v>
       </c>
       <c r="AH24" s="3">
         <v>9.8079680000000007</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>2.8622931800965432</v>
       </c>
       <c r="AJ24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.27292100000000019</v>
       </c>
       <c r="AK24" s="1">
@@ -4494,15 +4454,15 @@
         <v>2635</v>
       </c>
       <c r="AN24" s="7">
+        <f t="shared" si="17"/>
+        <v>4629.333333333333</v>
+      </c>
+      <c r="AO24" s="3">
         <f t="shared" si="9"/>
-        <v>4629.333333333333</v>
-      </c>
-      <c r="AO24" s="3">
-        <f t="shared" si="1"/>
         <v>73.668985448397677</v>
       </c>
       <c r="AP24" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>471.99718976788392</v>
       </c>
     </row>
@@ -4528,7 +4488,7 @@
         <v>7533.5533333333333</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>28.785000290612544</v>
       </c>
       <c r="H25" s="5">
@@ -4536,106 +4496,106 @@
         <v>11.0656</v>
       </c>
       <c r="I25" s="37">
+        <f t="shared" si="20"/>
+        <v>5.6765222706088849</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="21"/>
+        <v>96.70573738213541</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>96.286197309360503</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M25" s="7">
+        <v>81.508416666666662</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1765222706088849</v>
+      </c>
+      <c r="O25" s="20">
+        <f t="shared" si="2"/>
+        <v>2.0016823797778596</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.64846874999999993</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="4"/>
+        <v>28.691235464378209</v>
+      </c>
+      <c r="R25" s="7">
+        <f t="shared" si="5"/>
+        <v>49.572618940955103</v>
+      </c>
+      <c r="S25" s="36">
+        <f t="shared" si="22"/>
+        <v>-1.333333333333335E-2</v>
+      </c>
+      <c r="T25" s="35">
+        <f t="shared" si="6"/>
+        <v>-2.5</v>
+      </c>
+      <c r="U25" s="7">
+        <v>1411.23</v>
+      </c>
+      <c r="V25" s="7">
+        <v>1063.5999999999999</v>
+      </c>
+      <c r="W25" s="3">
+        <f t="shared" si="7"/>
+        <v>5.3382888213355253</v>
+      </c>
+      <c r="X25" s="3">
+        <f t="shared" si="8"/>
+        <v>5.3140278300112831</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>11.0656</v>
+      </c>
+      <c r="Z25" s="13">
+        <f t="shared" si="10"/>
+        <v>5.6765222706088849</v>
+      </c>
+      <c r="AA25" s="13">
+        <f t="shared" si="11"/>
+        <v>0.59439999999999849</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>16576.66</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1848</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>4176</v>
+      </c>
+      <c r="AE25" s="7">
         <f t="shared" si="12"/>
-        <v>5.6765222706088849</v>
-      </c>
-      <c r="J25" s="7">
+        <v>7533.5533333333333</v>
+      </c>
+      <c r="AF25" s="13">
         <f t="shared" si="13"/>
         <v>96.70573738213541</v>
       </c>
-      <c r="K25" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>96.286197309360503</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M25" s="7">
-        <v>81.508416666666662</v>
-      </c>
-      <c r="N25" s="3">
-        <f>I25-L25</f>
-        <v>4.1765222706088849</v>
-      </c>
-      <c r="O25" s="20">
-        <f>J25*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.0307690348969332</v>
-      </c>
-      <c r="P25" s="5">
-        <f>L25*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>0.64846874999999993</v>
-      </c>
-      <c r="Q25" s="7">
-        <f>(F25*100/MAX($F$2:$F$37))</f>
-        <v>29.274707909121528</v>
-      </c>
-      <c r="R25" s="7">
-        <f>(H25*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>49.856273935571075</v>
-      </c>
-      <c r="S25" s="36">
+      <c r="AG25" s="6">
         <f t="shared" si="14"/>
-        <v>-1.333333333333335E-2</v>
-      </c>
-      <c r="T25" s="35">
-        <f>IF(D25&gt;0,-0.5,1)+IF(J25&gt;100,1,-0.5)+IF(M25&gt;100,1,-0.5)+IF(S25&gt;1,1,-0.5)+IF(L25&gt;I25,1,-0.5)</f>
-        <v>-2.5</v>
-      </c>
-      <c r="U25" s="7">
-        <v>1411.23</v>
-      </c>
-      <c r="V25" s="7">
-        <v>1063.5999999999999</v>
-      </c>
-      <c r="W25" s="3">
-        <f>F25/U25</f>
-        <v>5.3382888213355253</v>
-      </c>
-      <c r="X25" s="3">
-        <f>AN25/V25</f>
-        <v>5.3140278300112831</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>11.0656</v>
-      </c>
-      <c r="Z25" s="13">
-        <f t="shared" si="2"/>
-        <v>5.6765222706088849</v>
-      </c>
-      <c r="AA25" s="13">
-        <f t="shared" si="3"/>
-        <v>0.59439999999999849</v>
-      </c>
-      <c r="AB25" s="7">
-        <v>16576.66</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>1848</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>4176</v>
-      </c>
-      <c r="AE25" s="7">
-        <f t="shared" si="4"/>
-        <v>7533.5533333333333</v>
-      </c>
-      <c r="AF25" s="13">
-        <f t="shared" si="5"/>
-        <v>96.70573738213541</v>
-      </c>
-      <c r="AG25" s="6">
-        <f t="shared" si="6"/>
         <v>680.80839117023334</v>
       </c>
       <c r="AH25" s="3">
         <v>9.8494729999999997</v>
       </c>
       <c r="AI25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.42317633989016201</v>
       </c>
       <c r="AJ25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4.1504999999999015E-2</v>
       </c>
       <c r="AK25" s="1">
@@ -4648,15 +4608,15 @@
         <v>3109</v>
       </c>
       <c r="AN25" s="7">
+        <f t="shared" si="17"/>
+        <v>5652</v>
+      </c>
+      <c r="AO25" s="3">
         <f t="shared" si="9"/>
-        <v>5652</v>
-      </c>
-      <c r="AO25" s="3">
-        <f t="shared" si="1"/>
         <v>89.564196718928386</v>
       </c>
       <c r="AP25" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>573.83780837817415</v>
       </c>
     </row>
@@ -4682,7 +4642,7 @@
         <v>8205.69</v>
       </c>
       <c r="G26" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8.921907590309317</v>
       </c>
       <c r="H26" s="5">
@@ -4690,106 +4650,106 @@
         <v>11.732100000000001</v>
       </c>
       <c r="I26" s="37">
+        <f t="shared" si="20"/>
+        <v>6.023170908039333</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="21"/>
+        <v>99.349729878631351</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>93.451041804773851</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="M26" s="7">
+        <v>83.129416666666685</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="1"/>
+        <v>4.4231709080393333</v>
+      </c>
+      <c r="O26" s="20">
+        <f t="shared" si="2"/>
+        <v>2.0564095690405568</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="3"/>
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="4"/>
+        <v>31.251040979028083</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" si="5"/>
+        <v>52.558462503359905</v>
+      </c>
+      <c r="S26" s="36">
+        <f t="shared" si="22"/>
+        <v>-3.4583333333333327E-2</v>
+      </c>
+      <c r="T26" s="35">
+        <f t="shared" si="6"/>
+        <v>-2.5</v>
+      </c>
+      <c r="U26" s="7">
+        <v>1266.4000000000001</v>
+      </c>
+      <c r="V26" s="7">
+        <v>952.91</v>
+      </c>
+      <c r="W26" s="3">
+        <f t="shared" si="7"/>
+        <v>6.4795404295641186</v>
+      </c>
+      <c r="X26" s="3">
+        <f t="shared" si="8"/>
+        <v>6.0247032773294436</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>11.732100000000001</v>
+      </c>
+      <c r="Z26" s="13">
+        <f t="shared" si="10"/>
+        <v>6.023170908039333</v>
+      </c>
+      <c r="AA26" s="13">
+        <f t="shared" si="11"/>
+        <v>0.66650000000000098</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>17823.07</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>4736</v>
+      </c>
+      <c r="AE26" s="7">
         <f t="shared" si="12"/>
-        <v>6.023170908039333</v>
-      </c>
-      <c r="J26" s="7">
+        <v>8205.69</v>
+      </c>
+      <c r="AF26" s="13">
         <f t="shared" si="13"/>
         <v>99.349729878631351</v>
       </c>
-      <c r="K26" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>93.451041804773851</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="M26" s="7">
-        <v>83.129416666666685</v>
-      </c>
-      <c r="N26" s="3">
-        <f>I26-L26</f>
-        <v>4.4231709080393333</v>
-      </c>
-      <c r="O26" s="20">
-        <f>J26*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.0862914706461866</v>
-      </c>
-      <c r="P26" s="5">
-        <f>L26*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="Q26" s="7">
-        <f>(F26*100/MAX($F$2:$F$37))</f>
-        <v>31.886570296106317</v>
-      </c>
-      <c r="R26" s="7">
-        <f>(H26*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>52.859202523090786</v>
-      </c>
-      <c r="S26" s="36">
+      <c r="AG26" s="6">
         <f t="shared" si="14"/>
-        <v>-3.4583333333333327E-2</v>
-      </c>
-      <c r="T26" s="35">
-        <f>IF(D26&gt;0,-0.5,1)+IF(J26&gt;100,1,-0.5)+IF(M26&gt;100,1,-0.5)+IF(S26&gt;1,1,-0.5)+IF(L26&gt;I26,1,-0.5)</f>
-        <v>-2.5</v>
-      </c>
-      <c r="U26" s="7">
-        <v>1266.4000000000001</v>
-      </c>
-      <c r="V26" s="7">
-        <v>952.91</v>
-      </c>
-      <c r="W26" s="3">
-        <f>F26/U26</f>
-        <v>6.4795404295641186</v>
-      </c>
-      <c r="X26" s="3">
-        <f>AN26/V26</f>
-        <v>6.0247032773294436</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>11.732100000000001</v>
-      </c>
-      <c r="Z26" s="13">
-        <f t="shared" si="2"/>
-        <v>6.023170908039333</v>
-      </c>
-      <c r="AA26" s="13">
-        <f t="shared" si="3"/>
-        <v>0.66650000000000098</v>
-      </c>
-      <c r="AB26" s="7">
-        <v>17823.07</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>2058</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>4736</v>
-      </c>
-      <c r="AE26" s="7">
-        <f t="shared" si="4"/>
-        <v>8205.69</v>
-      </c>
-      <c r="AF26" s="13">
-        <f t="shared" si="5"/>
-        <v>99.349729878631351</v>
-      </c>
-      <c r="AG26" s="6">
-        <f t="shared" si="6"/>
         <v>699.42209834556468</v>
       </c>
       <c r="AH26" s="3">
         <v>10.328136000000001</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4.8597828533567196</v>
       </c>
       <c r="AJ26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.47866300000000095</v>
       </c>
       <c r="AK26" s="1">
@@ -4802,15 +4762,15 @@
         <v>3146</v>
       </c>
       <c r="AN26" s="7">
+        <f t="shared" si="17"/>
+        <v>5741</v>
+      </c>
+      <c r="AO26" s="3">
         <f t="shared" si="9"/>
-        <v>5741</v>
-      </c>
-      <c r="AO26" s="3">
-        <f t="shared" si="1"/>
         <v>86.758268288348972</v>
       </c>
       <c r="AP26" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>555.86022492345182</v>
       </c>
     </row>
@@ -4836,7 +4796,7 @@
         <v>8158.3433333333332</v>
       </c>
       <c r="G27" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-0.57699799366862692</v>
       </c>
       <c r="H27" s="5">
@@ -4844,106 +4804,106 @@
         <v>12.458</v>
       </c>
       <c r="I27" s="37">
+        <f t="shared" si="20"/>
+        <v>6.1872980966749225</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="21"/>
+        <v>93.02099752136877</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>91.941991916965421</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="7">
+        <v>96.840666666666664</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="1"/>
+        <v>6.0872980966749228</v>
+      </c>
+      <c r="O27" s="20">
+        <f t="shared" si="2"/>
+        <v>1.9254130802200009</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="3"/>
+        <v>4.3231249999999999E-2</v>
+      </c>
+      <c r="Q27" s="7">
+        <f t="shared" si="4"/>
+        <v>31.070723099578533</v>
+      </c>
+      <c r="R27" s="7">
+        <f t="shared" si="5"/>
+        <v>55.810411253471912</v>
+      </c>
+      <c r="S27" s="36">
+        <f t="shared" si="22"/>
+        <v>3.4166666666666679E-2</v>
+      </c>
+      <c r="T27" s="35">
+        <f t="shared" si="6"/>
+        <v>-2.5</v>
+      </c>
+      <c r="U27" s="7">
+        <v>1160.06</v>
+      </c>
+      <c r="V27" s="7">
+        <v>1045.18</v>
+      </c>
+      <c r="W27" s="3">
+        <f t="shared" si="7"/>
+        <v>7.0326908378302271</v>
+      </c>
+      <c r="X27" s="3">
+        <f t="shared" si="8"/>
+        <v>5.9469820190461613</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>12.458</v>
+      </c>
+      <c r="Z27" s="13">
+        <f t="shared" si="10"/>
+        <v>6.1872980966749225</v>
+      </c>
+      <c r="AA27" s="13">
+        <f t="shared" si="11"/>
+        <v>0.72589999999999932</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>17425.03</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>5007</v>
+      </c>
+      <c r="AE27" s="7">
         <f t="shared" si="12"/>
-        <v>6.1872980966749225</v>
-      </c>
-      <c r="J27" s="7">
+        <v>8158.3433333333332</v>
+      </c>
+      <c r="AF27" s="13">
         <f t="shared" si="13"/>
         <v>93.02099752136877</v>
       </c>
-      <c r="K27" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>91.941991916965421</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="M27" s="7">
-        <v>96.840666666666664</v>
-      </c>
-      <c r="N27" s="3">
-        <f>I27-L27</f>
-        <v>6.0872980966749228</v>
-      </c>
-      <c r="O27" s="20">
-        <f>J27*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>1.9533914582043879</v>
-      </c>
-      <c r="P27" s="5">
-        <f>L27*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>4.3231249999999999E-2</v>
-      </c>
-      <c r="Q27" s="7">
-        <f>(F27*100/MAX($F$2:$F$37))</f>
-        <v>31.702585425248053</v>
-      </c>
-      <c r="R27" s="7">
-        <f>(H27*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>56.129758954719527</v>
-      </c>
-      <c r="S27" s="36">
+      <c r="AG27" s="6">
         <f t="shared" si="14"/>
-        <v>3.4166666666666679E-2</v>
-      </c>
-      <c r="T27" s="35">
-        <f>IF(D27&gt;0,-0.5,1)+IF(J27&gt;100,1,-0.5)+IF(M27&gt;100,1,-0.5)+IF(S27&gt;1,1,-0.5)+IF(L27&gt;I27,1,-0.5)</f>
-        <v>-2.5</v>
-      </c>
-      <c r="U27" s="7">
-        <v>1160.06</v>
-      </c>
-      <c r="V27" s="7">
-        <v>1045.18</v>
-      </c>
-      <c r="W27" s="3">
-        <f>F27/U27</f>
-        <v>7.0326908378302271</v>
-      </c>
-      <c r="X27" s="3">
-        <f>AN27/V27</f>
-        <v>5.9469820190461613</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>12.458</v>
-      </c>
-      <c r="Z27" s="13">
-        <f t="shared" si="2"/>
-        <v>6.1872980966749225</v>
-      </c>
-      <c r="AA27" s="13">
-        <f t="shared" si="3"/>
-        <v>0.72589999999999932</v>
-      </c>
-      <c r="AB27" s="7">
-        <v>17425.03</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>2043</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>5007</v>
-      </c>
-      <c r="AE27" s="7">
-        <f t="shared" si="4"/>
-        <v>8158.3433333333332</v>
-      </c>
-      <c r="AF27" s="13">
-        <f t="shared" si="5"/>
-        <v>93.02099752136877</v>
-      </c>
-      <c r="AG27" s="6">
-        <f t="shared" si="6"/>
         <v>654.86782255043613</v>
       </c>
       <c r="AH27" s="3">
         <v>10.837680000000001</v>
       </c>
       <c r="AI27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4.9335523854449548</v>
       </c>
       <c r="AJ27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.509544</v>
       </c>
       <c r="AK27" s="1">
@@ -4956,15 +4916,15 @@
         <v>3267</v>
       </c>
       <c r="AN27" s="7">
+        <f t="shared" si="17"/>
+        <v>6215.666666666667</v>
+      </c>
+      <c r="AO27" s="3">
         <f t="shared" si="9"/>
-        <v>6215.666666666667</v>
-      </c>
-      <c r="AO27" s="3">
-        <f t="shared" si="1"/>
         <v>89.515175711904277</v>
       </c>
       <c r="AP27" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>573.52373078617074</v>
       </c>
     </row>
@@ -4990,7 +4950,7 @@
         <v>9127.8666666666668</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>11.883826087240749</v>
       </c>
       <c r="H28" s="5">
@@ -4998,11 +4958,11 @@
         <v>13.275399999999999</v>
       </c>
       <c r="I28" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.5612457858404127</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>97.667261980578346</v>
       </c>
       <c r="K28" s="5">
@@ -5016,31 +4976,31 @@
         <v>97.226583333333338</v>
       </c>
       <c r="N28" s="3">
-        <f>I28-L28</f>
+        <f t="shared" si="1"/>
         <v>5.2612457858404129</v>
       </c>
       <c r="O28" s="20">
-        <f>J28*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.0509605399065451</v>
+        <f t="shared" si="2"/>
+        <v>2.0215846823560488</v>
       </c>
       <c r="P28" s="5">
-        <f>L28*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>0.56200625000000004</v>
       </c>
       <c r="Q28" s="7">
-        <f>(F28*100/MAX($F$2:$F$37))</f>
-        <v>35.470065542343463</v>
+        <f t="shared" si="4"/>
+        <v>34.76311379678058</v>
       </c>
       <c r="R28" s="7">
-        <f>(H28*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>59.812570398738451</v>
+        <f t="shared" si="5"/>
+        <v>59.472269509900535</v>
       </c>
       <c r="S28" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.28416666666666668</v>
       </c>
       <c r="T28" s="35">
-        <f>IF(D28&gt;0,-0.5,1)+IF(J28&gt;100,1,-0.5)+IF(M28&gt;100,1,-0.5)+IF(S28&gt;1,1,-0.5)+IF(L28&gt;I28,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-2.5</v>
       </c>
       <c r="U28" s="7">
@@ -5050,22 +5010,22 @@
         <v>1129.0999999999999</v>
       </c>
       <c r="W28" s="3">
-        <f>F28/U28</f>
+        <f t="shared" si="7"/>
         <v>7.2976228547063213</v>
       </c>
       <c r="X28" s="3">
-        <f>AN28/V28</f>
+        <f t="shared" si="8"/>
         <v>5.7960617601039175</v>
       </c>
       <c r="Y28" s="3">
         <v>13.275399999999999</v>
       </c>
       <c r="Z28" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>6.5612457858404127</v>
       </c>
       <c r="AA28" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.81739999999999924</v>
       </c>
       <c r="AB28" s="7">
@@ -5078,26 +5038,26 @@
         <v>5383</v>
       </c>
       <c r="AE28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>9127.8666666666668</v>
       </c>
       <c r="AF28" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>97.667261980578346</v>
       </c>
       <c r="AG28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>687.57752434327153</v>
       </c>
       <c r="AH28" s="3">
         <v>11.392602</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.1203025001660762</v>
       </c>
       <c r="AJ28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.55492199999999947</v>
       </c>
       <c r="AK28" s="1">
@@ -5110,15 +5070,15 @@
         <v>3290</v>
       </c>
       <c r="AN28" s="7">
+        <f t="shared" si="17"/>
+        <v>6544.333333333333</v>
+      </c>
+      <c r="AO28" s="3">
         <f t="shared" si="9"/>
-        <v>6544.333333333333</v>
-      </c>
-      <c r="AO28" s="3">
-        <f t="shared" si="1"/>
         <v>89.657734811026771</v>
       </c>
       <c r="AP28" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>574.4371069342485</v>
       </c>
     </row>
@@ -5144,7 +5104,7 @@
         <v>11431.74</v>
       </c>
       <c r="G29" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>25.239997662834682</v>
       </c>
       <c r="H29" s="5">
@@ -5152,11 +5112,11 @@
         <v>13.8584</v>
       </c>
       <c r="I29" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4.3915814212754469</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>117.17274032683821</v>
       </c>
       <c r="K29" s="5">
@@ -5170,31 +5130,31 @@
         <v>95.790583333333316</v>
       </c>
       <c r="N29" s="3">
-        <f>I29-L29</f>
+        <f t="shared" si="1"/>
         <v>2.2915814212754468</v>
       </c>
       <c r="O29" s="20">
-        <f>J29*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.4605652077238509</v>
+        <f t="shared" si="2"/>
+        <v>2.4253225925543282</v>
       </c>
       <c r="P29" s="5">
-        <f>L29*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>0.90785625000000003</v>
       </c>
       <c r="Q29" s="7">
-        <f>(F29*100/MAX($F$2:$F$37))</f>
-        <v>44.422709256236885</v>
+        <f t="shared" si="4"/>
+        <v>43.537322906616566</v>
       </c>
       <c r="R29" s="7">
-        <f>(H29*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>62.439288127956743</v>
+        <f t="shared" si="5"/>
+        <v>62.084042648508188</v>
       </c>
       <c r="S29" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.73791666666666667</v>
       </c>
       <c r="T29" s="35">
-        <f>IF(D29&gt;0,-0.5,1)+IF(J29&gt;100,1,-0.5)+IF(M29&gt;100,1,-0.5)+IF(S29&gt;1,1,-0.5)+IF(L29&gt;I29,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U29" s="7">
@@ -5204,22 +5164,22 @@
         <v>1114.23</v>
       </c>
       <c r="W29" s="3">
-        <f>F29/U29</f>
+        <f t="shared" si="7"/>
         <v>9.0933778785347794</v>
       </c>
       <c r="X29" s="3">
-        <f>AN29/V29</f>
+        <f t="shared" si="8"/>
         <v>6.5013507085610689</v>
       </c>
       <c r="Y29" s="3">
         <v>13.8584</v>
       </c>
       <c r="Z29" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4.3915814212754469</v>
       </c>
       <c r="AA29" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.58300000000000018</v>
       </c>
       <c r="AB29" s="7">
@@ -5232,26 +5192,26 @@
         <v>6903</v>
       </c>
       <c r="AE29" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>11431.74</v>
       </c>
       <c r="AF29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>117.17274032683821</v>
       </c>
       <c r="AG29" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>824.89609190094097</v>
       </c>
       <c r="AH29" s="3">
         <v>11.871539</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4.2039298836209724</v>
       </c>
       <c r="AJ29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.47893700000000017</v>
       </c>
       <c r="AK29" s="1">
@@ -5264,15 +5224,15 @@
         <v>3503</v>
       </c>
       <c r="AN29" s="7">
+        <f t="shared" si="17"/>
+        <v>7244</v>
+      </c>
+      <c r="AO29" s="3">
         <f t="shared" si="9"/>
-        <v>7244</v>
-      </c>
-      <c r="AO29" s="3">
-        <f t="shared" si="1"/>
         <v>95.239409506135544</v>
       </c>
       <c r="AP29" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>610.1988967058104</v>
       </c>
     </row>
@@ -5298,7 +5258,7 @@
         <v>10822.82</v>
       </c>
       <c r="G30" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-5.3265732075781926</v>
       </c>
       <c r="H30" s="5">
@@ -5306,11 +5266,11 @@
         <v>14.4346</v>
       </c>
       <c r="I30" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4.1577671304046646</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>106.50328975958021</v>
       </c>
       <c r="K30" s="5">
@@ -5324,31 +5284,31 @@
         <v>93.598499999999987</v>
       </c>
       <c r="N30" s="3">
-        <f>I30-L30</f>
+        <f t="shared" si="1"/>
         <v>1.7577671304046647</v>
       </c>
       <c r="O30" s="20">
-        <f>J30*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.2365124222543336</v>
+        <f t="shared" si="2"/>
+        <v>2.2044789096402626</v>
       </c>
       <c r="P30" s="5">
-        <f>L30*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>1.03755</v>
       </c>
       <c r="Q30" s="7">
-        <f>(F30*100/MAX($F$2:$F$37))</f>
-        <v>42.056501126913808</v>
+        <f t="shared" si="4"/>
+        <v>41.218275529375923</v>
       </c>
       <c r="R30" s="7">
-        <f>(H30*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>65.035368326199588</v>
+        <f t="shared" si="5"/>
+        <v>64.665352566974278</v>
       </c>
       <c r="S30" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.1333333333333333</v>
       </c>
       <c r="T30" s="35">
-        <f>IF(D30&gt;0,-0.5,1)+IF(J30&gt;100,1,-0.5)+IF(M30&gt;100,1,-0.5)+IF(S30&gt;1,1,-0.5)+IF(L30&gt;I30,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="U30" s="7">
@@ -5358,22 +5318,22 @@
         <v>1073.57</v>
       </c>
       <c r="W30" s="3">
-        <f>F30/U30</f>
+        <f t="shared" si="7"/>
         <v>8.5320499176185862</v>
       </c>
       <c r="X30" s="3">
-        <f>AN30/V30</f>
+        <f t="shared" si="8"/>
         <v>5.6785615594077079</v>
       </c>
       <c r="Y30" s="3">
         <v>14.4346</v>
       </c>
       <c r="Z30" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4.1577671304046646</v>
       </c>
       <c r="AA30" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.57620000000000005</v>
       </c>
       <c r="AB30" s="7">
@@ -5386,26 +5346,26 @@
         <v>6635</v>
       </c>
       <c r="AE30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>10822.82</v>
       </c>
       <c r="AF30" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>106.50328975958021</v>
       </c>
       <c r="AG30" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>749.78315990744466</v>
       </c>
       <c r="AH30" s="3">
         <v>12.363619</v>
       </c>
       <c r="AI30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4.1450396616647538</v>
       </c>
       <c r="AJ30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.49207999999999963</v>
       </c>
       <c r="AK30" s="1">
@@ -5418,15 +5378,15 @@
         <v>3001</v>
       </c>
       <c r="AN30" s="7">
+        <f t="shared" si="17"/>
+        <v>6096.333333333333</v>
+      </c>
+      <c r="AO30" s="3">
         <f t="shared" si="9"/>
-        <v>6096.333333333333</v>
-      </c>
-      <c r="AO30" s="3">
-        <f t="shared" si="1"/>
         <v>76.960586360258233</v>
       </c>
       <c r="AP30" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>493.08647681017453</v>
       </c>
     </row>
@@ -5460,106 +5420,106 @@
         <v>15.402100000000001</v>
       </c>
       <c r="I31" s="37">
+        <f t="shared" si="20"/>
+        <v>6.7026450334612662</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="21"/>
+        <v>125.24253874865155</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>95.492697868497842</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="M31" s="7">
+        <v>97.189833333333354</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9026450334612663</v>
+      </c>
+      <c r="O31" s="20">
+        <f t="shared" si="2"/>
+        <v>2.5923568735243729</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" si="3"/>
+        <v>0.77816249999999998</v>
+      </c>
+      <c r="Q31" s="7">
+        <f t="shared" si="4"/>
+        <v>51.719443457065971</v>
+      </c>
+      <c r="R31" s="7">
+        <f t="shared" si="5"/>
+        <v>68.999641609174802</v>
+      </c>
+      <c r="S31" s="36">
+        <f t="shared" si="22"/>
+        <v>0.74166666666666647</v>
+      </c>
+      <c r="T31" s="35">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="U31" s="7">
+        <v>1392.6</v>
+      </c>
+      <c r="V31" s="7">
+        <v>1244.8800000000001</v>
+      </c>
+      <c r="W31" s="3">
+        <f t="shared" si="7"/>
+        <v>9.7516491933553553</v>
+      </c>
+      <c r="X31" s="3">
+        <f t="shared" si="8"/>
+        <v>6.1510614142193081</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>15.402100000000001</v>
+      </c>
+      <c r="Z31" s="13">
+        <f t="shared" si="10"/>
+        <v>6.7026450334612662</v>
+      </c>
+      <c r="AA31" s="13">
+        <f t="shared" si="11"/>
+        <v>0.96750000000000114</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>28538.44</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>3230</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>8972</v>
+      </c>
+      <c r="AE31" s="7">
         <f t="shared" si="12"/>
-        <v>6.7026450334612662</v>
-      </c>
-      <c r="J31" s="7">
+        <v>13580.146666666667</v>
+      </c>
+      <c r="AF31" s="13">
         <f t="shared" si="13"/>
         <v>125.24253874865155</v>
       </c>
-      <c r="K31" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>95.492697868497842</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="M31" s="7">
-        <v>97.189833333333354</v>
-      </c>
-      <c r="N31" s="3">
-        <f>I31-L31</f>
-        <v>4.9026450334612663</v>
-      </c>
-      <c r="O31" s="20">
-        <f>J31*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.6300266812258983</v>
-      </c>
-      <c r="P31" s="5">
-        <f>L31*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>0.77816249999999998</v>
-      </c>
-      <c r="Q31" s="7">
-        <f>(F31*100/MAX($F$2:$F$37))</f>
-        <v>52.771223543431518</v>
-      </c>
-      <c r="R31" s="7">
-        <f>(H31*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>69.394458211308859</v>
-      </c>
-      <c r="S31" s="36">
+      <c r="AG31" s="6">
         <f t="shared" si="14"/>
-        <v>0.74166666666666647</v>
-      </c>
-      <c r="T31" s="35">
-        <f>IF(D31&gt;0,-0.5,1)+IF(J31&gt;100,1,-0.5)+IF(M31&gt;100,1,-0.5)+IF(S31&gt;1,1,-0.5)+IF(L31&gt;I31,1,-0.5)</f>
-        <v>-1</v>
-      </c>
-      <c r="U31" s="7">
-        <v>1392.6</v>
-      </c>
-      <c r="V31" s="7">
-        <v>1244.8800000000001</v>
-      </c>
-      <c r="W31" s="3">
-        <f>F31/U31</f>
-        <v>9.7516491933553553</v>
-      </c>
-      <c r="X31" s="3">
-        <f>AN31/V31</f>
-        <v>6.1510614142193081</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>15.402100000000001</v>
-      </c>
-      <c r="Z31" s="13">
-        <f t="shared" si="2"/>
-        <v>6.7026450334612662</v>
-      </c>
-      <c r="AA31" s="13">
-        <f t="shared" si="3"/>
-        <v>0.96750000000000114</v>
-      </c>
-      <c r="AB31" s="7">
-        <v>28538.44</v>
-      </c>
-      <c r="AC31" s="1">
-        <v>3230</v>
-      </c>
-      <c r="AD31" s="1">
-        <v>8972</v>
-      </c>
-      <c r="AE31" s="7">
-        <f t="shared" si="4"/>
-        <v>13580.146666666667</v>
-      </c>
-      <c r="AF31" s="13">
-        <f t="shared" si="5"/>
-        <v>125.24253874865155</v>
-      </c>
-      <c r="AG31" s="6">
-        <f t="shared" si="6"/>
         <v>881.70747279050693</v>
       </c>
       <c r="AH31" s="3">
         <v>12.995488999999999</v>
       </c>
       <c r="AI31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.1107204128499859</v>
       </c>
       <c r="AJ31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.63186999999999927</v>
       </c>
       <c r="AK31" s="1">
@@ -5572,15 +5532,15 @@
         <v>3745</v>
       </c>
       <c r="AN31" s="7">
+        <f t="shared" si="17"/>
+        <v>7657.333333333333</v>
+      </c>
+      <c r="AO31" s="3">
         <f t="shared" si="9"/>
-        <v>7657.333333333333</v>
-      </c>
-      <c r="AO31" s="3">
-        <f t="shared" si="1"/>
         <v>91.966615244527006</v>
       </c>
       <c r="AP31" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>589.23010387168449</v>
       </c>
     </row>
@@ -5606,7 +5566,7 @@
         <v>15750.159999999998</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>15.979307047248355</v>
       </c>
       <c r="H32" s="5">
@@ -5614,7 +5574,7 @@
         <v>19.187999999999999</v>
       </c>
       <c r="I32" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>24.580414359080891</v>
       </c>
       <c r="J32" s="7">
@@ -5632,31 +5592,31 @@
         <v>95.356416666666675</v>
       </c>
       <c r="N32" s="3">
-        <f>I32-L32</f>
+        <f t="shared" si="1"/>
         <v>23.410414359080889</v>
       </c>
       <c r="O32" s="20">
-        <f>J32*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.4484480451731612</v>
+        <f t="shared" si="2"/>
+        <v>2.4133789838258983</v>
       </c>
       <c r="P32" s="5">
-        <f>L32*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>0.50580562499999993</v>
       </c>
       <c r="Q32" s="7">
-        <f>(F32*100/MAX($F$2:$F$37))</f>
-        <v>61.203699386026258</v>
+        <f t="shared" si="4"/>
+        <v>59.983852130198542</v>
       </c>
       <c r="R32" s="7">
-        <f>(H32*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>86.451903581887805</v>
+        <f t="shared" si="5"/>
+        <v>85.960039422990747</v>
       </c>
       <c r="S32" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-1.6191666666666666</v>
       </c>
       <c r="T32" s="35">
-        <f>IF(D32&gt;0,-0.5,1)+IF(J32&gt;100,1,-0.5)+IF(M32&gt;100,1,-0.5)+IF(S32&gt;1,1,-0.5)+IF(L32&gt;I32,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U32" s="7">
@@ -5666,22 +5626,22 @@
         <v>1549.04</v>
       </c>
       <c r="W32" s="3">
-        <f>F32/U32</f>
+        <f t="shared" si="7"/>
         <v>8.900457168044575</v>
       </c>
       <c r="X32" s="3">
-        <f>AN32/V32</f>
+        <f t="shared" si="8"/>
         <v>4.910783452977328</v>
       </c>
       <c r="Y32" s="3">
         <v>19.187999999999999</v>
       </c>
       <c r="Z32" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>24.580414359080891</v>
       </c>
       <c r="AA32" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>3.785899999999998</v>
       </c>
       <c r="AB32" s="7">
@@ -5694,26 +5654,26 @@
         <v>12888</v>
       </c>
       <c r="AE32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>15750.159999999998</v>
       </c>
       <c r="AF32" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>116.59571796766917</v>
       </c>
       <c r="AG32" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>820.83385449239097</v>
       </c>
       <c r="AH32" s="3">
         <v>14.492039</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>11.515919100851079</v>
       </c>
       <c r="AJ32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.4965500000000009</v>
       </c>
       <c r="AK32" s="1">
@@ -5726,15 +5686,15 @@
         <v>3552</v>
       </c>
       <c r="AN32" s="7">
+        <f t="shared" si="17"/>
+        <v>7607</v>
+      </c>
+      <c r="AO32" s="3">
         <f t="shared" si="9"/>
-        <v>7607</v>
-      </c>
-      <c r="AO32" s="3">
-        <f t="shared" si="1"/>
         <v>81.927404827859931</v>
       </c>
       <c r="AP32" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>524.90888273209862</v>
       </c>
     </row>
@@ -5772,102 +5732,102 @@
         <v>12.53908692933085</v>
       </c>
       <c r="J33" s="7">
+        <f t="shared" si="21"/>
+        <v>124.43174801642429</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>97.093411293656871</v>
+      </c>
+      <c r="L33" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="M33" s="7">
+        <v>92.763750000000002</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="1"/>
+        <v>7.8390869293308496</v>
+      </c>
+      <c r="O33" s="20">
+        <f t="shared" si="2"/>
+        <v>2.5755745649838429</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0318687500000001</v>
+      </c>
+      <c r="Q33" s="7">
+        <f t="shared" si="4"/>
+        <v>72.042096176306302</v>
+      </c>
+      <c r="R33" s="7">
+        <f t="shared" si="5"/>
+        <v>96.738643490726631</v>
+      </c>
+      <c r="S33" s="36">
+        <f t="shared" si="22"/>
+        <v>-1.1870833333333333</v>
+      </c>
+      <c r="T33" s="35">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="U33" s="7">
+        <v>1798.61</v>
+      </c>
+      <c r="V33" s="7">
+        <v>1520.66</v>
+      </c>
+      <c r="W33" s="3">
+        <f t="shared" si="7"/>
+        <v>10.517195686298493</v>
+      </c>
+      <c r="X33" s="3">
+        <f t="shared" si="8"/>
+        <v>6.0092328331119376</v>
+      </c>
+      <c r="Y33" s="13">
+        <v>21.594000000000001</v>
+      </c>
+      <c r="Z33" s="13">
+        <f t="shared" si="10"/>
+        <v>12.53908692933085</v>
+      </c>
+      <c r="AA33" s="13">
+        <f t="shared" si="11"/>
+        <v>2.4060000000000024</v>
+      </c>
+      <c r="AB33" s="22">
+        <v>36338</v>
+      </c>
+      <c r="AC33" s="22">
+        <v>4766</v>
+      </c>
+      <c r="AD33" s="22">
+        <v>15645</v>
+      </c>
+      <c r="AE33" s="10">
+        <f t="shared" si="12"/>
+        <v>18916.333333333332</v>
+      </c>
+      <c r="AF33" s="13">
         <f t="shared" si="13"/>
         <v>124.43174801642429</v>
       </c>
-      <c r="K33" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>97.093411293656871</v>
-      </c>
-      <c r="L33" s="13">
-        <v>4.7</v>
-      </c>
-      <c r="M33" s="7">
-        <v>92.763750000000002</v>
-      </c>
-      <c r="N33" s="3">
-        <f>I33-L33</f>
-        <v>7.8390869293308496</v>
-      </c>
-      <c r="O33" s="20">
-        <f>J33*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.6130005072122282</v>
-      </c>
-      <c r="P33" s="5">
-        <f>L33*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
-        <v>2.0318687500000001</v>
-      </c>
-      <c r="Q33" s="7">
-        <f>(F33*100/MAX($F$2:$F$37))</f>
-        <v>73.507163026864589</v>
-      </c>
-      <c r="R33" s="7">
-        <f>(H33*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>97.292182924081999</v>
-      </c>
-      <c r="S33" s="36">
+      <c r="AG33" s="6">
         <f t="shared" si="14"/>
-        <v>-1.1870833333333333</v>
-      </c>
-      <c r="T33" s="35">
-        <f>IF(D33&gt;0,-0.5,1)+IF(J33&gt;100,1,-0.5)+IF(M33&gt;100,1,-0.5)+IF(S33&gt;1,1,-0.5)+IF(L33&gt;I33,1,-0.5)</f>
-        <v>-1</v>
-      </c>
-      <c r="U33" s="7">
-        <v>1798.61</v>
-      </c>
-      <c r="V33" s="7">
-        <v>1520.66</v>
-      </c>
-      <c r="W33" s="3">
-        <f>F33/U33</f>
-        <v>10.517195686298493</v>
-      </c>
-      <c r="X33" s="3">
-        <f>AN33/V33</f>
-        <v>6.0092328331119376</v>
-      </c>
-      <c r="Y33" s="13">
-        <v>21.594000000000001</v>
-      </c>
-      <c r="Z33" s="13">
-        <f t="shared" si="2"/>
-        <v>12.53908692933085</v>
-      </c>
-      <c r="AA33" s="13">
-        <f t="shared" si="3"/>
-        <v>2.4060000000000024</v>
-      </c>
-      <c r="AB33" s="22">
-        <v>36338</v>
-      </c>
-      <c r="AC33" s="22">
-        <v>4766</v>
-      </c>
-      <c r="AD33" s="22">
-        <v>15645</v>
-      </c>
-      <c r="AE33" s="10">
-        <f t="shared" si="4"/>
-        <v>18916.333333333332</v>
-      </c>
-      <c r="AF33" s="13">
-        <f t="shared" si="5"/>
-        <v>124.43174801642429</v>
-      </c>
-      <c r="AG33" s="6">
-        <f t="shared" si="6"/>
         <v>875.99950603562706</v>
       </c>
       <c r="AH33" s="13">
         <v>15.396000000000001</v>
       </c>
       <c r="AI33" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.2376384717154139</v>
       </c>
       <c r="AJ33" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.90396100000000068</v>
       </c>
       <c r="AK33" s="10">
@@ -5880,15 +5840,15 @@
         <v>4298</v>
       </c>
       <c r="AN33" s="7">
+        <f t="shared" si="17"/>
+        <v>9138</v>
+      </c>
+      <c r="AO33" s="3">
         <f t="shared" si="9"/>
-        <v>9138</v>
-      </c>
-      <c r="AO33" s="3">
-        <f t="shared" si="1"/>
         <v>92.637862840246456</v>
       </c>
       <c r="AP33" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>593.53078721745908</v>
       </c>
     </row>
@@ -5926,7 +5886,7 @@
         <v>-1.6578679262758271</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>105.80054167594193</v>
       </c>
       <c r="K34" s="5">
@@ -5940,31 +5900,31 @@
         <v>103</v>
       </c>
       <c r="N34" s="3">
-        <f>I34-L34</f>
+        <f t="shared" si="1"/>
         <v>-9.6578679262758271</v>
       </c>
       <c r="O34" s="20">
-        <f>J34*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.2217550863793534</v>
+        <f t="shared" si="2"/>
+        <v>2.1899329427253638</v>
       </c>
       <c r="P34" s="5">
-        <f>L34*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>3.4584999999999999</v>
       </c>
       <c r="Q34" s="7">
-        <f>(F34*100/MAX($F$2:$F$37))</f>
-        <v>61.464728893033865</v>
+        <f t="shared" si="4"/>
+        <v>60.239679073782568</v>
       </c>
       <c r="R34" s="7">
-        <f>(H34*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>95.679207028610037</v>
+        <f t="shared" si="5"/>
+        <v>95.134844547979569</v>
       </c>
       <c r="S34" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3.8720833333333329</v>
       </c>
       <c r="T34" s="35">
-        <f>IF(D34&gt;0,-0.5,1)+IF(J34&gt;100,1,-0.5)+IF(M34&gt;100,1,-0.5)+IF(S34&gt;1,1,-0.5)+IF(L34&gt;I34,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="U34" s="7">
@@ -5974,22 +5934,22 @@
         <v>1710.39</v>
       </c>
       <c r="W34" s="3">
-        <f>F34/U34</f>
+        <f t="shared" si="7"/>
         <v>8.7869680590044581</v>
       </c>
       <c r="X34" s="3">
-        <f>AN34/V34</f>
+        <f t="shared" si="8"/>
         <v>4.7141295260145348</v>
       </c>
       <c r="Y34" s="13">
         <v>21.236000000000001</v>
       </c>
       <c r="Z34" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>-1.6578679262758271</v>
       </c>
       <c r="AA34" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>-0.35800000000000054</v>
       </c>
       <c r="AB34" s="22">
@@ -6002,26 +5962,26 @@
         <v>10466</v>
       </c>
       <c r="AE34" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>15817.333333333334</v>
       </c>
       <c r="AF34" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>105.80054167594193</v>
       </c>
       <c r="AG34" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>744.83581339863122</v>
       </c>
       <c r="AH34" s="13">
         <v>16.068000000000001</v>
       </c>
       <c r="AI34" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4.3647700701480971</v>
       </c>
       <c r="AJ34" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.6720000000000006</v>
       </c>
       <c r="AK34" s="10">
@@ -6034,15 +5994,15 @@
         <v>3793</v>
       </c>
       <c r="AN34" s="7">
+        <f t="shared" si="17"/>
+        <v>8063</v>
+      </c>
+      <c r="AO34" s="3">
         <f t="shared" si="9"/>
-        <v>8063</v>
-      </c>
-      <c r="AO34" s="3">
-        <f t="shared" si="1"/>
         <v>78.321340639102914</v>
       </c>
       <c r="AP34" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>501.80482947473234</v>
       </c>
     </row>
@@ -6079,7 +6039,7 @@
         <v>-1.7470333396119884</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>128.6385602974388</v>
       </c>
       <c r="K35" s="5">
@@ -6093,31 +6053,31 @@
         <v>101</v>
       </c>
       <c r="N35" s="3">
-        <f>I35-L35</f>
+        <f t="shared" si="1"/>
         <v>-5.847033339611988</v>
       </c>
       <c r="O35" s="20">
-        <f>J35*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>2.7013413269730062</v>
+        <f t="shared" si="2"/>
+        <v>2.6626500813481426</v>
       </c>
       <c r="P35" s="5">
-        <f>L35*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>1.7724812499999998</v>
       </c>
       <c r="Q35" s="7">
-        <f>(F35*100/MAX($F$2:$F$37))</f>
-        <v>73.428149529804926</v>
+        <f t="shared" si="4"/>
+        <v>71.964657492510028</v>
       </c>
       <c r="R35" s="7">
-        <f>(H35*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>94.007659382743867</v>
+        <f t="shared" si="5"/>
+        <v>93.472807096138325</v>
       </c>
       <c r="S35" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3.24</v>
       </c>
       <c r="T35" s="35">
-        <f>IF(D35&gt;0,-0.5,1)+IF(J35&gt;100,1,-0.5)+IF(M35&gt;100,1,-0.5)+IF(S35&gt;1,1,-0.5)+IF(L35&gt;I35,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="U35" s="7">
@@ -6127,22 +6087,22 @@
         <v>1794.95</v>
       </c>
       <c r="W35" s="3">
-        <f>F35/U35</f>
+        <f t="shared" si="7"/>
         <v>9.737495748606058</v>
       </c>
       <c r="X35" s="3">
-        <f>AN35/V35</f>
+        <f t="shared" si="8"/>
         <v>5.3511239867405775</v>
       </c>
       <c r="Y35" s="13">
         <v>20.864999999999998</v>
       </c>
       <c r="Z35" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>-1.7470333396119884</v>
       </c>
       <c r="AA35" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>-0.37100000000000222</v>
       </c>
       <c r="AB35" s="22">
@@ -6159,22 +6119,22 @@
         <v>18895.666666666668</v>
       </c>
       <c r="AF35" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>128.6385602974388</v>
       </c>
       <c r="AG35" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>905.61546449396928</v>
       </c>
       <c r="AH35" s="13">
         <v>16.111999999999998</v>
       </c>
       <c r="AI35" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.27383619616627186</v>
       </c>
       <c r="AJ35" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4.399999999999693E-2</v>
       </c>
       <c r="AK35" s="22">
@@ -6187,15 +6147,15 @@
         <v>4521</v>
       </c>
       <c r="AN35" s="7">
+        <f t="shared" si="17"/>
+        <v>9605</v>
+      </c>
+      <c r="AO35" s="3">
         <f t="shared" si="9"/>
-        <v>9605</v>
-      </c>
-      <c r="AO35" s="3">
-        <f t="shared" si="1"/>
         <v>93.045032517035054</v>
       </c>
       <c r="AP35" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>596.13952333664361</v>
       </c>
     </row>
@@ -6221,7 +6181,7 @@
         <v>23145.666666666668</v>
       </c>
       <c r="G36" s="21">
-        <f t="shared" ref="G36:G37" si="16">(F36*100/F35)-100</f>
+        <f t="shared" ref="G36:G37" si="24">(F36*100/F35)-100</f>
         <v>22.489768557719458</v>
       </c>
       <c r="H36" s="20">
@@ -6247,31 +6207,31 @@
         <v>108</v>
       </c>
       <c r="N36" s="13">
-        <f>I36-L36</f>
+        <f t="shared" si="1"/>
         <v>-0.17063982746225914</v>
       </c>
       <c r="O36" s="20">
-        <f>J36*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>3.2191319263299336</v>
+        <f t="shared" si="2"/>
+        <v>3.1730243786398979</v>
       </c>
       <c r="P36" s="5">
-        <f>L36*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>1.2796449999999999</v>
       </c>
       <c r="Q36" s="7">
-        <f>(F36*100/MAX($F$2:$F$37))</f>
-        <v>89.941970415274227</v>
+        <f t="shared" si="4"/>
+        <v>88.149342405931051</v>
       </c>
       <c r="R36" s="7">
-        <f>(H36*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>96.629871592701051</v>
+        <f t="shared" si="5"/>
+        <v>96.080100349431049</v>
       </c>
       <c r="S36" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-0.23499999999999943</v>
       </c>
       <c r="T36" s="35">
-        <f>IF(D36&gt;0,-0.5,1)+IF(J36&gt;100,1,-0.5)+IF(M36&gt;100,1,-0.5)+IF(S36&gt;1,1,-0.5)+IF(L36&gt;I36,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U36" s="10">
@@ -6281,11 +6241,11 @@
         <v>2205.52</v>
       </c>
       <c r="W36" s="3">
-        <f>F36/U36</f>
+        <f t="shared" si="7"/>
         <v>9.69980163719163</v>
       </c>
       <c r="X36" s="3">
-        <f>AN36/V36</f>
+        <f t="shared" si="8"/>
         <v>4.7388673268284425</v>
       </c>
       <c r="Y36" s="13">
@@ -6313,11 +6273,11 @@
         <v>23145.666666666668</v>
       </c>
       <c r="AF36" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>153.29588018950167</v>
       </c>
       <c r="AG36" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1079.2029965340919</v>
       </c>
       <c r="AH36" s="13">
@@ -6345,11 +6305,11 @@
         <v>10451.666666666666</v>
       </c>
       <c r="AO36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>97.793219510633975</v>
       </c>
       <c r="AP36" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>626.5611574046319</v>
       </c>
       <c r="AQ36"/>
@@ -6360,41 +6320,41 @@
         <v>2025</v>
       </c>
       <c r="B37" s="19">
-        <v>3.76</v>
+        <v>3.5819999999999999</v>
       </c>
       <c r="C37" s="20">
-        <v>3.99</v>
+        <v>4.1189999999999998</v>
       </c>
       <c r="D37" s="20">
         <f>C37-B37</f>
-        <v>0.23000000000000043</v>
+        <v>0.53699999999999992</v>
       </c>
       <c r="E37" s="30">
-        <v>4.22</v>
+        <v>3.88</v>
       </c>
       <c r="F37" s="10">
         <f>Monitor!AE37</f>
-        <v>25734</v>
+        <v>26257.333333333332</v>
       </c>
       <c r="G37" s="21">
-        <f t="shared" si="16"/>
-        <v>11.182798796030923</v>
+        <f>(F37*100/F36)-100</f>
+        <v>13.443841179774452</v>
       </c>
       <c r="H37" s="20">
         <f>Monitor!Y37</f>
-        <v>22.195</v>
+        <v>22.321999999999999</v>
       </c>
       <c r="I37" s="38">
         <f>(H37*100/H36)-100</f>
-        <v>3.4876672728120468</v>
+        <v>4.0798246841049917</v>
       </c>
       <c r="J37" s="10">
         <f>AF37</f>
-        <v>164.69464867189581</v>
+        <v>167.08784376332088</v>
       </c>
       <c r="K37" s="5">
         <f ca="1">AVERAGE(OFFSET(J38,-14,0,14,1))</f>
-        <v>114.89091283893798</v>
+        <v>115.06185534546835</v>
       </c>
       <c r="L37" s="13">
         <v>2.65</v>
@@ -6403,110 +6363,110 @@
         <v>98</v>
       </c>
       <c r="N37" s="13">
-        <f>I37-L37</f>
-        <v>0.83766727281204689</v>
+        <f t="shared" si="1"/>
+        <v>1.4298246841049917</v>
       </c>
       <c r="O37" s="20">
-        <f>J37*MAX($D$2:$D$37)/MAX($J$2:$J$37)</f>
-        <v>3.4584999999999999</v>
+        <f t="shared" si="2"/>
+        <v>3.4585000000000004</v>
       </c>
       <c r="P37" s="5">
-        <f>L37*MAX($D$2:$D$37)/MAX($L$2:$L$37)</f>
+        <f t="shared" si="3"/>
         <v>1.145628125</v>
       </c>
       <c r="Q37" s="7">
-        <f>(F37*100/MAX($F$2:$F$37))</f>
+        <f t="shared" si="4"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="R37" s="7">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="R37" s="7">
-        <f>(H37*MAX($Q$2:$Q$37)/MAX($H$2:$H$37))</f>
-        <v>100</v>
-      </c>
       <c r="S37" s="36">
-        <f t="shared" si="14"/>
-        <v>-0.6850000000000005</v>
+        <f t="shared" si="22"/>
+        <v>-1.0250000000000004</v>
       </c>
       <c r="T37" s="35">
-        <f>IF(D37&gt;0,-0.5,1)+IF(J37&gt;100,1,-0.5)+IF(M37&gt;100,1,-0.5)+IF(S37&gt;1,1,-0.5)+IF(L37&gt;I37,1,-0.5)</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="U37" s="10">
-        <v>3200</v>
+        <v>4351</v>
       </c>
       <c r="V37" s="10">
-        <v>2855</v>
+        <v>3500</v>
       </c>
       <c r="W37" s="3">
-        <f>F37/U37</f>
-        <v>8.0418749999999992</v>
+        <f t="shared" si="7"/>
+        <v>6.0347812763349422</v>
       </c>
       <c r="X37" s="3">
-        <f>AN37/V37</f>
-        <v>4.4527729130180971</v>
+        <f t="shared" si="8"/>
+        <v>3.6387619047619046</v>
       </c>
       <c r="Y37" s="13">
-        <v>22.195</v>
+        <v>22.321999999999999</v>
       </c>
       <c r="Z37" s="13">
         <f>(Y37*100/Y36)-100</f>
-        <v>3.4876672728120468</v>
+        <v>4.0798246841049917</v>
       </c>
       <c r="AA37" s="13">
         <f>Y37-Y36</f>
-        <v>0.74800000000000111</v>
+        <v>0.875</v>
       </c>
       <c r="AB37" s="22">
-        <v>47207</v>
+        <v>48445</v>
       </c>
       <c r="AC37" s="22">
-        <v>6791</v>
+        <v>6896</v>
       </c>
       <c r="AD37" s="22">
-        <v>23204</v>
+        <v>23431</v>
       </c>
       <c r="AE37" s="10">
         <f>AVERAGE(AB37:AD37)</f>
-        <v>25734</v>
+        <v>26257.333333333332</v>
       </c>
       <c r="AF37" s="13">
         <f>((AE37/Y37)/100)*100/7.04</f>
-        <v>164.69464867189581</v>
+        <v>167.08784376332088</v>
       </c>
       <c r="AG37" s="26">
         <f>AE37/Y37</f>
-        <v>1159.4503266501465</v>
+        <v>1176.298420093779</v>
       </c>
       <c r="AH37" s="13">
-        <v>16.911999999999999</v>
+        <v>17.085000000000001</v>
       </c>
       <c r="AI37" s="13">
         <f>(AH37*100/AH36)-100</f>
-        <v>1.3848090642047737</v>
+        <v>2.4219171512499145</v>
       </c>
       <c r="AJ37" s="20">
         <f>AH37-AH36</f>
-        <v>0.2309999999999981</v>
+        <v>0.40399999999999991</v>
       </c>
       <c r="AK37" s="22">
-        <v>8225</v>
+        <v>8112</v>
       </c>
       <c r="AL37" s="22">
-        <v>24239</v>
+        <v>24344</v>
       </c>
       <c r="AM37" s="22">
-        <v>5674</v>
+        <v>5751</v>
       </c>
       <c r="AN37" s="7">
         <f>AVERAGE(AK37:AM37)</f>
-        <v>12712.666666666666</v>
+        <v>12735.666666666666</v>
       </c>
       <c r="AO37" s="3">
-        <f t="shared" si="1"/>
-        <v>117.32402823169649</v>
+        <f t="shared" si="9"/>
+        <v>116.34613924991835</v>
       </c>
       <c r="AP37" s="10">
-        <f t="shared" si="10"/>
-        <v>751.69504888047936</v>
+        <f t="shared" si="18"/>
+        <v>745.42971417422689</v>
       </c>
       <c r="AQ37"/>
       <c r="AR37"/>

--- a/public/market_data.xlsx
+++ b/public/market_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismae\Documents\GitHub\galetaireID\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2EEA06-967C-43E2-810F-D4E9A97C74FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792500BF-5DE1-4D04-8090-BD00BA187950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CD70AFFB-D9AB-4B42-B823-CE9D5850E5EA}"/>
   </bookViews>
@@ -778,11 +778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6E76A0-00D2-4583-AD01-5FF02B5D1606}">
-  <dimension ref="A1:AR37"/>
+  <dimension ref="A1:AP37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V38" sqref="V38"/>
+      <selection pane="bottomLeft" activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1008,14 +1008,14 @@
         <v>-2.5</v>
       </c>
       <c r="U2" s="7">
-        <v>383.56</v>
+        <v>368</v>
       </c>
       <c r="V2" s="7">
         <v>282.94628</v>
       </c>
       <c r="W2" s="3">
         <f t="shared" ref="W2:W37" si="7">F2/U2</f>
-        <v>2.8997288559808112</v>
+        <v>3.0223369565217393</v>
       </c>
       <c r="X2" s="3">
         <f t="shared" ref="X2:X37" si="8">AN2/V2</f>
@@ -1154,14 +1154,14 @@
         <v>-1</v>
       </c>
       <c r="U3" s="7">
-        <v>362.26</v>
+        <v>353.9</v>
       </c>
       <c r="V3" s="7">
         <v>278.40719999999999</v>
       </c>
       <c r="W3" s="3">
         <f t="shared" si="7"/>
-        <v>3.8387070060177773</v>
+        <v>3.9293868324385421</v>
       </c>
       <c r="X3" s="3">
         <f t="shared" si="8"/>
@@ -1308,14 +1308,14 @@
         <v>-1</v>
       </c>
       <c r="U4" s="7">
-        <v>343.95</v>
+        <v>333.1</v>
       </c>
       <c r="V4" s="7">
         <v>253.37084999999999</v>
       </c>
       <c r="W4" s="3">
         <f t="shared" si="7"/>
-        <v>4.2759218878713003</v>
+        <v>4.4152006404483144</v>
       </c>
       <c r="X4" s="3">
         <f t="shared" si="8"/>
@@ -1462,14 +1462,14 @@
         <v>-1</v>
       </c>
       <c r="U5" s="7">
-        <v>359.82</v>
+        <v>391.9</v>
       </c>
       <c r="V5" s="7">
         <v>301.327</v>
       </c>
       <c r="W5" s="3">
         <f t="shared" si="7"/>
-        <v>4.6283234209697444</v>
+        <v>4.2494598962320325</v>
       </c>
       <c r="X5" s="3">
         <f t="shared" si="8"/>
@@ -1616,14 +1616,14 @@
         <v>-1</v>
       </c>
       <c r="U6" s="7">
-        <v>384.15</v>
+        <v>384.4</v>
       </c>
       <c r="V6" s="7">
         <v>319.36005999999998</v>
       </c>
       <c r="W6" s="3">
         <f t="shared" si="7"/>
-        <v>4.3771443446570357</v>
+        <v>4.3742976066597308</v>
       </c>
       <c r="X6" s="3">
         <f t="shared" si="8"/>
@@ -1770,14 +1770,14 @@
         <v>-1</v>
       </c>
       <c r="U7" s="7">
-        <v>384.05</v>
+        <v>388.1</v>
       </c>
       <c r="V7" s="7">
         <v>291.93644</v>
       </c>
       <c r="W7" s="3">
         <f t="shared" si="7"/>
-        <v>5.8882263594150066</v>
+        <v>5.8267800395087175</v>
       </c>
       <c r="X7" s="3">
         <f t="shared" si="8"/>
@@ -1924,14 +1924,14 @@
         <v>-1</v>
       </c>
       <c r="U8" s="7">
-        <v>387.87</v>
+        <v>369.2</v>
       </c>
       <c r="V8" s="7">
         <v>300.88346999999999</v>
       </c>
       <c r="W8" s="3">
         <f t="shared" si="7"/>
-        <v>7.2870377531990966</v>
+        <v>7.655534488985194</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" si="8"/>
@@ -2078,14 +2078,14 @@
         <v>-1</v>
       </c>
       <c r="U9" s="7">
-        <v>331.29</v>
+        <v>289.89999999999998</v>
       </c>
       <c r="V9" s="7">
         <v>292.48136</v>
       </c>
       <c r="W9" s="3">
         <f t="shared" si="7"/>
-        <v>10.512743115296768</v>
+        <v>12.01368287915373</v>
       </c>
       <c r="X9" s="3">
         <f t="shared" si="8"/>
@@ -2232,14 +2232,14 @@
         <v>-1</v>
       </c>
       <c r="U10" s="7">
-        <v>294.08999999999997</v>
+        <v>289.2</v>
       </c>
       <c r="V10" s="7">
         <v>264.28111999999999</v>
       </c>
       <c r="W10" s="3">
         <f t="shared" si="7"/>
-        <v>14.284096705090281</v>
+        <v>14.525622406639005</v>
       </c>
       <c r="X10" s="3">
         <f t="shared" si="8"/>
@@ -2386,14 +2386,14 @@
         <v>0.5</v>
       </c>
       <c r="U11" s="7">
-        <v>278.57</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="V11" s="7">
         <v>261.39999999999998</v>
       </c>
       <c r="W11" s="3">
         <f t="shared" si="7"/>
-        <v>16.794246808103292</v>
+        <v>16.154604051565379</v>
       </c>
       <c r="X11" s="3">
         <f t="shared" si="8"/>
@@ -2540,14 +2540,14 @@
         <v>3.5</v>
       </c>
       <c r="U12" s="7">
-        <v>279.10000000000002</v>
+        <v>273.60000000000002</v>
       </c>
       <c r="V12" s="7">
         <v>302.83999999999997</v>
       </c>
       <c r="W12" s="3">
         <f t="shared" si="7"/>
-        <v>17.410713006091004</v>
+        <v>17.760709064327482</v>
       </c>
       <c r="X12" s="3">
         <f t="shared" si="8"/>
@@ -2694,14 +2694,14 @@
         <v>0.5</v>
       </c>
       <c r="U13" s="7">
-        <v>271.04000000000002</v>
+        <v>279</v>
       </c>
       <c r="V13" s="7">
         <v>302.79000000000002</v>
       </c>
       <c r="W13" s="3">
         <f t="shared" si="7"/>
-        <v>16.134850944510031</v>
+        <v>15.674516129032257</v>
       </c>
       <c r="X13" s="3">
         <f t="shared" si="8"/>
@@ -2848,14 +2848,14 @@
         <v>-1</v>
       </c>
       <c r="U14" s="7">
-        <v>309.68</v>
+        <v>348.2</v>
       </c>
       <c r="V14" s="7">
         <v>327.99</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="7"/>
-        <v>11.361868164987513</v>
+        <v>10.104949262875742</v>
       </c>
       <c r="X14" s="3">
         <f t="shared" si="8"/>
@@ -3002,14 +3002,14 @@
         <v>-1</v>
       </c>
       <c r="U15" s="7">
-        <v>363.32</v>
+        <v>416.1</v>
       </c>
       <c r="V15" s="7">
         <v>321.17</v>
       </c>
       <c r="W15" s="3">
         <f t="shared" si="7"/>
-        <v>12.4480898381592</v>
+        <v>10.869118000480654</v>
       </c>
       <c r="X15" s="3">
         <f t="shared" si="8"/>
@@ -3156,14 +3156,14 @@
         <v>-1</v>
       </c>
       <c r="U16" s="7">
-        <v>409.17</v>
+        <v>438.4</v>
       </c>
       <c r="V16" s="7">
         <v>329.09</v>
       </c>
       <c r="W16" s="3">
         <f t="shared" si="7"/>
-        <v>11.542887634316624</v>
+        <v>10.773274026763991</v>
       </c>
       <c r="X16" s="3">
         <f t="shared" si="8"/>
@@ -3310,14 +3310,14 @@
         <v>-1</v>
       </c>
       <c r="U17" s="7">
-        <v>444.45</v>
+        <v>519.70000000000005</v>
       </c>
       <c r="V17" s="7">
         <v>358.31</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" si="7"/>
-        <v>10.627742153223085</v>
+        <v>9.0888974408312482</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" si="8"/>
@@ -3464,18 +3464,18 @@
         <v>2</v>
       </c>
       <c r="U18" s="7">
-        <v>603.77</v>
+        <v>638</v>
       </c>
       <c r="V18" s="7">
-        <v>480.46</v>
+        <v>482.39</v>
       </c>
       <c r="W18" s="3">
         <f t="shared" si="7"/>
-        <v>8.9968862315120006</v>
+        <v>8.5141849529780576</v>
       </c>
       <c r="X18" s="3">
         <f t="shared" si="8"/>
-        <v>11.278080728191041</v>
+        <v>11.232958118258395</v>
       </c>
       <c r="Y18" s="3">
         <v>7.0955000000000004</v>
@@ -3618,18 +3618,18 @@
         <v>-1</v>
       </c>
       <c r="U19" s="7">
-        <v>695.39</v>
+        <v>838</v>
       </c>
       <c r="V19" s="7">
-        <v>506.75</v>
+        <v>571.35</v>
       </c>
       <c r="W19" s="3">
         <f t="shared" si="7"/>
-        <v>8.3333668876457807</v>
+        <v>6.9152028639618131</v>
       </c>
       <c r="X19" s="3">
         <f t="shared" si="8"/>
-        <v>11.892780792632792</v>
+        <v>10.548117032758672</v>
       </c>
       <c r="Y19" s="3">
         <v>7.4917999999999996</v>
@@ -3772,18 +3772,18 @@
         <v>-2.5</v>
       </c>
       <c r="U20" s="7">
-        <v>871.96</v>
+        <v>884.3</v>
       </c>
       <c r="V20" s="7">
-        <v>593.17999999999995</v>
+        <v>629.23</v>
       </c>
       <c r="W20" s="3">
         <f t="shared" si="7"/>
-        <v>4.3030987659984401</v>
+        <v>4.2430510007915867</v>
       </c>
       <c r="X20" s="3">
         <f t="shared" si="8"/>
-        <v>5.8857907099587541</v>
+        <v>5.5485805402370092</v>
       </c>
       <c r="Y20" s="3">
         <v>8.2623999999999995</v>
@@ -3926,18 +3926,18 @@
         <v>-2.5</v>
       </c>
       <c r="U21" s="7">
-        <v>972.35</v>
+        <v>1096.2</v>
       </c>
       <c r="V21" s="7">
-        <v>696.88</v>
+        <v>765.93</v>
       </c>
       <c r="W21" s="3">
         <f t="shared" si="7"/>
-        <v>4.7349376939030865</v>
+        <v>4.1999787143465301</v>
       </c>
       <c r="X21" s="3">
         <f t="shared" si="8"/>
-        <v>6.1497914514215744</v>
+        <v>5.5953764269145578</v>
       </c>
       <c r="Y21" s="3">
         <v>8.4457000000000004</v>
@@ -4080,18 +4080,18 @@
         <v>-2.5</v>
       </c>
       <c r="U22" s="7">
-        <v>1224.52</v>
+        <v>1421.4</v>
       </c>
       <c r="V22" s="7">
-        <v>925.07</v>
+        <v>1061.8499999999999</v>
       </c>
       <c r="W22" s="3">
         <f t="shared" si="7"/>
-        <v>4.2156681801848892</v>
+        <v>3.6317503869424508</v>
       </c>
       <c r="X22" s="3">
         <f t="shared" si="8"/>
-        <v>4.8681000717062846</v>
+        <v>4.2410258825006668</v>
       </c>
       <c r="Y22" s="3">
         <v>8.825899999999999</v>
@@ -4234,18 +4234,18 @@
         <v>-2.5</v>
       </c>
       <c r="U23" s="7">
-        <v>1571.52</v>
+        <v>1566.8</v>
       </c>
       <c r="V23" s="7">
-        <v>1129.72</v>
+        <v>1207.75</v>
       </c>
       <c r="W23" s="3">
         <f t="shared" si="7"/>
-        <v>3.4106173216588611</v>
+        <v>3.4208918389924263</v>
       </c>
       <c r="X23" s="3">
         <f t="shared" si="8"/>
-        <v>3.355698757214177</v>
+        <v>3.1388946387911405</v>
       </c>
       <c r="Y23" s="3">
         <v>9.7302999999999997</v>
@@ -4388,18 +4388,18 @@
         <v>-2.5</v>
       </c>
       <c r="U24" s="7">
-        <v>1668.98</v>
+        <v>1675.8</v>
       </c>
       <c r="V24" s="7">
-        <v>1298.4000000000001</v>
+        <v>1268.07</v>
       </c>
       <c r="W24" s="3">
         <f t="shared" si="7"/>
-        <v>3.5049631112016519</v>
+        <v>3.490698969646338</v>
       </c>
       <c r="X24" s="3">
         <f t="shared" si="8"/>
-        <v>3.5654138426781676</v>
+        <v>3.650692259365282</v>
       </c>
       <c r="Y24" s="3">
         <v>10.471200000000001</v>
@@ -4542,18 +4542,18 @@
         <v>-2.5</v>
       </c>
       <c r="U25" s="7">
-        <v>1411.23</v>
+        <v>1202.3</v>
       </c>
       <c r="V25" s="7">
-        <v>1063.5999999999999</v>
+        <v>876.24</v>
       </c>
       <c r="W25" s="3">
         <f t="shared" si="7"/>
-        <v>5.3382888213355253</v>
+        <v>6.2659513709833927</v>
       </c>
       <c r="X25" s="3">
         <f t="shared" si="8"/>
-        <v>5.3140278300112831</v>
+        <v>6.4502875924404268</v>
       </c>
       <c r="Y25" s="3">
         <v>11.0656</v>
@@ -4696,18 +4696,18 @@
         <v>-2.5</v>
       </c>
       <c r="U26" s="7">
-        <v>1266.4000000000001</v>
+        <v>1184.0999999999999</v>
       </c>
       <c r="V26" s="7">
-        <v>952.91</v>
+        <v>978.26</v>
       </c>
       <c r="W26" s="3">
         <f t="shared" si="7"/>
-        <v>6.4795404295641186</v>
+        <v>6.9298961236382075</v>
       </c>
       <c r="X26" s="3">
         <f t="shared" si="8"/>
-        <v>6.0247032773294436</v>
+        <v>5.8685829942959948</v>
       </c>
       <c r="Y26" s="3">
         <v>11.732100000000001</v>
@@ -4850,18 +4850,18 @@
         <v>-2.5</v>
       </c>
       <c r="U27" s="7">
-        <v>1160.06</v>
+        <v>1060.2</v>
       </c>
       <c r="V27" s="7">
-        <v>1045.18</v>
+        <v>976.25</v>
       </c>
       <c r="W27" s="3">
         <f t="shared" si="7"/>
-        <v>7.0326908378302271</v>
+        <v>7.6950984091052002</v>
       </c>
       <c r="X27" s="3">
         <f t="shared" si="8"/>
-        <v>5.9469820190461613</v>
+        <v>6.3668800682885189</v>
       </c>
       <c r="Y27" s="3">
         <v>12.458</v>
@@ -5004,18 +5004,18 @@
         <v>-2.5</v>
       </c>
       <c r="U28" s="7">
-        <v>1250.8</v>
+        <v>1151.7</v>
       </c>
       <c r="V28" s="7">
-        <v>1129.0999999999999</v>
+        <v>1094.6500000000001</v>
       </c>
       <c r="W28" s="3">
         <f t="shared" si="7"/>
-        <v>7.2976228547063213</v>
+        <v>7.9255593181094612</v>
       </c>
       <c r="X28" s="3">
         <f t="shared" si="8"/>
-        <v>5.7960617601039175</v>
+        <v>5.9784710485847832</v>
       </c>
       <c r="Y28" s="3">
         <v>13.275399999999999</v>
@@ -5158,18 +5158,18 @@
         <v>-1</v>
       </c>
       <c r="U29" s="7">
-        <v>1257.1500000000001</v>
+        <v>1309.3</v>
       </c>
       <c r="V29" s="7">
-        <v>1114.23</v>
+        <v>1085.3800000000001</v>
       </c>
       <c r="W29" s="3">
         <f t="shared" si="7"/>
-        <v>9.0933778785347794</v>
+        <v>8.7311846024593294</v>
       </c>
       <c r="X29" s="3">
         <f t="shared" si="8"/>
-        <v>6.5013507085610689</v>
+        <v>6.6741602019569175</v>
       </c>
       <c r="Y29" s="3">
         <v>13.8584</v>
@@ -5312,18 +5312,18 @@
         <v>0.5</v>
       </c>
       <c r="U30" s="7">
-        <v>1268.49</v>
+        <v>1281.3</v>
       </c>
       <c r="V30" s="7">
-        <v>1073.57</v>
+        <v>1117.6500000000001</v>
       </c>
       <c r="W30" s="3">
         <f t="shared" si="7"/>
-        <v>8.5320499176185862</v>
+        <v>8.4467493951455559</v>
       </c>
       <c r="X30" s="3">
         <f t="shared" si="8"/>
-        <v>5.6785615594077079</v>
+        <v>5.4545996808780322</v>
       </c>
       <c r="Y30" s="3">
         <v>14.4346</v>
@@ -5466,18 +5466,18 @@
         <v>-1</v>
       </c>
       <c r="U31" s="7">
-        <v>1392.6</v>
+        <v>1523.1</v>
       </c>
       <c r="V31" s="7">
-        <v>1244.8800000000001</v>
+        <v>1352.78</v>
       </c>
       <c r="W31" s="3">
         <f t="shared" si="7"/>
-        <v>9.7516491933553553</v>
+        <v>8.916122819687919</v>
       </c>
       <c r="X31" s="3">
         <f t="shared" si="8"/>
-        <v>6.1510614142193081</v>
+        <v>5.6604424469117918</v>
       </c>
       <c r="Y31" s="3">
         <v>15.402100000000001</v>
@@ -5620,18 +5620,18 @@
         <v>-1</v>
       </c>
       <c r="U32" s="7">
-        <v>1769.59</v>
+        <v>1895.1</v>
       </c>
       <c r="V32" s="7">
-        <v>1549.04</v>
+        <v>1553.65</v>
       </c>
       <c r="W32" s="3">
         <f t="shared" si="7"/>
-        <v>8.900457168044575</v>
+        <v>8.3109915044060987</v>
       </c>
       <c r="X32" s="3">
         <f t="shared" si="8"/>
-        <v>4.910783452977328</v>
+        <v>4.8962121455926368</v>
       </c>
       <c r="Y32" s="3">
         <v>19.187999999999999</v>
@@ -5698,7 +5698,7 @@
         <v>524.90888273209862</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>2021</v>
       </c>
@@ -5774,18 +5774,18 @@
         <v>-1</v>
       </c>
       <c r="U33" s="7">
-        <v>1798.61</v>
+        <v>1828.6</v>
       </c>
       <c r="V33" s="7">
-        <v>1520.66</v>
+        <v>1607.8</v>
       </c>
       <c r="W33" s="3">
         <f t="shared" si="7"/>
-        <v>10.517195686298493</v>
+        <v>10.344708155601735</v>
       </c>
       <c r="X33" s="3">
         <f t="shared" si="8"/>
-        <v>6.0092328331119376</v>
+        <v>5.6835427291951737</v>
       </c>
       <c r="Y33" s="13">
         <v>21.594000000000001</v>
@@ -5852,7 +5852,7 @@
         <v>593.53078721745908</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>2022</v>
       </c>
@@ -5928,18 +5928,18 @@
         <v>5</v>
       </c>
       <c r="U34" s="7">
-        <v>1800.09</v>
+        <v>1842.2</v>
       </c>
       <c r="V34" s="7">
-        <v>1710.39</v>
+        <v>1704.09</v>
       </c>
       <c r="W34" s="3">
         <f t="shared" si="7"/>
-        <v>8.7869680590044581</v>
+        <v>8.5861108095393188</v>
       </c>
       <c r="X34" s="3">
         <f t="shared" si="8"/>
-        <v>4.7141295260145348</v>
+        <v>4.7315576055255297</v>
       </c>
       <c r="Y34" s="13">
         <v>21.236000000000001</v>
@@ -6006,7 +6006,7 @@
         <v>501.80482947473234</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>2023</v>
       </c>
@@ -6081,18 +6081,18 @@
         <v>5</v>
       </c>
       <c r="U35" s="7">
-        <v>1940.54</v>
+        <v>2071.8000000000002</v>
       </c>
       <c r="V35" s="7">
-        <v>1794.95</v>
+        <v>1868.63</v>
       </c>
       <c r="W35" s="3">
         <f t="shared" si="7"/>
-        <v>9.737495748606058</v>
+        <v>9.1205714837339507</v>
       </c>
       <c r="X35" s="3">
         <f t="shared" si="8"/>
-        <v>5.3511239867405775</v>
+        <v>5.1401293996136204</v>
       </c>
       <c r="Y35" s="13">
         <v>20.864999999999998</v>
@@ -6159,7 +6159,7 @@
         <v>596.13952333664361</v>
       </c>
     </row>
-    <row r="36" spans="1:44" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29">
         <v>2024</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>23145.666666666668</v>
       </c>
       <c r="G36" s="21">
-        <f t="shared" ref="G36:G37" si="24">(F36*100/F35)-100</f>
+        <f t="shared" ref="G36" si="24">(F36*100/F35)-100</f>
         <v>22.489768557719458</v>
       </c>
       <c r="H36" s="20">
@@ -6235,18 +6235,18 @@
         <v>2</v>
       </c>
       <c r="U36" s="10">
-        <v>2386.1999999999998</v>
+        <v>2653.3</v>
       </c>
       <c r="V36" s="10">
-        <v>2205.52</v>
+        <v>2534.1</v>
       </c>
       <c r="W36" s="3">
         <f t="shared" si="7"/>
-        <v>9.69980163719163</v>
+        <v>8.7233507958642686</v>
       </c>
       <c r="X36" s="3">
         <f t="shared" si="8"/>
-        <v>4.7388673268284425</v>
+        <v>4.1244097181116244</v>
       </c>
       <c r="Y36" s="13">
         <v>21.446999999999999</v>
@@ -6312,10 +6312,8 @@
         <f t="shared" si="18"/>
         <v>626.5611574046319</v>
       </c>
-      <c r="AQ36"/>
-      <c r="AR36"/>
     </row>
-    <row r="37" spans="1:44" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="29">
         <v>2025</v>
       </c>
@@ -6391,18 +6389,18 @@
         <v>-1</v>
       </c>
       <c r="U37" s="10">
-        <v>4351</v>
+        <v>4332</v>
       </c>
       <c r="V37" s="10">
-        <v>3500</v>
+        <v>3685.6</v>
       </c>
       <c r="W37" s="3">
         <f t="shared" si="7"/>
-        <v>6.0347812763349422</v>
+        <v>6.0612496152662354</v>
       </c>
       <c r="X37" s="3">
         <f t="shared" si="8"/>
-        <v>3.6387619047619046</v>
+        <v>3.4555205846176107</v>
       </c>
       <c r="Y37" s="13">
         <v>22.321999999999999</v>
@@ -6468,8 +6466,6 @@
         <f t="shared" si="18"/>
         <v>745.42971417422689</v>
       </c>
-      <c r="AQ37"/>
-      <c r="AR37"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C38:D42">
